--- a/Inleveren herkansing/NIET INLEVEREN J 1.7 excel file.xlsx
+++ b/Inleveren herkansing/NIET INLEVEREN J 1.7 excel file.xlsx
@@ -10,17 +10,28 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{607ECAD8-6C81-46D6-AA5A-54C422430583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{831C79F7-9092-421E-A520-482E849188D9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
     <sheet name="Leeg" sheetId="2" r:id="rId2"/>
     <sheet name="Varend" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -692,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M301"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8126,8 +8137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9252D66-2B01-42E1-BA19-773D2D73A304}">
   <dimension ref="A2:M302"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15497,8 +15508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F90BD7-A296-44A2-B418-4DCBCAB339C9}">
   <dimension ref="A2:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Inleveren herkansing/NIET INLEVEREN J 1.7 excel file.xlsx
+++ b/Inleveren herkansing/NIET INLEVEREN J 1.7 excel file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject 1/IP-26/Inleveren herkansing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{607ECAD8-6C81-46D6-AA5A-54C422430583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{831C79F7-9092-421E-A520-482E849188D9}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{607ECAD8-6C81-46D6-AA5A-54C422430583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44717166-C70D-47E0-933D-159FD0E2479D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
@@ -703,13 +703,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M301"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -717,7 +721,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -725,7 +729,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -733,7 +737,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -741,7 +745,7 @@
         <v>156.83199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -749,7 +753,7 @@
         <v>161.88800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -757,7 +761,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -765,7 +769,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -773,12 +777,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -786,7 +790,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -794,7 +798,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -802,7 +806,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -810,12 +814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -823,7 +827,7 @@
         <v>15.837999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -831,7 +835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -845,12 +849,12 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -858,7 +862,7 @@
         <v>38768.654999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -866,7 +870,7 @@
         <v>74897.298999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -880,7 +884,7 @@
         <v>7.266</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -894,7 +898,7 @@
         <v>11.263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -902,7 +906,7 @@
         <v>0.53710000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -910,12 +914,12 @@
         <v>0.52029999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -923,7 +927,7 @@
         <v>4875.5879999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -937,7 +941,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -951,7 +955,7 @@
         <v>8380400</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -959,7 +963,7 @@
         <v>6512.9639999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -967,7 +971,7 @@
         <v>7.1470000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -975,12 +979,12 @@
         <v>392.17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -988,7 +992,7 @@
         <v>4753.5600000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1002,7 +1006,7 @@
         <v>13.343999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>122.589</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>533.52599999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1040,7 +1044,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1054,12 +1058,12 @@
         <v>61826.546999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-10.010999999999999</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>7.1470000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-2.302</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>108.575</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.407</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>193.30500000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13.116</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>260.339</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20.824999999999999</v>
       </c>
@@ -1115,7 +1119,7 @@
         <v>311.51</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>28.533999999999999</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>348.70699999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>36.243000000000002</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>373.61099999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43.951999999999998</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>387.678</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51.661000000000001</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>392.17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>59.37</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>388.17399999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>67.078999999999994</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>376.61700000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>74.787999999999997</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>357.928</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>82.497</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>329.928</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>90.206000000000003</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>289.06299999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>97.915000000000006</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>238.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>105.624</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>195.77099999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>113.333</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>161.21299999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>121.042</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>128.167</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>128.751</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>93.823999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>136.46</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>144.16900000000001</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>151.87799999999999</v>
       </c>
@@ -1251,12 +1255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -1264,7 +1268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-10.010999999999999</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>221.179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.915</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>348.32499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.18</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>449.20800000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14.275</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>526.548</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>22.37</v>
       </c>
@@ -1312,7 +1316,7 @@
         <v>583.82299999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>30.466000000000001</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>623.89700000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>38.561</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>649.08900000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>46.655999999999999</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>661.31200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>54.750999999999998</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>662.16300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>62.847000000000001</v>
       </c>
@@ -1352,7 +1356,7 @@
         <v>652.995</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>70.941999999999993</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>634.93499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79.037000000000006</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>607.16499999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>87.132000000000005</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>564.56200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95.227999999999994</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>502.54399999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>103.32299999999999</v>
       </c>
@@ -1392,7 +1396,7 @@
         <v>433.79500000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>111.41800000000001</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>370.60700000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>119.51300000000001</v>
       </c>
@@ -1408,7 +1412,7 @@
         <v>307.90300000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>127.608</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>242.173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>135.70400000000001</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>172.78</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>143.79900000000001</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>100.56100000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>151.89400000000001</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>34.771999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>159.989</v>
       </c>
@@ -1448,12 +1452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -1461,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>122.589</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>283.36200000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>131.93899999999999</v>
       </c>
@@ -1485,7 +1489,7 @@
         <v>205.49600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>141.28899999999999</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>123.02500000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>150.63900000000001</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>43.680999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>159.989</v>
       </c>
@@ -1509,12 +1513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -1530,7 +1534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-10.010999999999999</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-1.915</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6.18</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14.275</v>
       </c>
@@ -1705,7 +1709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22.37</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>30.466000000000001</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>38.561</v>
       </c>
@@ -1810,7 +1814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>46.655999999999999</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>54.750999999999998</v>
       </c>
@@ -1880,7 +1884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>62.847000000000001</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>70.941999999999993</v>
       </c>
@@ -1950,7 +1954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>79.037000000000006</v>
       </c>
@@ -1985,7 +1989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87.132000000000005</v>
       </c>
@@ -2020,7 +2024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>95.227999999999994</v>
       </c>
@@ -2055,7 +2059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>103.32299999999999</v>
       </c>
@@ -2090,7 +2094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>111.41800000000001</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119.51300000000001</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>127.608</v>
       </c>
@@ -2195,7 +2199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>135.70400000000001</v>
       </c>
@@ -2230,7 +2234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>143.79900000000001</v>
       </c>
@@ -2265,7 +2269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>151.89400000000001</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>159.989</v>
       </c>
@@ -2335,12 +2339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -2380,7 +2384,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>78416.114000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -2412,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -2420,7 +2424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -2444,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -2452,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>86</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -2508,32 +2512,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -2574,7 +2578,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>19</v>
       </c>
@@ -2615,12 +2619,12 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -2628,7 +2632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6.0999999999999899</v>
       </c>
@@ -2751,7 +2755,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6.2</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6.2999999999999901</v>
       </c>
@@ -2833,7 +2837,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6.4</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6.5</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6.5999999999999899</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6.7</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6.7999999999999901</v>
       </c>
@@ -3038,7 +3042,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6.9</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -3120,7 +3124,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7.0999999999999899</v>
       </c>
@@ -3161,7 +3165,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7.2</v>
       </c>
@@ -3202,7 +3206,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.2999999999999901</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7.4</v>
       </c>
@@ -3284,7 +3288,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7.5</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7.5999999999999899</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7.7</v>
       </c>
@@ -3407,7 +3411,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7.7999999999999901</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7.9</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -3530,7 +3534,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8.0999999999999908</v>
       </c>
@@ -3571,7 +3575,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8.1999999999999904</v>
       </c>
@@ -3612,7 +3616,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8.3000000000000007</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8.4</v>
       </c>
@@ -3694,7 +3698,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8.5</v>
       </c>
@@ -3735,7 +3739,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8.5999999999999908</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8.6999999999999904</v>
       </c>
@@ -3817,7 +3821,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8.8000000000000007</v>
       </c>
@@ -3858,7 +3862,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8.9</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9.0999999999999908</v>
       </c>
@@ -3981,7 +3985,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9.1999999999999904</v>
       </c>
@@ -4022,7 +4026,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9.3000000000000007</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9.4</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9.5</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9.5999999999999908</v>
       </c>
@@ -4186,7 +4190,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9.6999999999999904</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9.8000000000000007</v>
       </c>
@@ -4268,7 +4272,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9.9</v>
       </c>
@@ -4309,7 +4313,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10.1</v>
       </c>
@@ -4391,7 +4395,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10.1999999999999</v>
       </c>
@@ -4432,7 +4436,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10.3</v>
       </c>
@@ -4473,7 +4477,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10.4</v>
       </c>
@@ -4514,7 +4518,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10.5</v>
       </c>
@@ -4555,7 +4559,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10.6</v>
       </c>
@@ -4596,7 +4600,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10.6999999999999</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>10.8</v>
       </c>
@@ -4678,7 +4682,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10.9</v>
       </c>
@@ -4719,7 +4723,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>11</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11.1</v>
       </c>
@@ -4801,7 +4805,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11.1999999999999</v>
       </c>
@@ -4842,7 +4846,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11.3</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11.4</v>
       </c>
@@ -4924,7 +4928,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11.5</v>
       </c>
@@ -4965,7 +4969,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11.6</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11.6999999999999</v>
       </c>
@@ -5047,7 +5051,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11.8</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>11.9</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>12</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>12.1</v>
       </c>
@@ -5211,7 +5215,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>12.1999999999999</v>
       </c>
@@ -5252,7 +5256,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12.3</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>12.4</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>12.5</v>
       </c>
@@ -5375,7 +5379,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12.6</v>
       </c>
@@ -5416,7 +5420,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>12.6999999999999</v>
       </c>
@@ -5457,7 +5461,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>12.8</v>
       </c>
@@ -5498,7 +5502,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13.1</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13.1999999999999</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13.3</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13.4</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13.5</v>
       </c>
@@ -5785,7 +5789,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>13.6</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>13.6999999999999</v>
       </c>
@@ -5867,7 +5871,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>13.8</v>
       </c>
@@ -5908,7 +5912,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>13.9</v>
       </c>
@@ -5949,7 +5953,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>14</v>
       </c>
@@ -5990,7 +5994,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>14.1</v>
       </c>
@@ -6031,7 +6035,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14.2</v>
       </c>
@@ -6072,7 +6076,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>14.3</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14.4</v>
       </c>
@@ -6154,7 +6158,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>14.5</v>
       </c>
@@ -6195,7 +6199,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14.6</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14.7</v>
       </c>
@@ -6277,7 +6281,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14.8</v>
       </c>
@@ -6318,7 +6322,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>14.9</v>
       </c>
@@ -6359,7 +6363,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>15</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>15.1</v>
       </c>
@@ -6441,7 +6445,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>15.2</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>15.3</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>15.4</v>
       </c>
@@ -6564,7 +6568,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>15.5</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>15.6</v>
       </c>
@@ -6646,7 +6650,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>15.7</v>
       </c>
@@ -6687,7 +6691,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>15.8</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>15.9</v>
       </c>
@@ -6769,7 +6773,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>16</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>16.100000000000001</v>
       </c>
@@ -6851,7 +6855,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>16.2</v>
       </c>
@@ -6892,7 +6896,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>16.3</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16.399999999999899</v>
       </c>
@@ -6974,7 +6978,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>16.5</v>
       </c>
@@ -7015,7 +7019,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>16.600000000000001</v>
       </c>
@@ -7056,7 +7060,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>16.7</v>
       </c>
@@ -7097,7 +7101,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>16.8</v>
       </c>
@@ -7138,7 +7142,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>16.899999999999899</v>
       </c>
@@ -7179,7 +7183,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>17</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>17.100000000000001</v>
       </c>
@@ -7261,7 +7265,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>17.2</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>17.3</v>
       </c>
@@ -7343,7 +7347,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>17.399999999999899</v>
       </c>
@@ -7384,7 +7388,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>17.5</v>
       </c>
@@ -7425,7 +7429,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>17.600000000000001</v>
       </c>
@@ -7466,7 +7470,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>17.7</v>
       </c>
@@ -7507,7 +7511,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>17.8</v>
       </c>
@@ -7548,7 +7552,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>17.899999999999899</v>
       </c>
@@ -7589,7 +7593,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>18</v>
       </c>
@@ -7630,7 +7634,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>18.100000000000001</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>18.2</v>
       </c>
@@ -7712,7 +7716,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>18.3</v>
       </c>
@@ -7753,7 +7757,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>18.399999999999899</v>
       </c>
@@ -7794,7 +7798,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>18.5</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>18.600000000000001</v>
       </c>
@@ -7876,7 +7880,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>18.7</v>
       </c>
@@ -7917,7 +7921,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>18.8</v>
       </c>
@@ -7958,7 +7962,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>18.899999999999899</v>
       </c>
@@ -7999,7 +8003,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>19</v>
       </c>
@@ -8040,17 +8044,17 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>105</v>
       </c>
@@ -8058,22 +8062,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>106</v>
       </c>
@@ -8081,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>107</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>108</v>
       </c>
@@ -8097,17 +8101,17 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>109</v>
       </c>
@@ -8115,7 +8119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>110</v>
       </c>
@@ -8123,7 +8127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -8137,13 +8141,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9252D66-2B01-42E1-BA19-773D2D73A304}">
   <dimension ref="A2:M302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -8151,7 +8155,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -8159,7 +8163,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -8167,7 +8171,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>156.83199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -8183,7 +8187,7 @@
         <v>125.795</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -8191,7 +8195,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -8199,7 +8203,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -8207,12 +8211,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -8220,7 +8224,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -8228,7 +8232,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8236,7 +8240,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -8244,12 +8248,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -8257,7 +8261,7 @@
         <v>20.161000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -8265,7 +8269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -8279,12 +8283,12 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -8292,7 +8296,7 @@
         <v>6626.7960000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -8300,7 +8304,7 @@
         <v>74897.298999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8314,7 +8318,7 @@
         <v>2.323</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>11.263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>0.34910000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -8344,12 +8348,12 @@
         <v>0.43519999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -8357,7 +8361,7 @@
         <v>2694.74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -8371,7 +8375,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -8385,7 +8389,7 @@
         <v>2387300</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -8393,7 +8397,7 @@
         <v>2934.16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -8401,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -8409,22 +8413,22 @@
         <v>95.698999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>122.589</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -8440,27 +8444,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -8468,7 +8472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11.702999999999999</v>
       </c>
@@ -8484,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17.693999999999999</v>
       </c>
@@ -8492,7 +8496,7 @@
         <v>22.600999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>23.684000000000001</v>
       </c>
@@ -8500,7 +8504,7 @@
         <v>44.741</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>29.673999999999999</v>
       </c>
@@ -8508,7 +8512,7 @@
         <v>63.167999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>35.664000000000001</v>
       </c>
@@ -8516,7 +8520,7 @@
         <v>77.343999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41.655000000000001</v>
       </c>
@@ -8524,7 +8528,7 @@
         <v>87.302000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47.645000000000003</v>
       </c>
@@ -8532,7 +8536,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>53.634999999999998</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>95.698999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>59.625</v>
       </c>
@@ -8548,7 +8552,7 @@
         <v>94.93</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>65.616</v>
       </c>
@@ -8556,7 +8560,7 @@
         <v>91.498000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71.605999999999995</v>
       </c>
@@ -8564,7 +8568,7 @@
         <v>86.012</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>77.596000000000004</v>
       </c>
@@ -8572,7 +8576,7 @@
         <v>78.632000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>83.585999999999999</v>
       </c>
@@ -8580,7 +8584,7 @@
         <v>68.947999999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>89.576999999999998</v>
       </c>
@@ -8588,7 +8592,7 @@
         <v>56.726999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>95.566999999999993</v>
       </c>
@@ -8596,7 +8600,7 @@
         <v>43.14</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>101.557</v>
       </c>
@@ -8604,7 +8608,7 @@
         <v>31.887</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>107.547</v>
       </c>
@@ -8612,7 +8616,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>113.538</v>
       </c>
@@ -8620,7 +8624,7 @@
         <v>18.876000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>119.52800000000001</v>
       </c>
@@ -8628,7 +8632,7 @@
         <v>13.686</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>125.518</v>
       </c>
@@ -8636,7 +8640,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>131.50800000000001</v>
       </c>
@@ -8644,7 +8648,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>137.499</v>
       </c>
@@ -8652,12 +8656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -8665,7 +8669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -8673,7 +8677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-10.010999999999999</v>
       </c>
@@ -8681,7 +8685,7 @@
         <v>221.179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.915</v>
       </c>
@@ -8689,7 +8693,7 @@
         <v>348.32499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.18</v>
       </c>
@@ -8697,7 +8701,7 @@
         <v>449.20800000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14.275</v>
       </c>
@@ -8705,7 +8709,7 @@
         <v>526.548</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>22.37</v>
       </c>
@@ -8713,7 +8717,7 @@
         <v>583.82299999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>30.466000000000001</v>
       </c>
@@ -8721,7 +8725,7 @@
         <v>623.89700000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>38.561</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>649.08900000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>46.655999999999999</v>
       </c>
@@ -8737,7 +8741,7 @@
         <v>661.31200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>54.750999999999998</v>
       </c>
@@ -8745,7 +8749,7 @@
         <v>662.16300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>62.847000000000001</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>652.995</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>70.941999999999993</v>
       </c>
@@ -8761,7 +8765,7 @@
         <v>634.93499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79.037000000000006</v>
       </c>
@@ -8769,7 +8773,7 @@
         <v>607.16499999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>87.132000000000005</v>
       </c>
@@ -8777,7 +8781,7 @@
         <v>564.56200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95.227999999999994</v>
       </c>
@@ -8785,7 +8789,7 @@
         <v>502.54399999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>103.32299999999999</v>
       </c>
@@ -8793,7 +8797,7 @@
         <v>433.79500000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>111.41800000000001</v>
       </c>
@@ -8801,7 +8805,7 @@
         <v>370.60700000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>119.51300000000001</v>
       </c>
@@ -8809,7 +8813,7 @@
         <v>307.90300000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>127.608</v>
       </c>
@@ -8817,7 +8821,7 @@
         <v>242.173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>135.70400000000001</v>
       </c>
@@ -8825,7 +8829,7 @@
         <v>172.78</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>143.79900000000001</v>
       </c>
@@ -8833,7 +8837,7 @@
         <v>100.56100000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>151.89400000000001</v>
       </c>
@@ -8841,7 +8845,7 @@
         <v>34.771999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>159.989</v>
       </c>
@@ -8849,12 +8853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -8862,7 +8866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -8870,17 +8874,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -8888,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -8896,7 +8900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -8931,7 +8935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-10.010999999999999</v>
       </c>
@@ -8966,7 +8970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-1.915</v>
       </c>
@@ -9001,7 +9005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6.18</v>
       </c>
@@ -9036,7 +9040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14.275</v>
       </c>
@@ -9071,7 +9075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22.37</v>
       </c>
@@ -9106,7 +9110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>30.466000000000001</v>
       </c>
@@ -9141,7 +9145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>38.561</v>
       </c>
@@ -9176,7 +9180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>46.655999999999999</v>
       </c>
@@ -9211,7 +9215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>54.750999999999998</v>
       </c>
@@ -9246,7 +9250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>62.847000000000001</v>
       </c>
@@ -9281,7 +9285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>70.941999999999993</v>
       </c>
@@ -9316,7 +9320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>79.037000000000006</v>
       </c>
@@ -9351,7 +9355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87.132000000000005</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>95.227999999999994</v>
       </c>
@@ -9421,7 +9425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>103.32299999999999</v>
       </c>
@@ -9456,7 +9460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>111.41800000000001</v>
       </c>
@@ -9491,7 +9495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119.51300000000001</v>
       </c>
@@ -9526,7 +9530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>127.608</v>
       </c>
@@ -9561,7 +9565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>135.70400000000001</v>
       </c>
@@ -9596,7 +9600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>143.79900000000001</v>
       </c>
@@ -9631,7 +9635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>151.89400000000001</v>
       </c>
@@ -9666,7 +9670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>159.989</v>
       </c>
@@ -9701,12 +9705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -9714,7 +9718,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -9722,7 +9726,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -9730,7 +9734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -9738,7 +9742,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -9746,7 +9750,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -9762,7 +9766,7 @@
         <v>78416.114000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -9778,7 +9782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -9786,7 +9790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -9794,7 +9798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -9802,7 +9806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -9810,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -9818,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -9826,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>86</v>
       </c>
@@ -9834,7 +9838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -9842,7 +9846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -9850,7 +9854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -9866,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -9874,32 +9878,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -9940,7 +9944,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>19</v>
       </c>
@@ -9981,12 +9985,12 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -9994,7 +9998,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -10035,7 +10039,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
@@ -10076,7 +10080,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6.0999999999999899</v>
       </c>
@@ -10117,7 +10121,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6.2</v>
       </c>
@@ -10158,7 +10162,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6.2999999999999901</v>
       </c>
@@ -10199,7 +10203,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6.4</v>
       </c>
@@ -10240,7 +10244,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6.5</v>
       </c>
@@ -10281,7 +10285,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6.5999999999999899</v>
       </c>
@@ -10322,7 +10326,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6.7</v>
       </c>
@@ -10363,7 +10367,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6.7999999999999901</v>
       </c>
@@ -10404,7 +10408,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6.9</v>
       </c>
@@ -10445,7 +10449,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -10486,7 +10490,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7.0999999999999899</v>
       </c>
@@ -10527,7 +10531,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7.2</v>
       </c>
@@ -10568,7 +10572,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.2999999999999901</v>
       </c>
@@ -10609,7 +10613,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7.4</v>
       </c>
@@ -10650,7 +10654,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7.5</v>
       </c>
@@ -10691,7 +10695,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7.5999999999999899</v>
       </c>
@@ -10732,7 +10736,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7.7</v>
       </c>
@@ -10773,7 +10777,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7.7999999999999901</v>
       </c>
@@ -10814,7 +10818,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7.9</v>
       </c>
@@ -10855,7 +10859,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -10896,7 +10900,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8.0999999999999908</v>
       </c>
@@ -10937,7 +10941,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8.1999999999999904</v>
       </c>
@@ -10978,7 +10982,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8.3000000000000007</v>
       </c>
@@ -11019,7 +11023,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8.4</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8.5</v>
       </c>
@@ -11101,7 +11105,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8.5999999999999908</v>
       </c>
@@ -11142,7 +11146,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8.6999999999999904</v>
       </c>
@@ -11183,7 +11187,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8.8000000000000007</v>
       </c>
@@ -11224,7 +11228,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8.9</v>
       </c>
@@ -11265,7 +11269,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -11306,7 +11310,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9.0999999999999908</v>
       </c>
@@ -11347,7 +11351,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9.1999999999999904</v>
       </c>
@@ -11388,7 +11392,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9.3000000000000007</v>
       </c>
@@ -11429,7 +11433,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9.4</v>
       </c>
@@ -11470,7 +11474,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9.5</v>
       </c>
@@ -11511,7 +11515,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9.5999999999999908</v>
       </c>
@@ -11552,7 +11556,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9.6999999999999904</v>
       </c>
@@ -11593,7 +11597,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9.8000000000000007</v>
       </c>
@@ -11634,7 +11638,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9.9</v>
       </c>
@@ -11675,7 +11679,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10</v>
       </c>
@@ -11716,7 +11720,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10.1</v>
       </c>
@@ -11757,7 +11761,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10.1999999999999</v>
       </c>
@@ -11798,7 +11802,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10.3</v>
       </c>
@@ -11839,7 +11843,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10.4</v>
       </c>
@@ -11880,7 +11884,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10.5</v>
       </c>
@@ -11921,7 +11925,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10.6</v>
       </c>
@@ -11962,7 +11966,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10.6999999999999</v>
       </c>
@@ -12003,7 +12007,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>10.8</v>
       </c>
@@ -12044,7 +12048,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10.9</v>
       </c>
@@ -12085,7 +12089,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>11</v>
       </c>
@@ -12126,7 +12130,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11.1</v>
       </c>
@@ -12167,7 +12171,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11.1999999999999</v>
       </c>
@@ -12208,7 +12212,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11.3</v>
       </c>
@@ -12249,7 +12253,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11.4</v>
       </c>
@@ -12290,7 +12294,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11.5</v>
       </c>
@@ -12331,7 +12335,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11.6</v>
       </c>
@@ -12372,7 +12376,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11.6999999999999</v>
       </c>
@@ -12413,7 +12417,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11.8</v>
       </c>
@@ -12454,7 +12458,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>11.9</v>
       </c>
@@ -12495,7 +12499,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>12</v>
       </c>
@@ -12536,7 +12540,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>12.1</v>
       </c>
@@ -12577,7 +12581,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>12.1999999999999</v>
       </c>
@@ -12618,7 +12622,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12.3</v>
       </c>
@@ -12659,7 +12663,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>12.4</v>
       </c>
@@ -12700,7 +12704,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>12.5</v>
       </c>
@@ -12741,7 +12745,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12.6</v>
       </c>
@@ -12782,7 +12786,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>12.6999999999999</v>
       </c>
@@ -12823,7 +12827,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>12.8</v>
       </c>
@@ -12864,7 +12868,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -12905,7 +12909,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13</v>
       </c>
@@ -12946,7 +12950,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13.1</v>
       </c>
@@ -12987,7 +12991,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13.1999999999999</v>
       </c>
@@ -13028,7 +13032,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13.3</v>
       </c>
@@ -13069,7 +13073,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13.4</v>
       </c>
@@ -13110,7 +13114,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13.5</v>
       </c>
@@ -13151,7 +13155,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>13.6</v>
       </c>
@@ -13192,7 +13196,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>13.6999999999999</v>
       </c>
@@ -13233,7 +13237,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>13.8</v>
       </c>
@@ -13274,7 +13278,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>13.9</v>
       </c>
@@ -13315,7 +13319,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>14</v>
       </c>
@@ -13356,7 +13360,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>14.1</v>
       </c>
@@ -13397,7 +13401,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14.2</v>
       </c>
@@ -13438,7 +13442,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>14.3</v>
       </c>
@@ -13479,7 +13483,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14.4</v>
       </c>
@@ -13520,7 +13524,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>14.5</v>
       </c>
@@ -13561,7 +13565,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14.6</v>
       </c>
@@ -13602,7 +13606,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14.7</v>
       </c>
@@ -13643,7 +13647,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14.8</v>
       </c>
@@ -13684,7 +13688,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>14.9</v>
       </c>
@@ -13725,7 +13729,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>15</v>
       </c>
@@ -13766,7 +13770,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>15.1</v>
       </c>
@@ -13807,7 +13811,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>15.2</v>
       </c>
@@ -13848,7 +13852,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>15.3</v>
       </c>
@@ -13889,7 +13893,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>15.4</v>
       </c>
@@ -13930,7 +13934,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>15.5</v>
       </c>
@@ -13971,7 +13975,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>15.6</v>
       </c>
@@ -14012,7 +14016,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>15.7</v>
       </c>
@@ -14053,7 +14057,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>15.8</v>
       </c>
@@ -14094,7 +14098,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>15.9</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>16</v>
       </c>
@@ -14176,7 +14180,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>16.100000000000001</v>
       </c>
@@ -14217,7 +14221,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>16.2</v>
       </c>
@@ -14258,7 +14262,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>16.3</v>
       </c>
@@ -14299,7 +14303,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16.399999999999899</v>
       </c>
@@ -14340,7 +14344,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>16.5</v>
       </c>
@@ -14381,7 +14385,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>16.600000000000001</v>
       </c>
@@ -14422,7 +14426,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>16.7</v>
       </c>
@@ -14463,7 +14467,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>16.8</v>
       </c>
@@ -14504,7 +14508,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>16.899999999999899</v>
       </c>
@@ -14545,7 +14549,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>17</v>
       </c>
@@ -14586,7 +14590,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>17.100000000000001</v>
       </c>
@@ -14627,7 +14631,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>17.2</v>
       </c>
@@ -14668,7 +14672,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>17.3</v>
       </c>
@@ -14709,7 +14713,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>17.399999999999899</v>
       </c>
@@ -14750,7 +14754,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>17.5</v>
       </c>
@@ -14791,7 +14795,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>17.600000000000001</v>
       </c>
@@ -14832,7 +14836,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>17.7</v>
       </c>
@@ -14873,7 +14877,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>17.8</v>
       </c>
@@ -14914,7 +14918,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>17.899999999999899</v>
       </c>
@@ -14955,7 +14959,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>18</v>
       </c>
@@ -14996,7 +15000,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>18.100000000000001</v>
       </c>
@@ -15037,7 +15041,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>18.2</v>
       </c>
@@ -15078,7 +15082,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>18.3</v>
       </c>
@@ -15119,7 +15123,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>18.399999999999899</v>
       </c>
@@ -15160,7 +15164,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>18.5</v>
       </c>
@@ -15201,7 +15205,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>18.600000000000001</v>
       </c>
@@ -15242,7 +15246,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>18.7</v>
       </c>
@@ -15283,7 +15287,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>18.8</v>
       </c>
@@ -15324,7 +15328,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>18.899999999999899</v>
       </c>
@@ -15365,7 +15369,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>19</v>
       </c>
@@ -15406,22 +15410,22 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>105</v>
       </c>
@@ -15429,22 +15433,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>106</v>
       </c>
@@ -15452,7 +15456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>107</v>
       </c>
@@ -15460,7 +15464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>108</v>
       </c>
@@ -15468,17 +15472,17 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>109</v>
       </c>
@@ -15486,7 +15490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>110</v>
       </c>
@@ -15494,7 +15498,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>114</v>
       </c>
@@ -15512,9 +15516,9 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -15522,7 +15526,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -15530,7 +15534,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -15538,7 +15542,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -15546,7 +15550,7 @@
         <v>156.83199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -15554,7 +15558,7 @@
         <v>139.89400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -15562,7 +15566,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -15570,7 +15574,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -15578,12 +15582,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -15591,7 +15595,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -15599,7 +15603,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -15607,7 +15611,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -15615,12 +15619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -15628,7 +15632,7 @@
         <v>16.221</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -15636,7 +15640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -15650,12 +15654,12 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -15663,7 +15667,7 @@
         <v>13384.041999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -15671,7 +15675,7 @@
         <v>74897.298999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -15685,7 +15689,7 @@
         <v>3.6459999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -15699,7 +15703,7 @@
         <v>11.263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -15707,7 +15711,7 @@
         <v>0.40479999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -15715,12 +15719,12 @@
         <v>0.45379999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -15728,7 +15732,7 @@
         <v>3422.8580000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -15742,7 +15746,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -15756,7 +15760,7 @@
         <v>3917400</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -15764,7 +15768,7 @@
         <v>3936.8629999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -15772,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -15780,12 +15784,12 @@
         <v>168.99799999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -15793,7 +15797,7 @@
         <v>617.81700000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -15807,7 +15811,7 @@
         <v>6.1310000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -15815,7 +15819,7 @@
         <v>122.589</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -15823,7 +15827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>203.88300000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -15845,7 +15849,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -15859,12 +15863,12 @@
         <v>9527.1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -15872,7 +15876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -15880,7 +15884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.8130000000000002</v>
       </c>
@@ -15888,7 +15892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9.4740000000000002</v>
       </c>
@@ -15896,7 +15900,7 @@
         <v>38.762</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16.135999999999999</v>
       </c>
@@ -15904,7 +15908,7 @@
         <v>76.896000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22.797999999999998</v>
       </c>
@@ -15912,7 +15916,7 @@
         <v>108.586</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>29.459</v>
       </c>
@@ -15920,7 +15924,7 @@
         <v>133.22</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>36.121000000000002</v>
       </c>
@@ -15928,7 +15932,7 @@
         <v>151.03899999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>42.781999999999996</v>
       </c>
@@ -15936,7 +15940,7 @@
         <v>162.54400000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49.444000000000003</v>
       </c>
@@ -15944,7 +15948,7 @@
         <v>168.32400000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>56.106000000000002</v>
       </c>
@@ -15952,7 +15956,7 @@
         <v>168.99799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>62.767000000000003</v>
       </c>
@@ -15960,7 +15964,7 @@
         <v>165.20699999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>69.429000000000002</v>
       </c>
@@ -15968,7 +15972,7 @@
         <v>157.63999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>76.09</v>
       </c>
@@ -15976,7 +15980,7 @@
         <v>146.636</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>82.751999999999995</v>
       </c>
@@ -15984,7 +15988,7 @@
         <v>131.226</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>89.414000000000001</v>
       </c>
@@ -15992,7 +15996,7 @@
         <v>110.209</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>96.075000000000003</v>
       </c>
@@ -16000,7 +16004,7 @@
         <v>85.033000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>102.73699999999999</v>
       </c>
@@ -16008,7 +16012,7 @@
         <v>63.555</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>109.398</v>
       </c>
@@ -16016,7 +16020,7 @@
         <v>49.210999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>116.06</v>
       </c>
@@ -16024,7 +16028,7 @@
         <v>38.005000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>122.72199999999999</v>
       </c>
@@ -16032,7 +16036,7 @@
         <v>27.501000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>129.38300000000001</v>
       </c>
@@ -16040,7 +16044,7 @@
         <v>16.917999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>136.04499999999999</v>
       </c>
@@ -16048,7 +16052,7 @@
         <v>6.8440000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>142.70599999999999</v>
       </c>
@@ -16056,12 +16060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -16069,7 +16073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -16077,7 +16081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-10.010999999999999</v>
       </c>
@@ -16085,7 +16089,7 @@
         <v>221.179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.915</v>
       </c>
@@ -16093,7 +16097,7 @@
         <v>348.32499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.18</v>
       </c>
@@ -16101,7 +16105,7 @@
         <v>449.20800000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14.275</v>
       </c>
@@ -16109,7 +16113,7 @@
         <v>526.548</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>22.37</v>
       </c>
@@ -16117,7 +16121,7 @@
         <v>583.82299999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>30.466000000000001</v>
       </c>
@@ -16125,7 +16129,7 @@
         <v>623.89700000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>38.561</v>
       </c>
@@ -16133,7 +16137,7 @@
         <v>649.08900000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>46.655999999999999</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>661.31200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>54.750999999999998</v>
       </c>
@@ -16149,7 +16153,7 @@
         <v>662.16300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>62.847000000000001</v>
       </c>
@@ -16157,7 +16161,7 @@
         <v>652.995</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>70.941999999999993</v>
       </c>
@@ -16165,7 +16169,7 @@
         <v>634.93499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79.037000000000006</v>
       </c>
@@ -16173,7 +16177,7 @@
         <v>607.16499999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>87.132000000000005</v>
       </c>
@@ -16181,7 +16185,7 @@
         <v>564.56200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95.227999999999994</v>
       </c>
@@ -16189,7 +16193,7 @@
         <v>502.54399999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>103.32299999999999</v>
       </c>
@@ -16197,7 +16201,7 @@
         <v>433.79500000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>111.41800000000001</v>
       </c>
@@ -16205,7 +16209,7 @@
         <v>370.60700000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>119.51300000000001</v>
       </c>
@@ -16213,7 +16217,7 @@
         <v>307.90300000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>127.608</v>
       </c>
@@ -16221,7 +16225,7 @@
         <v>242.173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>135.70400000000001</v>
       </c>
@@ -16229,7 +16233,7 @@
         <v>172.78</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>143.79900000000001</v>
       </c>
@@ -16237,7 +16241,7 @@
         <v>100.56100000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>151.89400000000001</v>
       </c>
@@ -16245,7 +16249,7 @@
         <v>34.771999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>159.989</v>
       </c>
@@ -16253,12 +16257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -16266,7 +16270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -16274,7 +16278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>122.589</v>
       </c>
@@ -16282,7 +16286,7 @@
         <v>55.771999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>128.64699999999999</v>
       </c>
@@ -16290,7 +16294,7 @@
         <v>40.415999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>134.70400000000001</v>
       </c>
@@ -16298,7 +16302,7 @@
         <v>24.841000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>140.761</v>
       </c>
@@ -16306,7 +16310,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>146.81899999999999</v>
       </c>
@@ -16314,12 +16318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -16327,7 +16331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -16335,7 +16339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -16370,7 +16374,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-10.010999999999999</v>
       </c>
@@ -16405,7 +16409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-1.915</v>
       </c>
@@ -16440,7 +16444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6.18</v>
       </c>
@@ -16475,7 +16479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14.275</v>
       </c>
@@ -16510,7 +16514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22.37</v>
       </c>
@@ -16545,7 +16549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>30.466000000000001</v>
       </c>
@@ -16580,7 +16584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>38.561</v>
       </c>
@@ -16615,7 +16619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>46.655999999999999</v>
       </c>
@@ -16650,7 +16654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>54.750999999999998</v>
       </c>
@@ -16685,7 +16689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>62.847000000000001</v>
       </c>
@@ -16720,7 +16724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>70.941999999999993</v>
       </c>
@@ -16755,7 +16759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>79.037000000000006</v>
       </c>
@@ -16790,7 +16794,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87.132000000000005</v>
       </c>
@@ -16825,7 +16829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>95.227999999999994</v>
       </c>
@@ -16860,7 +16864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>103.32299999999999</v>
       </c>
@@ -16895,7 +16899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>111.41800000000001</v>
       </c>
@@ -16930,7 +16934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119.51300000000001</v>
       </c>
@@ -16965,7 +16969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>127.608</v>
       </c>
@@ -17000,7 +17004,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>135.70400000000001</v>
       </c>
@@ -17035,7 +17039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>143.79900000000001</v>
       </c>
@@ -17070,7 +17074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>151.89400000000001</v>
       </c>
@@ -17105,7 +17109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>159.989</v>
       </c>
@@ -17140,12 +17144,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -17153,7 +17157,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -17161,7 +17165,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -17169,7 +17173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -17177,7 +17181,7 @@
         <v>5.9989999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -17185,7 +17189,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -17193,7 +17197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -17201,7 +17205,7 @@
         <v>78416.114000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -17209,7 +17213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -17217,7 +17221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -17225,7 +17229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -17233,7 +17237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -17241,7 +17245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -17249,7 +17253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -17257,7 +17261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -17265,7 +17269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>86</v>
       </c>
@@ -17273,7 +17277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -17281,7 +17285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -17289,7 +17293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -17297,7 +17301,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -17305,7 +17309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -17313,32 +17317,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -17379,7 +17383,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>19</v>
       </c>
@@ -17420,12 +17424,12 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -17433,7 +17437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -17474,7 +17478,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
@@ -17515,7 +17519,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6.0999999999999899</v>
       </c>
@@ -17556,7 +17560,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6.2</v>
       </c>
@@ -17597,7 +17601,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6.2999999999999901</v>
       </c>
@@ -17638,7 +17642,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6.4</v>
       </c>
@@ -17679,7 +17683,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6.5</v>
       </c>
@@ -17720,7 +17724,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6.5999999999999899</v>
       </c>
@@ -17761,7 +17765,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6.7</v>
       </c>
@@ -17802,7 +17806,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6.7999999999999901</v>
       </c>
@@ -17843,7 +17847,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6.9</v>
       </c>
@@ -17884,7 +17888,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -17925,7 +17929,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7.0999999999999899</v>
       </c>
@@ -17966,7 +17970,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7.2</v>
       </c>
@@ -18007,7 +18011,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.2999999999999901</v>
       </c>
@@ -18048,7 +18052,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7.4</v>
       </c>
@@ -18089,7 +18093,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7.5</v>
       </c>
@@ -18130,7 +18134,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7.5999999999999899</v>
       </c>
@@ -18171,7 +18175,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7.7</v>
       </c>
@@ -18212,7 +18216,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7.7999999999999901</v>
       </c>
@@ -18253,7 +18257,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7.9</v>
       </c>
@@ -18294,7 +18298,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -18335,7 +18339,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8.0999999999999908</v>
       </c>
@@ -18376,7 +18380,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8.1999999999999904</v>
       </c>
@@ -18417,7 +18421,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8.3000000000000007</v>
       </c>
@@ -18458,7 +18462,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8.4</v>
       </c>
@@ -18499,7 +18503,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8.5</v>
       </c>
@@ -18540,7 +18544,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8.5999999999999908</v>
       </c>
@@ -18581,7 +18585,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8.6999999999999904</v>
       </c>
@@ -18622,7 +18626,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8.8000000000000007</v>
       </c>
@@ -18663,7 +18667,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8.9</v>
       </c>
@@ -18704,7 +18708,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -18745,7 +18749,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9.0999999999999908</v>
       </c>
@@ -18786,7 +18790,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9.1999999999999904</v>
       </c>
@@ -18827,7 +18831,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9.3000000000000007</v>
       </c>
@@ -18868,7 +18872,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9.4</v>
       </c>
@@ -18909,7 +18913,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9.5</v>
       </c>
@@ -18950,7 +18954,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9.5999999999999908</v>
       </c>
@@ -18991,7 +18995,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9.6999999999999904</v>
       </c>
@@ -19032,7 +19036,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9.8000000000000007</v>
       </c>
@@ -19073,7 +19077,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9.9</v>
       </c>
@@ -19114,7 +19118,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10</v>
       </c>
@@ -19155,7 +19159,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10.1</v>
       </c>
@@ -19196,7 +19200,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10.1999999999999</v>
       </c>
@@ -19237,7 +19241,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10.3</v>
       </c>
@@ -19278,7 +19282,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10.4</v>
       </c>
@@ -19319,7 +19323,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10.5</v>
       </c>
@@ -19360,7 +19364,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10.6</v>
       </c>
@@ -19401,7 +19405,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10.6999999999999</v>
       </c>
@@ -19442,7 +19446,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>10.8</v>
       </c>
@@ -19483,7 +19487,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10.9</v>
       </c>
@@ -19524,7 +19528,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>11</v>
       </c>
@@ -19565,7 +19569,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11.1</v>
       </c>
@@ -19606,7 +19610,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11.1999999999999</v>
       </c>
@@ -19647,7 +19651,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11.3</v>
       </c>
@@ -19688,7 +19692,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11.4</v>
       </c>
@@ -19729,7 +19733,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11.5</v>
       </c>
@@ -19770,7 +19774,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11.6</v>
       </c>
@@ -19811,7 +19815,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11.6999999999999</v>
       </c>
@@ -19852,7 +19856,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11.8</v>
       </c>
@@ -19893,7 +19897,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>11.9</v>
       </c>
@@ -19934,7 +19938,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>12</v>
       </c>
@@ -19975,7 +19979,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>12.1</v>
       </c>
@@ -20016,7 +20020,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>12.1999999999999</v>
       </c>
@@ -20057,7 +20061,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12.3</v>
       </c>
@@ -20098,7 +20102,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>12.4</v>
       </c>
@@ -20139,7 +20143,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>12.5</v>
       </c>
@@ -20180,7 +20184,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12.6</v>
       </c>
@@ -20221,7 +20225,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>12.6999999999999</v>
       </c>
@@ -20262,7 +20266,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>12.8</v>
       </c>
@@ -20303,7 +20307,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -20344,7 +20348,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13</v>
       </c>
@@ -20385,7 +20389,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13.1</v>
       </c>
@@ -20426,7 +20430,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13.1999999999999</v>
       </c>
@@ -20467,7 +20471,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13.3</v>
       </c>
@@ -20508,7 +20512,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13.4</v>
       </c>
@@ -20549,7 +20553,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13.5</v>
       </c>
@@ -20590,7 +20594,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>13.6</v>
       </c>
@@ -20631,7 +20635,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>13.6999999999999</v>
       </c>
@@ -20672,7 +20676,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>13.8</v>
       </c>
@@ -20713,7 +20717,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>13.9</v>
       </c>
@@ -20754,7 +20758,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>14</v>
       </c>
@@ -20795,7 +20799,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>14.1</v>
       </c>
@@ -20836,7 +20840,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14.2</v>
       </c>
@@ -20877,7 +20881,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>14.3</v>
       </c>
@@ -20918,7 +20922,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14.4</v>
       </c>
@@ -20959,7 +20963,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>14.5</v>
       </c>
@@ -21000,7 +21004,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14.6</v>
       </c>
@@ -21041,7 +21045,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14.7</v>
       </c>
@@ -21082,7 +21086,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14.8</v>
       </c>
@@ -21123,7 +21127,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>14.9</v>
       </c>
@@ -21164,7 +21168,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>15</v>
       </c>
@@ -21205,7 +21209,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>15.1</v>
       </c>
@@ -21246,7 +21250,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>15.2</v>
       </c>
@@ -21287,7 +21291,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>15.3</v>
       </c>
@@ -21328,7 +21332,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>15.4</v>
       </c>
@@ -21369,7 +21373,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>15.5</v>
       </c>
@@ -21410,7 +21414,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>15.6</v>
       </c>
@@ -21451,7 +21455,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>15.7</v>
       </c>
@@ -21492,7 +21496,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>15.8</v>
       </c>
@@ -21533,7 +21537,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>15.9</v>
       </c>
@@ -21574,7 +21578,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>16</v>
       </c>
@@ -21615,7 +21619,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>16.100000000000001</v>
       </c>
@@ -21656,7 +21660,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>16.2</v>
       </c>
@@ -21697,7 +21701,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>16.3</v>
       </c>
@@ -21738,7 +21742,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16.399999999999899</v>
       </c>
@@ -21779,7 +21783,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>16.5</v>
       </c>
@@ -21820,7 +21824,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>16.600000000000001</v>
       </c>
@@ -21861,7 +21865,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>16.7</v>
       </c>
@@ -21902,7 +21906,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>16.8</v>
       </c>
@@ -21943,7 +21947,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>16.899999999999899</v>
       </c>
@@ -21984,7 +21988,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>17</v>
       </c>
@@ -22025,7 +22029,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>17.100000000000001</v>
       </c>
@@ -22066,7 +22070,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>17.2</v>
       </c>
@@ -22107,7 +22111,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>17.3</v>
       </c>
@@ -22148,7 +22152,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>17.399999999999899</v>
       </c>
@@ -22189,7 +22193,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>17.5</v>
       </c>
@@ -22230,7 +22234,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>17.600000000000001</v>
       </c>
@@ -22271,7 +22275,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>17.7</v>
       </c>
@@ -22312,7 +22316,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>17.8</v>
       </c>
@@ -22353,7 +22357,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>17.899999999999899</v>
       </c>
@@ -22394,7 +22398,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>18</v>
       </c>
@@ -22435,7 +22439,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>18.100000000000001</v>
       </c>
@@ -22476,7 +22480,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>18.2</v>
       </c>
@@ -22517,7 +22521,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>18.3</v>
       </c>
@@ -22558,7 +22562,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>18.399999999999899</v>
       </c>
@@ -22599,7 +22603,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>18.5</v>
       </c>
@@ -22640,7 +22644,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>18.600000000000001</v>
       </c>
@@ -22681,7 +22685,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>18.7</v>
       </c>
@@ -22722,7 +22726,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>18.8</v>
       </c>
@@ -22763,7 +22767,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>18.899999999999899</v>
       </c>
@@ -22804,7 +22808,7 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>19</v>
       </c>
@@ -22845,27 +22849,27 @@
         <v>0.1727667174725</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>105</v>
       </c>
@@ -22873,22 +22877,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>106</v>
       </c>
@@ -22896,7 +22900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>107</v>
       </c>
@@ -22904,7 +22908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>108</v>
       </c>
@@ -22912,17 +22916,17 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>109</v>
       </c>
@@ -22930,7 +22934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>110</v>
       </c>
@@ -22938,7 +22942,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>113</v>
       </c>

--- a/Inleveren herkansing/NIET INLEVEREN J 1.7 excel file.xlsx
+++ b/Inleveren herkansing/NIET INLEVEREN J 1.7 excel file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject 1/IP-26/Inleveren herkansing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\Inleveren herkansing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{607ECAD8-6C81-46D6-AA5A-54C422430583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44717166-C70D-47E0-933D-159FD0E2479D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9871B5-E0E0-41EA-987F-3E7BA30C524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
@@ -379,10 +379,10 @@
     <t>SHIP DOES NOT ADHERE TO B/T RATIO LIMITATION</t>
   </si>
   <si>
-    <t>Deck is 13001 mm from WL</t>
+    <t>Deck is 15201 mm from WL</t>
   </si>
   <si>
-    <t>Deck is 15201 mm from WL</t>
+    <t>Deck is 12501 mm from WL</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -15512,8 +15512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F90BD7-A296-44A2-B418-4DCBCAB339C9}">
   <dimension ref="A2:M303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15555,7 +15555,7 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>139.89400000000001</v>
+        <v>142.447</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -15592,7 +15592,7 @@
         <v>32</v>
       </c>
       <c r="B11">
-        <v>5.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -15600,7 +15600,7 @@
         <v>33</v>
       </c>
       <c r="B12">
-        <v>5.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -15608,7 +15608,7 @@
         <v>34</v>
       </c>
       <c r="B13">
-        <v>5.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -15629,7 +15629,7 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>16.221</v>
+        <v>14.635</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -15645,13 +15645,13 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <v>102.15</v>
+        <v>104.038</v>
       </c>
       <c r="C18">
         <v>-8.8650000000000002</v>
       </c>
       <c r="D18">
-        <v>5.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -15664,7 +15664,7 @@
         <v>39</v>
       </c>
       <c r="B20">
-        <v>13384.041999999999</v>
+        <v>15132.787</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -15680,13 +15680,13 @@
         <v>41</v>
       </c>
       <c r="B22">
-        <v>60.936999999999998</v>
+        <v>60.67</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.6459999999999999</v>
+        <v>3.9470000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -15708,7 +15708,7 @@
         <v>43</v>
       </c>
       <c r="B24">
-        <v>0.40479999999999999</v>
+        <v>0.41589999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -15716,7 +15716,7 @@
         <v>44</v>
       </c>
       <c r="B25">
-        <v>0.45379999999999998</v>
+        <v>0.45789999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -15729,7 +15729,7 @@
         <v>45</v>
       </c>
       <c r="B27">
-        <v>3422.8580000000002</v>
+        <v>3571.4609999999998</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -15737,13 +15737,13 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>58.674999999999997</v>
+        <v>58.585000000000001</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>5.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -15751,13 +15751,13 @@
         <v>47</v>
       </c>
       <c r="B29">
-        <v>259202.46100000001</v>
+        <v>279243.03399999999</v>
       </c>
       <c r="C29" s="1">
-        <v>3658200</v>
+        <v>4007800</v>
       </c>
       <c r="D29" s="1">
-        <v>3917400</v>
+        <v>4287100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -15765,7 +15765,7 @@
         <v>48</v>
       </c>
       <c r="B30">
-        <v>3936.8629999999998</v>
+        <v>4157.585</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -15781,7 +15781,7 @@
         <v>50</v>
       </c>
       <c r="B32">
-        <v>168.99799999999999</v>
+        <v>186.68799999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -15794,7 +15794,7 @@
         <v>51</v>
       </c>
       <c r="B34">
-        <v>617.81700000000001</v>
+        <v>877.80700000000002</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -15802,13 +15802,13 @@
         <v>52</v>
       </c>
       <c r="B35">
-        <v>130.03899999999999</v>
+        <v>130.56299999999999</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>6.1310000000000002</v>
+        <v>6.9660000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -15824,7 +15824,7 @@
         <v>54</v>
       </c>
       <c r="B37">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -15832,7 +15832,7 @@
         <v>55</v>
       </c>
       <c r="B38">
-        <v>203.88300000000001</v>
+        <v>251.976</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -15840,13 +15840,13 @@
         <v>56</v>
       </c>
       <c r="B39">
-        <v>131.52000000000001</v>
+        <v>132.08000000000001</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>8.36</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -15854,13 +15854,13 @@
         <v>57</v>
       </c>
       <c r="B40">
-        <v>1931.184</v>
+        <v>3232.8249999999998</v>
       </c>
       <c r="C40">
-        <v>7595.9170000000004</v>
+        <v>10680.213</v>
       </c>
       <c r="D40">
-        <v>9527.1</v>
+        <v>13913.039000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -15886,7 +15886,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2.8130000000000002</v>
+        <v>1.2210000000000001</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -15894,167 +15894,167 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9.4740000000000002</v>
+        <v>8.0039999999999996</v>
       </c>
       <c r="B45">
-        <v>38.762</v>
+        <v>42.834000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>16.135999999999999</v>
+        <v>14.788</v>
       </c>
       <c r="B46">
-        <v>76.896000000000001</v>
+        <v>84.816999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>22.797999999999998</v>
+        <v>21.571000000000002</v>
       </c>
       <c r="B47">
-        <v>108.586</v>
+        <v>119.616</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>29.459</v>
+        <v>28.353999999999999</v>
       </c>
       <c r="B48">
-        <v>133.22</v>
+        <v>146.66800000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>36.121000000000002</v>
+        <v>35.137</v>
       </c>
       <c r="B49">
-        <v>151.03899999999999</v>
+        <v>166.29400000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>42.781999999999996</v>
+        <v>41.92</v>
       </c>
       <c r="B50">
-        <v>162.54400000000001</v>
+        <v>179.06899999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>49.444000000000003</v>
+        <v>48.704000000000001</v>
       </c>
       <c r="B51">
-        <v>168.32400000000001</v>
+        <v>185.64500000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>56.106000000000002</v>
+        <v>55.487000000000002</v>
       </c>
       <c r="B52">
-        <v>168.99799999999999</v>
+        <v>186.68799999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>62.767000000000003</v>
+        <v>62.27</v>
       </c>
       <c r="B53">
-        <v>165.20699999999999</v>
+        <v>182.874</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>69.429000000000002</v>
+        <v>69.052999999999997</v>
       </c>
       <c r="B54">
-        <v>157.63999999999999</v>
+        <v>174.905</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>76.09</v>
+        <v>75.835999999999999</v>
       </c>
       <c r="B55">
-        <v>146.636</v>
+        <v>163.14099999999999</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>82.751999999999995</v>
+        <v>82.62</v>
       </c>
       <c r="B56">
-        <v>131.226</v>
+        <v>146.49299999999999</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>89.414000000000001</v>
+        <v>89.403000000000006</v>
       </c>
       <c r="B57">
-        <v>110.209</v>
+        <v>123.502</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>96.075000000000003</v>
+        <v>96.186000000000007</v>
       </c>
       <c r="B58">
-        <v>85.033000000000001</v>
+        <v>95.659000000000006</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>102.73699999999999</v>
+        <v>102.96899999999999</v>
       </c>
       <c r="B59">
-        <v>63.555</v>
+        <v>71.838999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>109.398</v>
+        <v>109.752</v>
       </c>
       <c r="B60">
-        <v>49.210999999999999</v>
+        <v>55.859000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>116.06</v>
+        <v>116.536</v>
       </c>
       <c r="B61">
-        <v>38.005000000000003</v>
+        <v>43.27</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>122.72199999999999</v>
+        <v>123.319</v>
       </c>
       <c r="B62">
-        <v>27.501000000000001</v>
+        <v>31.388000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>129.38300000000001</v>
+        <v>130.102</v>
       </c>
       <c r="B63">
-        <v>16.917999999999999</v>
+        <v>19.395</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>136.04499999999999</v>
+        <v>136.88499999999999</v>
       </c>
       <c r="B64">
-        <v>6.8440000000000003</v>
+        <v>7.891</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>142.70599999999999</v>
+        <v>143.66800000000001</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -16283,36 +16283,36 @@
         <v>122.589</v>
       </c>
       <c r="B94">
-        <v>55.771999999999998</v>
+        <v>73.831999999999994</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>128.64699999999999</v>
+        <v>129.072</v>
       </c>
       <c r="B95">
-        <v>40.415999999999997</v>
+        <v>53.691000000000003</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>134.70400000000001</v>
+        <v>135.554</v>
       </c>
       <c r="B96">
-        <v>24.841000000000001</v>
+        <v>33.085000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>140.761</v>
+        <v>142.036</v>
       </c>
       <c r="B97">
-        <v>9.8699999999999992</v>
+        <v>13.071</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>146.81899999999999</v>
+        <v>148.518</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -17178,7 +17178,7 @@
         <v>76</v>
       </c>
       <c r="B129">
-        <v>5.9989999999999997</v>
+        <v>6.4989999999999997</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -17391,19 +17391,19 @@
         <v>9.7744444444444394</v>
       </c>
       <c r="C153">
-        <v>0.26385091651051801</v>
+        <v>0.26147524063577299</v>
       </c>
       <c r="D153">
-        <v>567203.41315042297</v>
+        <v>599766.93225628405</v>
       </c>
       <c r="E153">
-        <v>354066.718730286</v>
+        <v>373283.09422882303</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153">
-        <v>127044.109328922</v>
+        <v>136424.76296305499</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -17412,16 +17412,16 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <v>86092.585091214205</v>
+        <v>90059.075064405304</v>
       </c>
       <c r="K153">
         <v>0</v>
       </c>
       <c r="L153">
-        <v>0.163763749790859</v>
+        <v>0.168168462061587</v>
       </c>
       <c r="M153">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -17486,19 +17486,19 @@
         <v>3.0866666666666598</v>
       </c>
       <c r="C157">
-        <v>8.3321342055953304E-2</v>
+        <v>8.2571128621823295E-2</v>
       </c>
       <c r="D157">
-        <v>49490.174318747799</v>
+        <v>52098.4425730722</v>
       </c>
       <c r="E157">
-        <v>40904.755065381702</v>
+        <v>43117.473529696297</v>
       </c>
       <c r="F157">
         <v>0</v>
       </c>
       <c r="G157">
-        <v>9.1057657244240798E-3</v>
+        <v>8.6491415997957E-3</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -17507,16 +17507,16 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>8585.4101476003107</v>
+        <v>8980.9603942343292</v>
       </c>
       <c r="K157">
         <v>0</v>
       </c>
       <c r="L157">
-        <v>0.16907391566681601</v>
+        <v>0.17330158832527101</v>
       </c>
       <c r="M157">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -17527,19 +17527,19 @@
         <v>3.13811111111111</v>
       </c>
       <c r="C158">
-        <v>8.4710031090219198E-2</v>
+        <v>8.3947314098853698E-2</v>
       </c>
       <c r="D158">
-        <v>51061.190420432496</v>
+        <v>53752.242939555399</v>
       </c>
       <c r="E158">
-        <v>42187.201842321701</v>
+        <v>44469.409858129002</v>
       </c>
       <c r="F158">
         <v>0</v>
       </c>
       <c r="G158">
-        <v>1.32561049759968E-2</v>
+        <v>1.26294970376142E-2</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -17548,16 +17548,16 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>8873.9753220057592</v>
+        <v>9282.8204519294195</v>
       </c>
       <c r="K158">
         <v>0</v>
       </c>
       <c r="L158">
-        <v>0.168988276693816</v>
+        <v>0.17321870839881601</v>
       </c>
       <c r="M158">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -17568,19 +17568,19 @@
         <v>3.1895555555555499</v>
       </c>
       <c r="C159">
-        <v>8.6098720124485106E-2</v>
+        <v>8.5323499575884101E-2</v>
       </c>
       <c r="D159">
-        <v>52655.450899650197</v>
+        <v>55430.511640156597</v>
       </c>
       <c r="E159">
-        <v>43488.121653801201</v>
+        <v>45840.823479355502</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
       <c r="G159">
-        <v>1.9077133611708499E-2</v>
+        <v>1.82287353732964E-2</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -17589,16 +17589,16 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <v>9167.3101687154394</v>
+        <v>9589.6699320657608</v>
       </c>
       <c r="K159">
         <v>0</v>
       </c>
       <c r="L159">
-        <v>0.168904329338153</v>
+        <v>0.17313746859367701</v>
       </c>
       <c r="M159">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -17609,19 +17609,19 @@
         <v>3.2410000000000001</v>
       </c>
       <c r="C160">
-        <v>8.7487409158751001E-2</v>
+        <v>8.6699685052914394E-2</v>
       </c>
       <c r="D160">
-        <v>54272.9208502939</v>
+        <v>57133.211866676502</v>
       </c>
       <c r="E160">
-        <v>44807.479008272698</v>
+        <v>47231.677011465501</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>2.71542918301018E-2</v>
+        <v>2.60205676346573E-2</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -17630,16 +17630,16 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <v>9465.4146877293406</v>
+        <v>9901.5088346433404</v>
       </c>
       <c r="K160">
         <v>0</v>
       </c>
       <c r="L160">
-        <v>0.16882201334344399</v>
+        <v>0.17305781042291801</v>
       </c>
       <c r="M160">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -17650,19 +17650,19 @@
         <v>3.2924444444444401</v>
       </c>
       <c r="C161">
-        <v>8.8876098193016895E-2</v>
+        <v>8.8075870529944797E-2</v>
       </c>
       <c r="D161">
-        <v>55913.566208183103</v>
+        <v>58860.307686933302</v>
       </c>
       <c r="E161">
-        <v>46145.239081164102</v>
+        <v>48641.933774941703</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
       <c r="G161">
-        <v>3.82479715756859E-2</v>
+        <v>3.6752329426674397E-2</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -17671,16 +17671,16 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <v>9768.2888790474608</v>
+        <v>10218.3371596621</v>
       </c>
       <c r="K161">
         <v>0</v>
       </c>
       <c r="L161">
-        <v>0.16874127152066801</v>
+        <v>0.172979678379302</v>
       </c>
       <c r="M161">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -17691,19 +17691,19 @@
         <v>3.34388888888888</v>
       </c>
       <c r="C162">
-        <v>9.0264787227282706E-2</v>
+        <v>8.94520560069752E-2</v>
       </c>
       <c r="D162">
-        <v>57577.353771351998</v>
+        <v>60611.764064145696</v>
       </c>
       <c r="E162">
-        <v>47501.3676919625</v>
+        <v>50071.557768529303</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>5.3336719706952598E-2</v>
+        <v>5.1388494153081297E-2</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -17712,16 +17712,16 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <v>10075.9327426698</v>
+        <v>10540.1549071222</v>
       </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
-        <v>0.16866204954669201</v>
+        <v>0.172903019739446</v>
       </c>
       <c r="M162">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -17732,19 +17732,19 @@
         <v>3.3953333333333302</v>
       </c>
       <c r="C163">
-        <v>9.16534762615486E-2</v>
+        <v>9.0828241484005603E-2</v>
       </c>
       <c r="D163">
-        <v>59264.251229817499</v>
+        <v>62387.546886074597</v>
       </c>
       <c r="E163">
-        <v>48875.8312824311</v>
+        <v>51520.513646297703</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
       <c r="G163">
-        <v>7.3668789971213594E-2</v>
+        <v>7.1162753331633702E-2</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -17753,16 +17753,16 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <v>10388.3462785963</v>
+        <v>10866.9620770235</v>
       </c>
       <c r="K163">
         <v>0</v>
       </c>
       <c r="L163">
-        <v>0.16858429577891301</v>
+        <v>0.17282778438365701</v>
       </c>
       <c r="M163">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -17773,19 +17773,19 @@
         <v>3.4467777777777702</v>
       </c>
       <c r="C164">
-        <v>9.3042165295814494E-2</v>
+        <v>9.2204426961036007E-2</v>
       </c>
       <c r="D164">
-        <v>60974.227205878902</v>
+        <v>64187.623005033201</v>
       </c>
       <c r="E164">
-        <v>50268.596895884803</v>
+        <v>52988.766695817903</v>
       </c>
       <c r="F164">
         <v>0</v>
       </c>
       <c r="G164">
-        <v>0.10082316684798</v>
+        <v>9.76398491711436E-2</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -17794,16 +17794,16 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <v>10705.529486827099</v>
+        <v>11198.758669366</v>
       </c>
       <c r="K164">
         <v>0</v>
       </c>
       <c r="L164">
-        <v>0.16850796108450999</v>
+        <v>0.172753924629971</v>
       </c>
       <c r="M164">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -17814,19 +17814,19 @@
         <v>3.4982222222222199</v>
       </c>
       <c r="C165">
-        <v>9.4430854330080402E-2</v>
+        <v>9.3580612438066396E-2</v>
       </c>
       <c r="D165">
-        <v>62707.251306073202</v>
+        <v>66011.9602899561</v>
       </c>
       <c r="E165">
-        <v>51679.632157458502</v>
+        <v>54476.282817384003</v>
       </c>
       <c r="F165">
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0.13678125251435899</v>
+        <v>0.13278842228662599</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -17835,16 +17835,16 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <v>11027.482367362099</v>
+        <v>11535.5446841498</v>
       </c>
       <c r="K165">
         <v>0</v>
       </c>
       <c r="L165">
-        <v>0.16843299868294001</v>
+        <v>0.17268139508107599</v>
       </c>
       <c r="M165">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -17855,19 +17855,19 @@
         <v>3.5496666666666599</v>
       </c>
       <c r="C166">
-        <v>9.5819543364346296E-2</v>
+        <v>9.4956797915096799E-2</v>
       </c>
       <c r="D166">
-        <v>64463.294185976803</v>
+        <v>67860.527691799201</v>
       </c>
       <c r="E166">
-        <v>53108.905255306097</v>
+        <v>55983.028504215901</v>
       </c>
       <c r="F166">
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0.18401046931606299</v>
+        <v>0.17906620840193399</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -17876,16 +17876,16 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <v>11354.2049202014</v>
+        <v>11877.3201213749</v>
       </c>
       <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
-        <v>0.16835936400048601</v>
+        <v>0.172610152482949</v>
       </c>
       <c r="M166">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -17896,19 +17896,19 @@
         <v>3.60111111111111</v>
       </c>
       <c r="C167">
-        <v>9.7208232398612204E-2</v>
+        <v>9.6332983392127203E-2</v>
       </c>
       <c r="D167">
-        <v>66242.327629102394</v>
+        <v>69733.295323604398</v>
       </c>
       <c r="E167">
-        <v>54556.384922674697</v>
+        <v>57508.970823582596</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0.245561082861223</v>
+        <v>0.239518980649983</v>
       </c>
       <c r="H167">
         <v>0</v>
@@ -17917,16 +17917,16 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>11685.6971453448</v>
+        <v>12224.0849810411</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
       <c r="L167">
-        <v>0.168287014535768</v>
+        <v>0.172540155594155</v>
       </c>
       <c r="M167">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -17937,19 +17937,19 @@
         <v>3.65255555555555</v>
       </c>
       <c r="C168">
-        <v>9.8596921432878099E-2</v>
+        <v>9.7709168869157606E-2</v>
       </c>
       <c r="D168">
-        <v>68044.324641185594</v>
+        <v>71630.234556625597</v>
       </c>
       <c r="E168">
-        <v>56022.040420799101</v>
+        <v>59054.077398789603</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
       <c r="G168">
-        <v>0.32517759396566498</v>
+        <v>0.317894687250248</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -17958,16 +17958,16 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <v>12021.9590427925</v>
+        <v>12575.8392631486</v>
       </c>
       <c r="K168">
         <v>0</v>
       </c>
       <c r="L168">
-        <v>0.168215909735244</v>
+        <v>0.17247136506486199</v>
       </c>
       <c r="M168">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -17978,19 +17978,19 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="C169">
-        <v>9.9985610467144007E-2</v>
+        <v>9.9085354346187898E-2</v>
       </c>
       <c r="D169">
-        <v>69869.259561194005</v>
+        <v>73551.318133954905</v>
       </c>
       <c r="E169">
-        <v>57505.841522569499</v>
+        <v>60618.316391980799</v>
       </c>
       <c r="F169">
         <v>0</v>
       </c>
       <c r="G169">
-        <v>0.42742608007718502</v>
+        <v>0.418774276669717</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -17999,16 +17999,16 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <v>12362.990612544399</v>
+        <v>12932.582967697401</v>
       </c>
       <c r="K169">
         <v>0</v>
       </c>
       <c r="L169">
-        <v>0.16814601087783501</v>
+        <v>0.17240374332472899</v>
       </c>
       <c r="M169">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -18019,19 +18019,19 @@
         <v>3.7554444444444401</v>
       </c>
       <c r="C170">
-        <v>0.101374299501409</v>
+        <v>0.100461539823218</v>
       </c>
       <c r="D170">
-        <v>71717.108190414801</v>
+        <v>75496.520303125901</v>
       </c>
       <c r="E170">
-        <v>59007.758496926603</v>
+        <v>62201.656487705703</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
       <c r="G170">
-        <v>0.55783888755838895</v>
+        <v>0.54772073275762201</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -18040,16 +18040,16 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>12708.7918546005</v>
+        <v>13294.3160946874</v>
       </c>
       <c r="K170">
         <v>0</v>
       </c>
       <c r="L170">
-        <v>0.16807728096788299</v>
+        <v>0.17233725447888901</v>
       </c>
       <c r="M170">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -18060,19 +18060,19 @@
         <v>3.8068888888888801</v>
       </c>
       <c r="C171">
-        <v>0.102762988535675</v>
+        <v>0.101837725300248</v>
       </c>
       <c r="D171">
-        <v>73587.847940987893</v>
+        <v>77465.816969187406</v>
       </c>
       <c r="E171">
-        <v>60527.762093942503</v>
+        <v>63804.066877208803</v>
       </c>
       <c r="F171">
         <v>0</v>
       </c>
       <c r="G171">
-        <v>0.72307808455253197</v>
+        <v>0.71144785985974701</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -18081,16 +18081,16 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <v>13059.3627689609</v>
+        <v>13661.0386441186</v>
       </c>
       <c r="K171">
         <v>0</v>
       </c>
       <c r="L171">
-        <v>0.16800968463574201</v>
+        <v>0.17227186421135701</v>
       </c>
       <c r="M171">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -18101,19 +18101,19 @@
         <v>3.8583333333333298</v>
       </c>
       <c r="C172">
-        <v>0.104151677569941</v>
+        <v>0.103213910777279</v>
       </c>
       <c r="D172">
-        <v>75481.458005251596</v>
+        <v>79459.185869752095</v>
       </c>
       <c r="E172">
-        <v>62065.823530546601</v>
+        <v>65425.517243399103</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
       <c r="G172">
-        <v>0.93111907951928896</v>
+        <v>0.91801036182736595</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -18122,16 +18122,16 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <v>13414.703355625399</v>
+        <v>14032.750615991101</v>
       </c>
       <c r="K172">
         <v>0</v>
       </c>
       <c r="L172">
-        <v>0.16794318804535199</v>
+        <v>0.17220753969523001</v>
       </c>
       <c r="M172">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -18142,19 +18142,19 @@
         <v>3.9097777777777698</v>
       </c>
       <c r="C173">
-        <v>0.105540366604207</v>
+        <v>0.104590096254309</v>
       </c>
       <c r="D173">
-        <v>77397.919547250494</v>
+        <v>81476.606773516105</v>
       </c>
       <c r="E173">
-        <v>63621.914476863698</v>
+        <v>67065.977746462595</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
       <c r="G173">
-        <v>1.19145579252617</v>
+        <v>1.1770167486016501</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -18163,16 +18163,16 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>13774.813614594201</v>
+        <v>14409.4520103048</v>
       </c>
       <c r="K173">
         <v>0</v>
       </c>
       <c r="L173">
-        <v>0.167877758808232</v>
+        <v>0.172144249509118</v>
       </c>
       <c r="M173">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -18183,19 +18183,19 @@
         <v>3.96122222222222</v>
       </c>
       <c r="C174">
-        <v>0.10692905563847301</v>
+        <v>0.105966281731339</v>
       </c>
       <c r="D174">
-        <v>79337.215917728303</v>
+        <v>83518.061703720305</v>
       </c>
       <c r="E174">
-        <v>65196.007043126097</v>
+        <v>68725.419010081096</v>
       </c>
       <c r="F174">
         <v>0</v>
       </c>
       <c r="G174">
-        <v>1.5153287348303699</v>
+        <v>1.4998665793448001</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -18204,16 +18204,16 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <v>14139.6935458672</v>
+        <v>14791.142827059801</v>
       </c>
       <c r="K174">
         <v>0</v>
       </c>
       <c r="L174">
-        <v>0.167813365903353</v>
+        <v>0.1720819635593</v>
       </c>
       <c r="M174">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -18224,19 +18224,19 @@
         <v>4.0126666666666599</v>
       </c>
       <c r="C175">
-        <v>0.108317744672739</v>
+        <v>0.10734246720837</v>
       </c>
       <c r="D175">
-        <v>81299.332893883999</v>
+        <v>85583.535187992296</v>
       </c>
       <c r="E175">
-        <v>66788.0737671323</v>
+        <v>70403.812108224505</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>1.91597730719468</v>
+        <v>1.90001351177989</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -18245,16 +18245,16 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <v>14509.343149444499</v>
+        <v>15177.823066256</v>
       </c>
       <c r="K175">
         <v>0</v>
       </c>
       <c r="L175">
-        <v>0.16774997960243199</v>
+        <v>0.172020653007146</v>
       </c>
       <c r="M175">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -18265,19 +18265,19 @@
         <v>4.0641111111111101</v>
       </c>
       <c r="C176">
-        <v>0.109706433707005</v>
+        <v>0.1087186526854</v>
       </c>
       <c r="D176">
-        <v>83284.258945114198</v>
+        <v>87673.014535953203</v>
       </c>
       <c r="E176">
-        <v>68398.087602219297</v>
+        <v>72101.128552486101</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176">
-        <v>2.4089175689480302</v>
+        <v>2.39325557357281</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -18286,16 +18286,16 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <v>14883.7624253259</v>
+        <v>15569.492727893399</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
       <c r="L176">
-        <v>0.16768757140020901</v>
+        <v>0.17196029020138301</v>
       </c>
       <c r="M176">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -18306,19 +18306,19 @@
         <v>4.1155555555555496</v>
       </c>
       <c r="C177">
-        <v>0.11109512274127099</v>
+        <v>0.110094838162431</v>
       </c>
       <c r="D177">
-        <v>85291.985525894197</v>
+        <v>89786.490145906704</v>
       </c>
       <c r="E177">
-        <v>70026.021905724105</v>
+        <v>73817.340279931101</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177">
-        <v>3.0122466584046101</v>
+        <v>2.99805400351817</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -18327,16 +18327,16 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <v>15262.9513735116</v>
+        <v>15966.1518119721</v>
       </c>
       <c r="K177">
         <v>0</v>
       </c>
       <c r="L177">
-        <v>0.16762611394931401</v>
+        <v>0.171900848614818</v>
       </c>
       <c r="M177">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -18347,19 +18347,19 @@
         <v>4.16699999999999</v>
       </c>
       <c r="C178">
-        <v>0.112483811775537</v>
+        <v>0.111471023639461</v>
       </c>
       <c r="D178">
-        <v>87322.507396869303</v>
+        <v>91923.955841852207</v>
       </c>
       <c r="E178">
-        <v>71671.850427906305</v>
+        <v>75552.419641431698</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
       <c r="G178">
-        <v>3.7469749614435499</v>
+        <v>3.73588192844137</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -18368,16 +18368,16 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <v>15646.9099940015</v>
+        <v>16367.800318492</v>
       </c>
       <c r="K178">
         <v>0</v>
       </c>
       <c r="L178">
-        <v>0.16756558099937299</v>
+        <v>0.171842302785192</v>
       </c>
       <c r="M178">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -18388,19 +18388,19 @@
         <v>4.2184444444444402</v>
       </c>
       <c r="C179">
-        <v>0.113872500809802</v>
+        <v>0.112847209116491</v>
       </c>
       <c r="D179">
-        <v>89375.822975134506</v>
+        <v>94085.409241963993</v>
       </c>
       <c r="E179">
-        <v>73335.5473013093</v>
+        <v>77306.339390463996</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
       <c r="G179">
-        <v>4.63738702952298</v>
+        <v>4.6316040467383903</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -18409,16 +18409,16 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <v>16035.6382867957</v>
+        <v>16774.438247453199</v>
       </c>
       <c r="K179">
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0.16750594734002899</v>
+        <v>0.17178462825982399</v>
       </c>
       <c r="M179">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -18429,19 +18429,19 @@
         <v>4.2698888888888797</v>
       </c>
       <c r="C180">
-        <v>0.115261189844068</v>
+        <v>0.114223394593522</v>
       </c>
       <c r="D180">
-        <v>91451.934714572795</v>
+        <v>96270.852159579706</v>
       </c>
       <c r="E180">
-        <v>75017.087030536801</v>
+        <v>79079.072672341907</v>
       </c>
       <c r="F180">
         <v>0</v>
       </c>
       <c r="G180">
-        <v>5.7114321419989</v>
+        <v>5.7138883821372897</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -18450,16 +18450,16 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <v>16429.136251894</v>
+        <v>17186.065598855599</v>
       </c>
       <c r="K180">
         <v>0</v>
       </c>
       <c r="L180">
-        <v>0.167447188747576</v>
+        <v>0.171727801543782</v>
       </c>
       <c r="M180">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -18470,19 +18470,19 @@
         <v>4.3213333333333299</v>
       </c>
       <c r="C181">
-        <v>0.116649878878334</v>
+        <v>0.115599580070552</v>
       </c>
       <c r="D181">
-        <v>93550.849517011695</v>
+        <v>98480.291037617993</v>
       </c>
       <c r="E181">
-        <v>76716.444482423802</v>
+        <v>80870.593013866193</v>
       </c>
       <c r="F181">
         <v>0</v>
       </c>
       <c r="G181">
-        <v>7.0011452912954901</v>
+        <v>7.0156510525166196</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -18491,16 +18491,16 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <v>16827.403889296598</v>
+        <v>17602.682372699201</v>
       </c>
       <c r="K181">
         <v>0</v>
       </c>
       <c r="L181">
-        <v>0.16738928193493799</v>
+        <v>0.17167180005129201</v>
       </c>
       <c r="M181">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -18511,19 +18511,19 @@
         <v>4.3727777777777703</v>
       </c>
       <c r="C182">
-        <v>0.11803856791260001</v>
+        <v>0.116975765547583</v>
       </c>
       <c r="D182">
-        <v>95672.579174830506</v>
+        <v>100713.737417223</v>
       </c>
       <c r="E182">
-        <v>78433.594876582807</v>
+        <v>82680.874313369699</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>8.5430992442903104</v>
+        <v>8.5745348695087404</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -18532,16 +18532,16 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <v>17230.441199003399</v>
+        <v>18024.288568984099</v>
       </c>
       <c r="K182">
         <v>0</v>
       </c>
       <c r="L182">
-        <v>0.167332204504755</v>
+        <v>0.17161660206017501</v>
       </c>
       <c r="M182">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -18552,19 +18552,19 @@
         <v>4.4242222222222196</v>
       </c>
       <c r="C183">
-        <v>0.119427256946866</v>
+        <v>0.118351951024613</v>
       </c>
       <c r="D183">
-        <v>97817.140845519898</v>
+        <v>102971.208441291</v>
       </c>
       <c r="E183">
-        <v>80168.513776305103</v>
+        <v>84509.890831134893</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183">
-        <v>10.378888200370399</v>
+        <v>10.4334224463064</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -18573,16 +18573,16 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <v>17638.248181014402</v>
+        <v>18450.8841877103</v>
       </c>
       <c r="K183">
         <v>0</v>
       </c>
       <c r="L183">
-        <v>0.16727593490533399</v>
+        <v>0.171562186669064</v>
       </c>
       <c r="M183">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -18593,19 +18593,19 @@
         <v>4.47566666666666</v>
       </c>
       <c r="C184">
-        <v>0.120815945981132</v>
+        <v>0.119728136501643</v>
       </c>
       <c r="D184">
-        <v>99984.557558558998</v>
+        <v>105252.727393393</v>
       </c>
       <c r="E184">
-        <v>81921.177079802103</v>
+        <v>86357.617180171204</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184">
-        <v>12.555643427191301</v>
+        <v>12.6409843448151</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -18614,16 +18614,16 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <v>18050.8248353296</v>
+        <v>18882.469228877599</v>
       </c>
       <c r="K184">
         <v>0</v>
       </c>
       <c r="L184">
-        <v>0.167220452389271</v>
+        <v>0.171508533757215</v>
       </c>
       <c r="M184">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -18634,19 +18634,19 @@
         <v>4.5271111111111102</v>
       </c>
       <c r="C185">
-        <v>0.12220463501539799</v>
+        <v>0.121104321978674</v>
       </c>
       <c r="D185">
-        <v>102174.858754827</v>
+        <v>107558.32427245499</v>
       </c>
       <c r="E185">
-        <v>83691.561011768004</v>
+        <v>88224.028317328906</v>
       </c>
       <c r="F185">
         <v>0</v>
       </c>
       <c r="G185">
-        <v>15.126581110460499</v>
+        <v>15.252262640339399</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -18655,16 +18655,16 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <v>18468.1711619491</v>
+        <v>19319.043692486201</v>
       </c>
       <c r="K185">
         <v>0</v>
       </c>
       <c r="L185">
-        <v>0.16716573697454801</v>
+        <v>0.171455623946728</v>
       </c>
       <c r="M185">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -18675,19 +18675,19 @@
         <v>4.5785555555555497</v>
       </c>
       <c r="C186">
-        <v>0.123593324049664</v>
+        <v>0.122480507455704</v>
       </c>
       <c r="D186">
-        <v>104388.080858627</v>
+        <v>109888.036403398</v>
       </c>
       <c r="E186">
-        <v>85479.642115249095</v>
+        <v>90109.099534738198</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186">
-        <v>18.151582505353801</v>
+        <v>18.3292901237037</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -18696,16 +18696,16 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <v>18890.287160872798</v>
+        <v>19760.607578536099</v>
       </c>
       <c r="K186">
         <v>0</v>
       </c>
       <c r="L186">
-        <v>0.16711176940792799</v>
+        <v>0.17140343856699999</v>
       </c>
       <c r="M186">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -18716,19 +18716,19 @@
         <v>4.63</v>
       </c>
       <c r="C187">
-        <v>0.12498201308393</v>
+        <v>0.123856692932735</v>
       </c>
       <c r="D187">
-        <v>106624.26788223301</v>
+        <v>112241.90908378</v>
       </c>
       <c r="E187">
-        <v>87285.397243807194</v>
+        <v>92012.806451555094</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187">
-        <v>21.697806325711898</v>
+        <v>21.941745198428499</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -18737,16 +18737,16 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <v>19317.172832100699</v>
+        <v>20207.160887027199</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
       <c r="L187">
-        <v>0.16705853113050101</v>
+        <v>0.17135195962126001</v>
       </c>
       <c r="M187">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -18757,19 +18757,19 @@
         <v>4.6814444444444403</v>
       </c>
       <c r="C188">
-        <v>0.12637070211819501</v>
+        <v>0.12523287840976499</v>
       </c>
       <c r="D188">
-        <v>108883.472062746</v>
+        <v>114619.99626632599</v>
       </c>
       <c r="E188">
-        <v>89108.8035539595</v>
+        <v>93935.125006001195</v>
       </c>
       <c r="F188">
         <v>0</v>
       </c>
       <c r="G188">
-        <v>25.840333154228901</v>
+        <v>26.167642365672101</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -18778,16 +18778,16 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <v>19748.8281756328</v>
+        <v>20658.703617959502</v>
       </c>
       <c r="K188">
         <v>0</v>
       </c>
       <c r="L188">
-        <v>0.16700600424520601</v>
+        <v>0.17130116975503701</v>
       </c>
       <c r="M188">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -18798,19 +18798,19 @@
         <v>4.7328888888888798</v>
       </c>
       <c r="C189">
-        <v>0.12775939115246099</v>
+        <v>0.12660906388679499</v>
       </c>
       <c r="D189">
-        <v>111165.75453085901</v>
+        <v>117022.36127704001</v>
       </c>
       <c r="E189">
-        <v>90949.838497886201</v>
+        <v>95876.031447683607</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>30.6628415036704</v>
+        <v>31.0940580234561</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -18819,16 +18819,16 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>20185.253191469099</v>
+        <v>21115.2357713331</v>
       </c>
       <c r="K189">
         <v>0</v>
       </c>
       <c r="L189">
-        <v>0.16695417148623201</v>
+        <v>0.17125105222644199</v>
       </c>
       <c r="M189">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -18839,19 +18839,19 @@
         <v>4.78433333333333</v>
       </c>
       <c r="C190">
-        <v>0.12914808018672699</v>
+        <v>0.12798524936382599</v>
       </c>
       <c r="D190">
-        <v>113471.186011007</v>
+        <v>119449.077568469</v>
       </c>
       <c r="E190">
-        <v>92808.479816390405</v>
+        <v>97835.502330181102</v>
       </c>
       <c r="F190">
         <v>0</v>
       </c>
       <c r="G190">
-        <v>36.258315006940499</v>
+        <v>36.817891140513503</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -18860,16 +18860,16 @@
         <v>0</v>
       </c>
       <c r="J190">
-        <v>20626.447879609699</v>
+        <v>21576.757347147901</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
       <c r="L190">
-        <v>0.16690301619013301</v>
+        <v>0.17120159087812301</v>
       </c>
       <c r="M190">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -18880,19 +18880,19 @@
         <v>4.8357777777777704</v>
       </c>
       <c r="C191">
-        <v>0.130536769220993</v>
+        <v>0.12936143484085599</v>
       </c>
       <c r="D191">
-        <v>115799.847552219</v>
+        <v>121900.22950749</v>
       </c>
       <c r="E191">
-        <v>94684.705532100896</v>
+        <v>99813.514503886501</v>
       </c>
       <c r="F191">
         <v>0</v>
       </c>
       <c r="G191">
-        <v>42.7297800636982</v>
+        <v>43.446658200213001</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -18901,16 +18901,16 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <v>21072.412240054498</v>
+        <v>22043.268345404002</v>
       </c>
       <c r="K191">
         <v>0</v>
       </c>
       <c r="L191">
-        <v>0.16685252226857</v>
+        <v>0.17115277011079599</v>
       </c>
       <c r="M191">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -18921,19 +18921,19 @@
         <v>4.8872222222222197</v>
       </c>
       <c r="C192">
-        <v>0.131925458255259</v>
+        <v>0.13073762031788599</v>
       </c>
       <c r="D192">
-        <v>118151.831288834</v>
+        <v>124375.91319684</v>
       </c>
       <c r="E192">
-        <v>96578.493942906396</v>
+        <v>101810.04510909101</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
       <c r="G192">
-        <v>50.191073124278702</v>
+        <v>51.099321647632799</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -18942,16 +18942,16 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <v>21523.1462728035</v>
+        <v>22514.768766101301</v>
       </c>
       <c r="K192">
         <v>0</v>
       </c>
       <c r="L192">
-        <v>0.16680267418256101</v>
+        <v>0.17110457485824099</v>
       </c>
       <c r="M192">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -18962,19 +18962,19 @@
         <v>4.9386666666666601</v>
       </c>
       <c r="C193">
-        <v>0.13331414728952501</v>
+        <v>0.13211380579491699</v>
       </c>
       <c r="D193">
-        <v>120527.24123011599</v>
+        <v>126876.23732945901</v>
       </c>
       <c r="E193">
-        <v>98489.823615610498</v>
+        <v>103825.071569305</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="G193">
-        <v>58.767636648902901</v>
+        <v>59.907150914070201</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -18983,16 +18983,16 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <v>21978.6499778568</v>
+        <v>22991.258609239801</v>
       </c>
       <c r="K193">
         <v>0</v>
       </c>
       <c r="L193">
-        <v>0.166753456918139</v>
+        <v>0.17105699056367399</v>
       </c>
       <c r="M193">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -19003,19 +19003,19 @@
         <v>4.9901111111111103</v>
       </c>
       <c r="C194">
-        <v>0.13470283632379099</v>
+        <v>0.13348999127194699</v>
       </c>
       <c r="D194">
-        <v>122926.194077655</v>
+        <v>129401.324074555</v>
       </c>
       <c r="E194">
-        <v>100418.673379798</v>
+        <v>105858.57158479599</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="G194">
-        <v>68.597342642554906</v>
+        <v>70.014614939193294</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -19024,16 +19024,16 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <v>22438.9233552142</v>
+        <v>23472.737874819599</v>
       </c>
       <c r="K194">
         <v>0</v>
       </c>
       <c r="L194">
-        <v>0.16670485596333601</v>
+        <v>0.17101000315739101</v>
       </c>
       <c r="M194">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -19044,19 +19044,19 @@
         <v>5.0415555555555498</v>
       </c>
       <c r="C195">
-        <v>0.13609152535805699</v>
+        <v>0.134866176748978</v>
       </c>
       <c r="D195">
-        <v>125348.820069315</v>
+        <v>131951.30999414701</v>
       </c>
       <c r="E195">
-        <v>102365.02232190401</v>
+        <v>107910.52312634399</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="G195">
-        <v>79.8313425345506</v>
+        <v>81.580304962676394</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -19065,16 +19065,16 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <v>22903.9664048759</v>
+        <v>23959.206562840602</v>
       </c>
       <c r="K195">
         <v>0</v>
       </c>
       <c r="L195">
-        <v>0.16665685728639701</v>
+        <v>0.170963599035626</v>
       </c>
       <c r="M195">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -19085,19 +19085,19 @@
         <v>5.093</v>
       </c>
       <c r="C196">
-        <v>0.137480214392323</v>
+        <v>0.136242362226008</v>
       </c>
       <c r="D196">
-        <v>127795.263848366</v>
+        <v>134526.346988715</v>
       </c>
       <c r="E196">
-        <v>104328.84977947699</v>
+        <v>109980.90442919701</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196">
-        <v>92.634942047659194</v>
+        <v>94.777886215683097</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -19106,16 +19106,16 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>23373.7791268418</v>
+        <v>24450.664673302901</v>
       </c>
       <c r="K196">
         <v>0</v>
       </c>
       <c r="L196">
-        <v>0.16660944731515701</v>
+        <v>0.170917765040522</v>
       </c>
       <c r="M196">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -19126,19 +19126,19 @@
         <v>5.1444444444444404</v>
       </c>
       <c r="C197">
-        <v>0.138868903426588</v>
+        <v>0.137618547703038</v>
       </c>
       <c r="D197">
-        <v>130265.68535632</v>
+        <v>137126.60327044301</v>
       </c>
       <c r="E197">
-        <v>106310.135335623</v>
+        <v>112069.69398722801</v>
       </c>
       <c r="F197">
         <v>0</v>
       </c>
       <c r="G197">
-        <v>107.18849958505299</v>
+        <v>109.797077009034</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -19147,16 +19147,16 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <v>23848.361521111899</v>
+        <v>24947.112206206399</v>
       </c>
       <c r="K197">
         <v>0</v>
       </c>
       <c r="L197">
-        <v>0.16656261291749699</v>
+        <v>0.17087248844115999</v>
       </c>
       <c r="M197">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -19167,19 +19167,19 @@
         <v>5.1958888888888799</v>
       </c>
       <c r="C198">
-        <v>0.14025759246085401</v>
+        <v>0.138994733180069</v>
       </c>
       <c r="D198">
-        <v>132760.26074787701</v>
+        <v>139752.26436241201</v>
       </c>
       <c r="E198">
-        <v>108308.85881363699</v>
+        <v>114176.870547271</v>
       </c>
       <c r="F198">
         <v>0</v>
       </c>
       <c r="G198">
-        <v>123.688346553278</v>
+        <v>126.844653589616</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -19188,16 +19188,16 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <v>24327.713587686299</v>
+        <v>25448.5491615512</v>
       </c>
       <c r="K198">
         <v>0</v>
       </c>
       <c r="L198">
-        <v>0.16651634138282401</v>
+        <v>0.170827756915581</v>
       </c>
       <c r="M198">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -19208,19 +19208,19 @@
         <v>5.2473333333333301</v>
       </c>
       <c r="C199">
-        <v>0.14164628149512001</v>
+        <v>0.140370918657099</v>
       </c>
       <c r="D199">
-        <v>135279.183326292</v>
+        <v>142403.53412199899</v>
       </c>
       <c r="E199">
-        <v>110325.000271793</v>
+        <v>116302.413103643</v>
       </c>
       <c r="F199">
         <v>0</v>
       </c>
       <c r="G199">
-        <v>142.34772793359701</v>
+        <v>146.145479018244</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -19229,16 +19229,16 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <v>24811.835326564898</v>
+        <v>25954.9755393372</v>
       </c>
       <c r="K199">
         <v>0</v>
       </c>
       <c r="L199">
-        <v>0.1664706204045</v>
+        <v>0.17078355853372401</v>
       </c>
       <c r="M199">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -19249,19 +19249,19 @@
         <v>5.2987777777777696</v>
       </c>
       <c r="C200">
-        <v>0.14303497052938599</v>
+        <v>0.14174710413413</v>
       </c>
       <c r="D200">
-        <v>137822.66449736399</v>
+        <v>145080.63578660399</v>
       </c>
       <c r="E200">
-        <v>112358.539998304</v>
+        <v>118446.30089283201</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
       <c r="G200">
-        <v>163.397761312044</v>
+        <v>167.94355420808799</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -19270,16 +19270,16 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <v>25300.7267377477</v>
+        <v>26466.391339564401</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
       <c r="L200">
-        <v>0.16642543806317101</v>
+        <v>0.17073988174124999</v>
       </c>
       <c r="M200">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -19290,19 +19290,19 @@
         <v>5.3502222222222198</v>
       </c>
       <c r="C201">
-        <v>0.144423659563652</v>
+        <v>0.14312328961116</v>
       </c>
       <c r="D201">
-        <v>140390.93474015899</v>
+        <v>147783.81303973799</v>
       </c>
       <c r="E201">
-        <v>114409.45850643799</v>
+        <v>120608.513388352</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>187.08841248694</v>
+        <v>192.50308915210101</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -19311,16 +19311,16 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <v>25794.387821234701</v>
+        <v>26982.796562232899</v>
       </c>
       <c r="K201">
         <v>0</v>
       </c>
       <c r="L201">
-        <v>0.16638078281094301</v>
+        <v>0.17069671534417499</v>
       </c>
       <c r="M201">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -19331,19 +19331,19 @@
         <v>5.4016666666666602</v>
       </c>
       <c r="C202">
-        <v>0.145812348597918</v>
+        <v>0.14449947508819</v>
       </c>
       <c r="D202">
-        <v>142984.24459251799</v>
+        <v>150513.33109537399</v>
       </c>
       <c r="E202">
-        <v>116477.73652978201</v>
+        <v>122789.030295763</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202">
-        <v>213.68948570964599</v>
+        <v>220.10959226805801</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -19352,16 +19352,16 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <v>26292.818577025901</v>
+        <v>27504.191207342599</v>
       </c>
       <c r="K202">
         <v>0</v>
       </c>
       <c r="L202">
-        <v>0.166336643456342</v>
+        <v>0.17065404849427199</v>
       </c>
       <c r="M202">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -19372,19 +19372,19 @@
         <v>5.4531111111111104</v>
       </c>
       <c r="C203">
-        <v>0.14720103763218401</v>
+        <v>0.145875660565221</v>
       </c>
       <c r="D203">
-        <v>145602.86564937801</v>
+        <v>153269.477798443</v>
       </c>
       <c r="E203">
-        <v>118563.355017653</v>
+        <v>124987.831547828</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203">
-        <v>243.49162660322699</v>
+        <v>251.070975721271</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -19393,16 +19393,16 @@
         <v>0</v>
       </c>
       <c r="J203">
-        <v>26796.019005121401</v>
+        <v>28030.575274893501</v>
       </c>
       <c r="K203">
         <v>0</v>
       </c>
       <c r="L203">
-        <v>0.16629300915002401</v>
+        <v>0.170611870675204</v>
       </c>
       <c r="M203">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -19413,19 +19413,19 @@
         <v>5.5045555555555499</v>
       </c>
       <c r="C204">
-        <v>0.14858972666645001</v>
+        <v>0.147251846042251</v>
       </c>
       <c r="D204">
-        <v>148247.09157201601</v>
+        <v>156052.56473929001</v>
       </c>
       <c r="E204">
-        <v>120666.29513064399</v>
+        <v>127204.897299829</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
       <c r="G204">
-        <v>276.80733585099603</v>
+        <v>285.71867457502498</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -19434,16 +19434,16 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <v>27303.989105521101</v>
+        <v>28561.948764885699</v>
       </c>
       <c r="K204">
         <v>0</v>
       </c>
       <c r="L204">
-        <v>0.16624986937119099</v>
+        <v>0.170570171689333</v>
       </c>
       <c r="M204">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -19454,19 +19454,19 @@
         <v>5.556</v>
       </c>
       <c r="C205">
-        <v>0.14997841570071599</v>
+        <v>0.148628031519282</v>
       </c>
       <c r="D205">
-        <v>150917.23910634001</v>
+        <v>158862.92838001499</v>
       </c>
       <c r="E205">
-        <v>122786.53823630601</v>
+        <v>129440.207925019</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>313.97199180955801</v>
+        <v>324.40877767735299</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -19475,16 +19475,16 @@
         <v>0</v>
       </c>
       <c r="J205">
-        <v>27816.728878225</v>
+        <v>29098.311677319201</v>
       </c>
       <c r="K205">
         <v>0</v>
       </c>
       <c r="L205">
-        <v>0.166207213914663</v>
+        <v>0.17052894164517701</v>
       </c>
       <c r="M205">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -19495,19 +19495,19 @@
         <v>5.6074444444444396</v>
       </c>
       <c r="C206">
-        <v>0.151367104734981</v>
+        <v>0.150004216996312</v>
       </c>
       <c r="D206">
-        <v>153613.64910835301</v>
+        <v>161700.93119067399</v>
       </c>
       <c r="E206">
-        <v>124924.065904954</v>
+        <v>131693.744010205</v>
       </c>
       <c r="F206">
         <v>0</v>
       </c>
       <c r="G206">
-        <v>355.34488016574898</v>
+        <v>367.52316827534599</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -19516,16 +19516,16 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <v>28334.238323233101</v>
+        <v>29639.664012193902</v>
       </c>
       <c r="K206">
         <v>0</v>
       </c>
       <c r="L206">
-        <v>0.16616503287857501</v>
+        <v>0.17048817094546601</v>
       </c>
       <c r="M206">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -19536,19 +19536,19 @@
         <v>5.65888888888888</v>
       </c>
       <c r="C207">
-        <v>0.152755793769247</v>
+        <v>0.151380402473342</v>
       </c>
       <c r="D207">
-        <v>156336.68757461701</v>
+        <v>164566.962793307</v>
       </c>
       <c r="E207">
-        <v>127078.85990560301</v>
+        <v>133965.48635146601</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207">
-        <v>401.310228468346</v>
+        <v>415.47067233128098</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -19557,16 +19557,16 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <v>28856.517440545402</v>
+        <v>30186.0057695098</v>
       </c>
       <c r="K207">
         <v>0</v>
       </c>
       <c r="L207">
-        <v>0.166123316652663</v>
+        <v>0.17044785027577</v>
       </c>
       <c r="M207">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -19577,19 +19577,19 @@
         <v>5.7103333333333302</v>
       </c>
       <c r="C208">
-        <v>0.15414448280351301</v>
+        <v>0.152756587950373</v>
       </c>
       <c r="D208">
-        <v>159086.74667489601</v>
+        <v>167461.44111147799</v>
       </c>
       <c r="E208">
-        <v>129250.902202014</v>
+        <v>136255.41594999001</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
       <c r="G208">
-        <v>452.27824272058001</v>
+        <v>468.68821222056101</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19598,16 +19598,16 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <v>29383.566230162</v>
+        <v>30737.336949266999</v>
       </c>
       <c r="K208">
         <v>0</v>
       </c>
       <c r="L208">
-        <v>0.16608205590710101</v>
+        <v>0.17040797059367399</v>
       </c>
       <c r="M208">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -19618,19 +19618,19 @@
         <v>5.7617777777777697</v>
       </c>
       <c r="C209">
-        <v>0.15553317183777901</v>
+        <v>0.154132773427403</v>
       </c>
       <c r="D209">
-        <v>161864.24578325299</v>
+        <v>170384.81352229</v>
       </c>
       <c r="E209">
-        <v>131440.17494885699</v>
+        <v>138563.514008036</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
       <c r="G209">
-        <v>508.68614231269498</v>
+        <v>527.64196278888403</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19639,16 +19639,16 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <v>29915.3846920828</v>
+        <v>31293.657551465301</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
       <c r="L209">
-        <v>0.16604124158187</v>
+        <v>0.17036852311844999</v>
       </c>
       <c r="M209">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -19659,19 +19659,19 @@
         <v>5.8132222222222198</v>
       </c>
       <c r="C210">
-        <v>0.15692186087204499</v>
+        <v>0.155508958904433</v>
       </c>
       <c r="D210">
-        <v>164669.632503111</v>
+        <v>173337.558006823</v>
       </c>
       <c r="E210">
-        <v>133646.660487988</v>
+        <v>140889.761925008</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210">
-        <v>570.99918881498002</v>
+        <v>592.82850570973801</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19680,16 +19680,16 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <v>30451.972826307901</v>
+        <v>31854.967576104998</v>
       </c>
       <c r="K210">
         <v>0</v>
       </c>
       <c r="L210">
-        <v>0.166000864876611</v>
+        <v>0.17032949932121599</v>
       </c>
       <c r="M210">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -19700,19 +19700,19 @@
         <v>5.8646666666666603</v>
       </c>
       <c r="C211">
-        <v>0.15831054990631099</v>
+        <v>0.156885144381464</v>
       </c>
       <c r="D211">
-        <v>167503.38368191099</v>
+        <v>176320.18429395999</v>
       </c>
       <c r="E211">
-        <v>135870.34134482199</v>
+        <v>143234.14129364101</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211">
-        <v>639.71170425205503</v>
+        <v>664.77597713360205</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19721,16 +19721,16 @@
         <v>0</v>
       </c>
       <c r="J211">
-        <v>30993.3306328371</v>
+        <v>32421.267023185901</v>
       </c>
       <c r="K211">
         <v>0</v>
       </c>
       <c r="L211">
-        <v>0.16596091724095499</v>
+        <v>0.170290890915547</v>
       </c>
       <c r="M211">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -19741,19 +19741,19 @@
         <v>5.9161111111111104</v>
       </c>
       <c r="C212">
-        <v>0.159699238940577</v>
+        <v>0.158261329858494</v>
       </c>
       <c r="D212">
-        <v>170366.006412713</v>
+        <v>179333.23499252999</v>
       </c>
       <c r="E212">
-        <v>138111.20022481601</v>
+        <v>145596.63389629099</v>
       </c>
       <c r="F212">
         <v>0</v>
       </c>
       <c r="G212">
-        <v>715.34807622563596</v>
+        <v>744.04520353129999</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19762,16 +19762,16 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>31539.458111670501</v>
+        <v>32992.555892707998</v>
       </c>
       <c r="K212">
         <v>0</v>
       </c>
       <c r="L212">
-        <v>0.165921390365285</v>
+        <v>0.17025268984851499</v>
       </c>
       <c r="M212">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -19782,19 +19782,19 @@
         <v>5.96755555555555</v>
       </c>
       <c r="C213">
-        <v>0.161087927974843</v>
+        <v>0.159637515335525</v>
       </c>
       <c r="D213">
-        <v>173258.039023928</v>
+        <v>182377.286708317</v>
       </c>
       <c r="E213">
-        <v>140369.22001004699</v>
+        <v>147977.22170133499</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
       <c r="G213">
-        <v>798.46375107329902</v>
+        <v>831.23082231055503</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19803,16 +19803,16 @@
         <v>0</v>
       </c>
       <c r="J213">
-        <v>32090.3552628082</v>
+        <v>33568.834184671403</v>
       </c>
       <c r="K213">
         <v>0</v>
       </c>
       <c r="L213">
-        <v>0.16588227617192999</v>
+        <v>0.17021488829213799</v>
       </c>
       <c r="M213">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -19823,19 +19823,19 @@
         <v>6.0190000000000001</v>
       </c>
       <c r="C214">
-        <v>0.16247661700910901</v>
+        <v>0.16101370081255501</v>
       </c>
       <c r="D214">
-        <v>176180.052063843</v>
+        <v>185452.951146548</v>
       </c>
       <c r="E214">
-        <v>142644.38375587799</v>
+        <v>150375.88685966301</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214">
-        <v>889.64622171512099</v>
+        <v>926.96238780903002</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19844,16 +19844,16 @@
         <v>0</v>
       </c>
       <c r="J214">
-        <v>32646.022086250101</v>
+        <v>34150.101899075999</v>
       </c>
       <c r="K214">
         <v>0</v>
       </c>
       <c r="L214">
-        <v>0.16584356680673901</v>
+        <v>0.17017747863520999</v>
       </c>
       <c r="M214">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -19864,19 +19864,19 @@
         <v>6.0704444444444396</v>
       </c>
       <c r="C215">
-        <v>0.16386530604337399</v>
+        <v>0.16238988628958501</v>
       </c>
       <c r="D215">
-        <v>179132.649292054</v>
+        <v>188560.87620652901</v>
       </c>
       <c r="E215">
-        <v>144936.67468773</v>
+        <v>152792.61170126899</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215">
-        <v>989.51602232795096</v>
+        <v>1031.90546933834</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19885,16 +19885,16 @@
         <v>0</v>
       </c>
       <c r="J215">
-        <v>33206.458581996303</v>
+        <v>34736.359035921902</v>
       </c>
       <c r="K215">
         <v>0</v>
       </c>
       <c r="L215">
-        <v>0.16580525463104501</v>
+        <v>0.170140453475493</v>
       </c>
       <c r="M215">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -19905,19 +19905,19 @@
         <v>6.1218888888888801</v>
       </c>
       <c r="C216">
-        <v>0.16525399507763999</v>
+        <v>0.16376607176661601</v>
       </c>
       <c r="D216">
-        <v>182116.468692747</v>
+        <v>191701.74708162001</v>
       </c>
       <c r="E216">
-        <v>147246.07619792299</v>
+        <v>155227.378731934</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>1098.72774477757</v>
+        <v>1146.7627544766699</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -19926,16 +19926,16 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <v>33771.664750046599</v>
+        <v>35327.605595208901</v>
       </c>
       <c r="K216">
         <v>0</v>
       </c>
       <c r="L216">
-        <v>0.165767332213969</v>
+        <v>0.17010380561226199</v>
       </c>
       <c r="M216">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -19946,19 +19946,19 @@
         <v>6.1733333333333302</v>
       </c>
       <c r="C217">
-        <v>0.166642684111906</v>
+        <v>0.16514225724364601</v>
       </c>
       <c r="D217">
-        <v>185132.183521684</v>
+        <v>194876.28738184099</v>
       </c>
       <c r="E217">
-        <v>149572.57184261701</v>
+        <v>157680.17063000001</v>
       </c>
       <c r="F217">
         <v>0</v>
       </c>
       <c r="G217">
-        <v>1217.97108866536</v>
+        <v>1272.2751749034901</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -19967,16 +19967,16 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <v>34341.640590401199</v>
+        <v>35923.841576937302</v>
       </c>
       <c r="K217">
         <v>0</v>
       </c>
       <c r="L217">
-        <v>0.16572979232507401</v>
+        <v>0.170067528039165</v>
       </c>
       <c r="M217">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -19987,19 +19987,19 @@
         <v>6.2247777777777697</v>
       </c>
       <c r="C218">
-        <v>0.168031373146172</v>
+        <v>0.16651844272067701</v>
       </c>
       <c r="D218">
-        <v>188180.503387328</v>
+        <v>198085.26029451701</v>
       </c>
       <c r="E218">
-        <v>151916.145338826</v>
+        <v>160150.97024322199</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
       <c r="G218">
-        <v>1347.9719454418901</v>
+        <v>1409.2230701886499</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20008,16 +20008,16 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <v>34916.386103060002</v>
+        <v>36525.066981106902</v>
       </c>
       <c r="K218">
         <v>0</v>
       </c>
       <c r="L218">
-        <v>0.165692627927333</v>
+        <v>0.17003161393740501</v>
       </c>
       <c r="M218">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -20028,19 +20028,19 @@
         <v>6.2762222222222199</v>
       </c>
       <c r="C219">
-        <v>0.16942006218043801</v>
+        <v>0.16789462819770701</v>
       </c>
       <c r="D219">
-        <v>191262.175346415</v>
+        <v>201329.469787485</v>
       </c>
       <c r="E219">
-        <v>154276.780561511</v>
+        <v>162639.760585715</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
       <c r="G219">
-        <v>1489.4934968803</v>
+        <v>1558.42739405302</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -20049,16 +20049,16 @@
         <v>0</v>
       </c>
       <c r="J219">
-        <v>35495.901288023</v>
+        <v>37131.2818077177</v>
       </c>
       <c r="K219">
         <v>0</v>
       </c>
       <c r="L219">
-        <v>0.16565583217039301</v>
+        <v>0.169996056669207</v>
       </c>
       <c r="M219">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -20069,19 +20069,19 @@
         <v>6.3276666666666603</v>
       </c>
       <c r="C220">
-        <v>0.17080875121470401</v>
+        <v>0.16927081367473701</v>
       </c>
       <c r="D220">
-        <v>194377.98496800699</v>
+        <v>204609.76183839299</v>
       </c>
       <c r="E220">
-        <v>156654.46154075701</v>
+        <v>165146.524834971</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>1643.3372819605299</v>
+        <v>1720.7509466526701</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20090,16 +20090,16 @@
         <v>0</v>
       </c>
       <c r="J220">
-        <v>36080.186145290303</v>
+        <v>37742.486056769703</v>
       </c>
       <c r="K220">
         <v>0</v>
       </c>
       <c r="L220">
-        <v>0.165619398384138</v>
+        <v>0.169960849771568</v>
       </c>
       <c r="M220">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -20110,19 +20110,19 @@
         <v>6.3791111111111096</v>
       </c>
       <c r="C221">
-        <v>0.17219744024896999</v>
+        <v>0.17064699915176801</v>
       </c>
       <c r="D221">
-        <v>197528.75729383799</v>
+        <v>207927.02564481099</v>
       </c>
       <c r="E221">
-        <v>159049.17245900899</v>
+        <v>167671.24632895799</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221">
-        <v>1810.34415996744</v>
+        <v>1897.0995875901599</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -20131,16 +20131,16 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <v>36669.2406748617</v>
+        <v>38358.679728263</v>
       </c>
       <c r="K221">
         <v>0</v>
       </c>
       <c r="L221">
-        <v>0.165583320072519</v>
+        <v>0.169925986950268</v>
       </c>
       <c r="M221">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -20151,19 +20151,19 @@
         <v>6.43055555555555</v>
       </c>
       <c r="C222">
-        <v>0.173586129283236</v>
+        <v>0.17202318462879801</v>
       </c>
       <c r="D222">
-        <v>200715.35760518999</v>
+        <v>211282.19473908699</v>
       </c>
       <c r="E222">
-        <v>161460.89764839699</v>
+        <v>170213.908563295</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222">
-        <v>1991.3950800551199</v>
+        <v>2088.42335359458</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20172,16 +20172,16 @@
         <v>0</v>
       </c>
       <c r="J222">
-        <v>37263.0648767374</v>
+        <v>38979.862822197603</v>
       </c>
       <c r="K222">
         <v>0</v>
       </c>
       <c r="L222">
-        <v>0.16554759090764301</v>
+        <v>0.16989146207414299</v>
       </c>
       <c r="M222">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -20192,19 +20192,19 @@
         <v>6.4820000000000002</v>
       </c>
       <c r="C223">
-        <v>0.174974818317502</v>
+        <v>0.17339937010582901</v>
       </c>
       <c r="D223">
-        <v>203938.69190719299</v>
+        <v>214676.247908369</v>
       </c>
       <c r="E223">
-        <v>163889.621588112</v>
+        <v>172774.49518849101</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223">
-        <v>2187.4115681643498</v>
+        <v>2295.7173813047102</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -20213,16 +20213,16 @@
         <v>0</v>
       </c>
       <c r="J223">
-        <v>37861.658750917297</v>
+        <v>39606.035338573303</v>
       </c>
       <c r="K223">
         <v>0</v>
       </c>
       <c r="L223">
-        <v>0.16551220472410599</v>
+        <v>0.16985726916958199</v>
       </c>
       <c r="M223">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -20233,19 +20233,19 @@
         <v>6.5334444444444397</v>
       </c>
       <c r="C224">
-        <v>0.17636350735176701</v>
+        <v>0.17477555558285901</v>
       </c>
       <c r="D224">
-        <v>207199.70706796</v>
+        <v>218110.20981459299</v>
       </c>
       <c r="E224">
-        <v>166335.32890185999</v>
+        <v>175352.990007268</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224">
-        <v>2399.3558686984702</v>
+        <v>2520.0225299346498</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20254,16 +20254,16 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <v>38465.022297401498</v>
+        <v>40237.197277390398</v>
       </c>
       <c r="K224">
         <v>0</v>
       </c>
       <c r="L224">
-        <v>0.16547715551357001</v>
+        <v>0.169823402415263</v>
       </c>
       <c r="M224">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -20274,19 +20274,19 @@
         <v>6.5848888888888801</v>
       </c>
       <c r="C225">
-        <v>0.17775219638603301</v>
+        <v>0.17615174105988901</v>
       </c>
       <c r="D225">
-        <v>210499.390605558</v>
+        <v>221585.15123073099</v>
       </c>
       <c r="E225">
-        <v>168798.00435537699</v>
+        <v>177949.376971936</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225">
-        <v>2628.2307339908598</v>
+        <v>2762.4256201460898</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20295,16 +20295,16 @@
         <v>0</v>
       </c>
       <c r="J225">
-        <v>39073.1555161898</v>
+        <v>40873.348638648597</v>
       </c>
       <c r="K225">
         <v>0</v>
       </c>
       <c r="L225">
-        <v>0.16544243741954801</v>
+        <v>0.16978985613709899</v>
       </c>
       <c r="M225">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -20315,19 +20315,19 @@
         <v>6.6363333333333303</v>
       </c>
       <c r="C226">
-        <v>0.17914088542029899</v>
+        <v>0.17752792653692001</v>
       </c>
       <c r="D226">
-        <v>213838.77019732801</v>
+        <v>225102.18886352499</v>
       </c>
       <c r="E226">
-        <v>171277.63285400401</v>
+        <v>180563.640181845</v>
       </c>
       <c r="F226">
         <v>0</v>
       </c>
       <c r="G226">
-        <v>2875.0789360417498</v>
+        <v>3024.05925933257</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20336,16 +20336,16 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <v>39686.058407282399</v>
+        <v>41514.489422348102</v>
       </c>
       <c r="K226">
         <v>0</v>
       </c>
       <c r="L226">
-        <v>0.16540804473241599</v>
+        <v>0.16975662480339601</v>
       </c>
       <c r="M226">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -20356,19 +20356,19 @@
         <v>6.6877777777777698</v>
       </c>
       <c r="C227">
-        <v>0.18052957445456499</v>
+        <v>0.17890411201395001</v>
       </c>
       <c r="D227">
-        <v>217218.913082663</v>
+        <v>228662.48481757101</v>
       </c>
       <c r="E227">
-        <v>173774.19944032401</v>
+        <v>183195.76388089301</v>
       </c>
       <c r="F227">
         <v>0</v>
       </c>
       <c r="G227">
-        <v>3140.9826716596399</v>
+        <v>3306.1013081883402</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -20377,16 +20377,16 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <v>40303.7309706792</v>
+        <v>42160.619628488901</v>
       </c>
       <c r="K227">
         <v>0</v>
       </c>
       <c r="L227">
-        <v>0.165373971884614</v>
+        <v>0.16972370302019901</v>
       </c>
       <c r="M227">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -20397,19 +20397,19 @@
         <v>6.73922222222222</v>
       </c>
       <c r="C228">
-        <v>0.181918263488831</v>
+        <v>0.18028029749098001</v>
       </c>
       <c r="D228">
-        <v>220640.92562518301</v>
+        <v>232267.245861553</v>
       </c>
       <c r="E228">
-        <v>176287.689291855</v>
+        <v>185845.732455102</v>
       </c>
       <c r="F228">
         <v>0</v>
       </c>
       <c r="G228">
-        <v>3427.0631269481501</v>
+        <v>3609.77414938009</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20418,16 +20418,16 @@
         <v>0</v>
       </c>
       <c r="J228">
-        <v>40926.173206380197</v>
+        <v>42811.739257070898</v>
       </c>
       <c r="K228">
         <v>0</v>
       </c>
       <c r="L228">
-        <v>0.16534021344604999</v>
+        <v>0.16969108552682799</v>
       </c>
       <c r="M228">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -20438,19 +20438,19 @@
         <v>6.7906666666666604</v>
       </c>
       <c r="C229">
-        <v>0.18330695252309701</v>
+        <v>0.18165648296801101</v>
       </c>
       <c r="D229">
-        <v>224105.95337216699</v>
+        <v>235917.722767667</v>
       </c>
       <c r="E229">
-        <v>178818.087718803</v>
+        <v>188513.53043024201</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
       <c r="G229">
-        <v>3734.4805389784301</v>
+        <v>3936.3440293307299</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20459,16 +20459,16 @@
         <v>0</v>
       </c>
       <c r="J229">
-        <v>41553.385114385499</v>
+        <v>43467.848308094101</v>
       </c>
       <c r="K229">
         <v>0</v>
       </c>
       <c r="L229">
-        <v>0.16530676411967499</v>
+        <v>0.169658767191596</v>
       </c>
       <c r="M229">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -20479,19 +20479,19 @@
         <v>6.8421111111111097</v>
       </c>
       <c r="C230">
-        <v>0.18469564155736301</v>
+        <v>0.18303266844504101</v>
       </c>
       <c r="D230">
-        <v>227615.181976725</v>
+        <v>239615.21008729099</v>
       </c>
       <c r="E230">
-        <v>181365.380161865</v>
+        <v>191199.14246952799</v>
       </c>
       <c r="F230">
         <v>0</v>
       </c>
       <c r="G230">
-        <v>4064.4351201652698</v>
+        <v>4287.1208362050302</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -20500,16 +20500,16 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <v>42185.366694694902</v>
+        <v>44128.946781558603</v>
       </c>
       <c r="K230">
         <v>0</v>
       </c>
       <c r="L230">
-        <v>0.165273618737247</v>
+        <v>0.16962674300768699</v>
       </c>
       <c r="M230">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -20520,19 +20520,19 @@
         <v>6.8935555555555501</v>
       </c>
       <c r="C231">
-        <v>0.18608433059162899</v>
+        <v>0.18440885392207201</v>
       </c>
       <c r="D231">
-        <v>231169.83931443701</v>
+        <v>243361.046776017</v>
       </c>
       <c r="E231">
-        <v>183929.55219008701</v>
+        <v>193902.55337135401</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231">
-        <v>4418.1691770406997</v>
+        <v>4663.4587271985001</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -20541,16 +20541,16 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <v>42822.117947308601</v>
+        <v>44795.034677464297</v>
       </c>
       <c r="K231">
         <v>0</v>
       </c>
       <c r="L231">
-        <v>0.165240772255248</v>
+        <v>0.169595008089206</v>
       </c>
       <c r="M231">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -20561,19 +20561,19 @@
         <v>6.9450000000000003</v>
       </c>
       <c r="C232">
-        <v>0.18747301962589499</v>
+        <v>0.18578503939910199</v>
       </c>
       <c r="D232">
-        <v>234771.199021593</v>
+        <v>247156.61806807699</v>
       </c>
       <c r="E232">
-        <v>186510.589498774</v>
+        <v>196623.74806710001</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
       <c r="G232">
-        <v>4796.9706505914901</v>
+        <v>5066.7580051653804</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -20582,16 +20582,16 @@
         <v>0</v>
       </c>
       <c r="J232">
-        <v>43463.638872226496</v>
+        <v>45466.111995811203</v>
       </c>
       <c r="K232">
         <v>0</v>
       </c>
       <c r="L232">
-        <v>0.165208219750966</v>
+        <v>0.169563557667371</v>
       </c>
       <c r="M232">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -20602,19 +20602,19 @@
         <v>6.9964444444444398</v>
       </c>
       <c r="C233">
-        <v>0.18886170866016</v>
+        <v>0.18716122487613199</v>
       </c>
       <c r="D233">
-        <v>238420.585508794</v>
+        <v>251003.35891055499</v>
       </c>
       <c r="E233">
-        <v>189108.477907447</v>
+        <v>199362.71161897501</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233">
-        <v>5202.1781318982603</v>
+        <v>5498.4685549798096</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -20623,16 +20623,16 @@
         <v>0</v>
       </c>
       <c r="J233">
-        <v>44109.929469448703</v>
+        <v>46142.178736599497</v>
       </c>
       <c r="K233">
         <v>0</v>
       </c>
       <c r="L233">
-        <v>0.16517595641872901</v>
+        <v>0.169532387086863</v>
       </c>
       <c r="M233">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -20643,19 +20643,19 @@
         <v>7.0478888888888802</v>
       </c>
       <c r="C234">
-        <v>0.190250397694426</v>
+        <v>0.18853741035316299</v>
       </c>
       <c r="D234">
-        <v>242119.38027527501</v>
+        <v>254902.75909921899</v>
       </c>
       <c r="E234">
-        <v>191723.203357847</v>
+        <v>202119.42921792</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234">
-        <v>5635.1871784528003</v>
+        <v>5960.0949814703499</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -20664,16 +20664,16 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <v>44760.989738974997</v>
+        <v>46823.234899828902</v>
       </c>
       <c r="K234">
         <v>0</v>
       </c>
       <c r="L234">
-        <v>0.16514397756627699</v>
+        <v>0.169501491802311</v>
       </c>
       <c r="M234">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -20684,19 +20684,19 @@
         <v>7.0993333333333304</v>
       </c>
       <c r="C235">
-        <v>0.19163908672869201</v>
+        <v>0.18991359583019299</v>
       </c>
       <c r="D235">
-        <v>245869.02909118301</v>
+        <v>258856.37002111701</v>
       </c>
       <c r="E235">
-        <v>194354.751911992</v>
+        <v>204893.886181554</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
       <c r="G235">
-        <v>6097.45749838544</v>
+        <v>6453.20335406288</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -20705,16 +20705,16 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <v>45416.819680805602</v>
+        <v>47509.280485499599</v>
       </c>
       <c r="K235">
         <v>0</v>
       </c>
       <c r="L235">
-        <v>0.165112278611284</v>
+        <v>0.16947086737490799</v>
       </c>
       <c r="M235">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -20725,19 +20725,19 @@
         <v>7.1507777777777699</v>
       </c>
       <c r="C236">
-        <v>0.19302777576295799</v>
+        <v>0.19128978130722399</v>
       </c>
       <c r="D236">
-        <v>249671.04936037899</v>
+        <v>262865.81262780202</v>
       </c>
       <c r="E236">
-        <v>197003.10975027</v>
+        <v>207686.06795217501</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
       <c r="G236">
-        <v>6590.5203151690703</v>
+        <v>6979.4291820155104</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -20746,16 +20746,16 @@
         <v>0</v>
       </c>
       <c r="J236">
-        <v>46077.419294940402</v>
+        <v>48200.315493611502</v>
       </c>
       <c r="K236">
         <v>0</v>
       </c>
       <c r="L236">
-        <v>0.165080855077996</v>
+        <v>0.16944050946916001</v>
       </c>
       <c r="M236">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -20766,19 +20766,19 @@
         <v>7.2022222222222201</v>
       </c>
       <c r="C237">
-        <v>0.19441646479722399</v>
+        <v>0.19266596678425399</v>
       </c>
       <c r="D237">
-        <v>253527.036761884</v>
+        <v>266932.78597117303</v>
       </c>
       <c r="E237">
-        <v>199668.26316958299</v>
+        <v>210495.96009479801</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237">
-        <v>7115.9850109222798</v>
+        <v>7540.4859522104198</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -20787,16 +20787,16 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <v>46742.788581379398</v>
+        <v>48896.339924164597</v>
       </c>
       <c r="K237">
         <v>0</v>
       </c>
       <c r="L237">
-        <v>0.165049702594007</v>
+        <v>0.169410413849754</v>
       </c>
       <c r="M237">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -20807,19 +20807,19 @@
         <v>7.2536666666666596</v>
       </c>
       <c r="C238">
-        <v>0.19580515383149</v>
+        <v>0.19404215226128399</v>
       </c>
       <c r="D238">
-        <v>257438.67012866499</v>
+        <v>271059.07537093299</v>
       </c>
       <c r="E238">
-        <v>202350.198581529</v>
+        <v>213323.548295243</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>7675.5440070130599</v>
+        <v>8138.17329853111</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -20828,16 +20828,16 @@
         <v>0</v>
       </c>
       <c r="J238">
-        <v>47412.927540122699</v>
+        <v>49597.353777158998</v>
       </c>
       <c r="K238">
         <v>0</v>
       </c>
       <c r="L238">
-        <v>0.165018816887151</v>
+        <v>0.16938057637854301</v>
       </c>
       <c r="M238">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -20848,19 +20848,19 @@
         <v>7.3051111111111098</v>
       </c>
       <c r="C239">
-        <v>0.197193842865756</v>
+        <v>0.19541833773831499</v>
       </c>
       <c r="D239">
-        <v>261407.71348582199</v>
+        <v>275246.55908851698</v>
       </c>
       <c r="E239">
-        <v>205048.90251062799</v>
+        <v>216168.81835826699</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239">
-        <v>8270.97480402361</v>
+        <v>8774.3836776553107</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -20869,16 +20869,16 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <v>48087.836171170202</v>
+        <v>50303.3570525947</v>
       </c>
       <c r="K239">
         <v>0</v>
       </c>
       <c r="L239">
-        <v>0.16498819378250601</v>
+        <v>0.169350993011645</v>
       </c>
       <c r="M239">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -20889,19 +20889,19 @@
         <v>7.3565555555555502</v>
       </c>
       <c r="C240">
-        <v>0.19858253190002201</v>
+        <v>0.19679452321534499</v>
       </c>
       <c r="D240">
-        <v>265436.01425311202</v>
+        <v>279497.21229092398</v>
       </c>
       <c r="E240">
-        <v>207764.36159258499</v>
+        <v>219031.75620573299</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>8904.1381860055208</v>
+        <v>9451.1063347192503</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -20910,16 +20910,16 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <v>48767.5144745219</v>
+        <v>51014.3497504716</v>
       </c>
       <c r="K240">
         <v>0</v>
       </c>
       <c r="L240">
-        <v>0.16495782919951399</v>
+        <v>0.16932165979664399</v>
       </c>
       <c r="M240">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -20930,19 +20930,19 @@
         <v>7.4080000000000004</v>
       </c>
       <c r="C241">
-        <v>0.19997122093428801</v>
+        <v>0.19817070869237499</v>
       </c>
       <c r="D241">
-        <v>269525.49682268797</v>
+        <v>283813.10712292901</v>
       </c>
       <c r="E241">
-        <v>210496.56257259299</v>
+        <v>221912.34787482701</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241">
-        <v>9576.97179991761</v>
+        <v>10170.4273773118</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -20951,16 +20951,16 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <v>49451.962450177802</v>
+        <v>51730.331870789698</v>
       </c>
       <c r="K241">
         <v>0</v>
       </c>
       <c r="L241">
-        <v>0.16492771914919899</v>
+        <v>0.16929257286989299</v>
       </c>
       <c r="M241">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -20971,19 +20971,19 @@
         <v>7.4594444444444399</v>
       </c>
       <c r="C242">
-        <v>0.20135990996855299</v>
+        <v>0.19954689416940599</v>
       </c>
       <c r="D242">
-        <v>273678.15104223503</v>
+        <v>288196.40787739097</v>
       </c>
       <c r="E242">
-        <v>213245.492303676</v>
+        <v>224810.579516306</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>10291.478640421399</v>
+        <v>10934.5249475357</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -20992,16 +20992,16 @@
         <v>0</v>
       </c>
       <c r="J242">
-        <v>50141.180098137898</v>
+        <v>52451.303413549103</v>
       </c>
       <c r="K242">
         <v>0</v>
       </c>
       <c r="L242">
-        <v>0.16489785973149099</v>
+        <v>0.16926372845392301</v>
       </c>
       <c r="M242">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -21012,19 +21012,19 @@
         <v>7.5108888888888803</v>
       </c>
       <c r="C243">
-        <v>0.202748599002819</v>
+        <v>0.20092307964643599</v>
       </c>
       <c r="D243">
-        <v>277896.01554470701</v>
+        <v>292649.36055621598</v>
       </c>
       <c r="E243">
-        <v>216011.137745063</v>
+        <v>227726.43739279301</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243">
-        <v>11049.710381241101</v>
+        <v>11745.6587846727</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -21033,16 +21033,16 @@
         <v>0</v>
       </c>
       <c r="J243">
-        <v>50835.1674184023</v>
+        <v>53177.2643787497</v>
       </c>
       <c r="K243">
         <v>0</v>
       </c>
       <c r="L243">
-        <v>0.164868247132646</v>
+        <v>0.169235122854934</v>
       </c>
       <c r="M243">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -21053,19 +21053,19 @@
         <v>7.5623333333333296</v>
       </c>
       <c r="C244">
-        <v>0.204137288037085</v>
+        <v>0.20229926512346699</v>
       </c>
       <c r="D244">
-        <v>282181.156337886</v>
+        <v>297174.27653035999</v>
       </c>
       <c r="E244">
-        <v>218793.485960605</v>
+        <v>230659.907877102</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
       <c r="G244">
-        <v>11853.74596631</v>
+        <v>12606.153886865801</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -21074,16 +21074,16 @@
         <v>0</v>
       </c>
       <c r="J244">
-        <v>51533.924410970802</v>
+        <v>53908.214766391502</v>
       </c>
       <c r="K244">
         <v>0</v>
       </c>
       <c r="L244">
-        <v>0.16483887762275201</v>
+        <v>0.169206752460385</v>
       </c>
       <c r="M244">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -21094,19 +21094,19 @@
         <v>7.61377777777777</v>
       </c>
       <c r="C245">
-        <v>0.20552597707135101</v>
+        <v>0.20367545060049699</v>
       </c>
       <c r="D245">
-        <v>286535.64156316099</v>
+        <v>301773.510506619</v>
       </c>
       <c r="E245">
-        <v>221592.52411721699</v>
+        <v>233610.97745060601</v>
       </c>
       <c r="F245">
         <v>0</v>
       </c>
       <c r="G245">
-        <v>12705.6663701004</v>
+        <v>13518.3784795383</v>
       </c>
       <c r="H245">
         <v>0</v>
@@ -21115,16 +21115,16 @@
         <v>0</v>
       </c>
       <c r="J245">
-        <v>52237.451075843703</v>
+        <v>54644.154576474597</v>
       </c>
       <c r="K245">
         <v>0</v>
       </c>
       <c r="L245">
-        <v>0.164809747553332</v>
+        <v>0.16917861373665899</v>
       </c>
       <c r="M245">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -21135,19 +21135,19 @@
         <v>7.6652222222222202</v>
       </c>
       <c r="C246">
-        <v>0.20691466610561701</v>
+        <v>0.20505163607752699</v>
       </c>
       <c r="D246">
-        <v>290961.51381335797</v>
+        <v>306449.43355400098</v>
       </c>
       <c r="E246">
-        <v>224408.23948336201</v>
+        <v>236579.63270163201</v>
       </c>
       <c r="F246">
         <v>0</v>
       </c>
       <c r="G246">
-        <v>13607.526916975101</v>
+        <v>14484.717043369599</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -21156,16 +21156,16 @@
         <v>0</v>
       </c>
       <c r="J246">
-        <v>52945.747413020697</v>
+        <v>55385.083808998897</v>
       </c>
       <c r="K246">
         <v>0</v>
       </c>
       <c r="L246">
-        <v>0.16478085335502601</v>
+        <v>0.16915070322682299</v>
       </c>
       <c r="M246">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -21176,19 +21176,19 @@
         <v>7.7166666666666597</v>
       </c>
       <c r="C247">
-        <v>0.20830335513988299</v>
+        <v>0.20642782155455799</v>
       </c>
       <c r="D247">
-        <v>295460.76182388101</v>
+        <v>311204.40249113401</v>
       </c>
       <c r="E247">
-        <v>227240.61942756499</v>
+        <v>239565.86032390199</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247">
-        <v>14561.328973813899</v>
+        <v>15507.539703267301</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -21197,16 +21197,16 @@
         <v>0</v>
       </c>
       <c r="J247">
-        <v>53658.813422501902</v>
+        <v>56131.002463964498</v>
       </c>
       <c r="K247">
         <v>0</v>
       </c>
       <c r="L247">
-        <v>0.164752191535354</v>
+        <v>0.16912301754845599</v>
       </c>
       <c r="M247">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -21217,19 +21217,19 @@
         <v>7.7681111111111099</v>
       </c>
       <c r="C248">
-        <v>0.20969204417414899</v>
+        <v>0.207804007031588</v>
       </c>
       <c r="D248">
-        <v>300035.29368143302</v>
+        <v>316040.72744436999</v>
       </c>
       <c r="E248">
-        <v>230089.65141695499</v>
+        <v>242569.647114992</v>
       </c>
       <c r="F248">
         <v>0</v>
       </c>
       <c r="G248">
-        <v>15568.993160190301</v>
+        <v>16589.1697880065</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -21238,16 +21238,16 @@
         <v>0</v>
       </c>
       <c r="J248">
-        <v>54376.649104287397</v>
+        <v>56881.910541371297</v>
       </c>
       <c r="K248">
         <v>0</v>
       </c>
       <c r="L248">
-        <v>0.164723758676559</v>
+        <v>0.16909555339155599</v>
       </c>
       <c r="M248">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -21258,19 +21258,19 @@
         <v>7.8195555555555503</v>
       </c>
       <c r="C249">
-        <v>0.211080733208415</v>
+        <v>0.209180192508619</v>
       </c>
       <c r="D249">
-        <v>304686.91389601002</v>
+        <v>320960.63981114997</v>
       </c>
       <c r="E249">
-        <v>232955.32301584099</v>
+        <v>245590.97997483899</v>
       </c>
       <c r="F249">
         <v>0</v>
       </c>
       <c r="G249">
-        <v>16632.336421791701</v>
+        <v>17731.851795091501</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -21279,16 +21279,16 @@
         <v>0</v>
       </c>
       <c r="J249">
-        <v>55099.254458377101</v>
+        <v>57637.808041219403</v>
       </c>
       <c r="K249">
         <v>0</v>
       </c>
       <c r="L249">
-        <v>0.16469555143352299</v>
+        <v>0.16906830751652199</v>
       </c>
       <c r="M249">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -21299,19 +21299,19 @@
         <v>7.8710000000000004</v>
       </c>
       <c r="C250">
-        <v>0.21246942224268101</v>
+        <v>0.210556377985649</v>
       </c>
       <c r="D250">
-        <v>309417.30672695203</v>
+        <v>325966.26316501998</v>
       </c>
       <c r="E250">
-        <v>235837.62188431801</v>
+        <v>248629.845904268</v>
       </c>
       <c r="F250">
         <v>0</v>
       </c>
       <c r="G250">
-        <v>17753.055357862901</v>
+        <v>18937.722297242399</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -21320,16 +21320,16 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <v>55826.629484771001</v>
+        <v>58398.6949635087</v>
       </c>
       <c r="K250">
         <v>0</v>
       </c>
       <c r="L250">
-        <v>0.16466756653175599</v>
+        <v>0.16904127675220099</v>
       </c>
       <c r="M250">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -21340,19 +21340,19 @@
         <v>7.92244444444444</v>
       </c>
       <c r="C251">
-        <v>0.21385811127694601</v>
+        <v>0.211932563462679</v>
       </c>
       <c r="D251">
-        <v>314228.028024033</v>
+        <v>331059.58978344803</v>
       </c>
       <c r="E251">
-        <v>238736.53577690301</v>
+        <v>251686.23200355601</v>
       </c>
       <c r="F251">
         <v>0</v>
       </c>
       <c r="G251">
-        <v>18932.718063660501</v>
+        <v>20208.7864716529</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -21361,16 +21361,16 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <v>56558.774183469097</v>
+        <v>59164.571308239203</v>
       </c>
       <c r="K251">
         <v>0</v>
       </c>
       <c r="L251">
-        <v>0.16463980076545101</v>
+        <v>0.169014457994003</v>
       </c>
       <c r="M251">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -21381,19 +21381,19 @@
         <v>7.9738888888888804</v>
       </c>
       <c r="C252">
-        <v>0.21524680031121199</v>
+        <v>0.21330874893971</v>
       </c>
       <c r="D252">
-        <v>319120.50753321801</v>
+        <v>336242.465441434</v>
       </c>
       <c r="E252">
-        <v>241652.05254119501</v>
+        <v>254760.12547102099</v>
       </c>
       <c r="F252">
         <v>0</v>
       </c>
       <c r="G252">
-        <v>20172.7664375518</v>
+        <v>21546.902895002499</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -21402,16 +21402,16 @@
         <v>0</v>
       </c>
       <c r="J252">
-        <v>57295.688554471497</v>
+        <v>59935.437075410999</v>
       </c>
       <c r="K252">
         <v>0</v>
       </c>
       <c r="L252">
-        <v>0.164612250995606</v>
+        <v>0.16898784820208201</v>
       </c>
       <c r="M252">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -21422,19 +21422,19 @@
         <v>8.0253333333333305</v>
       </c>
       <c r="C253">
-        <v>0.21663548934547799</v>
+        <v>0.21468493441674</v>
       </c>
       <c r="D253">
-        <v>324096.063131481</v>
+        <v>341516.58487815101</v>
       </c>
       <c r="E253">
-        <v>244584.160116566</v>
+        <v>257851.51360164399</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
       <c r="G253">
-        <v>21474.530417137001</v>
+        <v>22953.7790114829</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -21443,16 +21443,16 @@
         <v>0</v>
       </c>
       <c r="J253">
-        <v>58037.3725977781</v>
+        <v>60711.292265024</v>
       </c>
       <c r="K253">
         <v>0</v>
       </c>
       <c r="L253">
-        <v>0.164584914148212</v>
+        <v>0.168961444399572</v>
       </c>
       <c r="M253">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -21463,19 +21463,19 @@
         <v>8.0767777777777692</v>
       </c>
       <c r="C254">
-        <v>0.218024178379744</v>
+        <v>0.216061119893771</v>
       </c>
       <c r="D254">
-        <v>329155.92781940702</v>
+        <v>346883.499910035</v>
       </c>
       <c r="E254">
-        <v>247532.84653287899</v>
+        <v>260960.38378572001</v>
       </c>
       <c r="F254">
         <v>0</v>
       </c>
       <c r="G254">
-        <v>22839.254973139399</v>
+        <v>24430.9792472357</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -21484,16 +21484,16 @@
         <v>0</v>
       </c>
       <c r="J254">
-        <v>58783.826313388898</v>
+        <v>61492.136877078301</v>
       </c>
       <c r="K254">
         <v>0</v>
       </c>
       <c r="L254">
-        <v>0.16455778721249401</v>
+        <v>0.16893524367089299</v>
       </c>
       <c r="M254">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -21504,19 +21504,19 @@
         <v>8.1282222222222202</v>
       </c>
       <c r="C255">
-        <v>0.21941286741401</v>
+        <v>0.217437305370801</v>
       </c>
       <c r="D255">
-        <v>334301.28955354402</v>
+        <v>352344.64154748101</v>
       </c>
       <c r="E255">
-        <v>250498.099909229</v>
+        <v>264086.72350753099</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
       <c r="G255">
-        <v>24268.139943010901</v>
+        <v>25979.947128375901</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -21525,16 +21525,16 @@
         <v>0</v>
       </c>
       <c r="J255">
-        <v>59535.049701303898</v>
+        <v>62277.970911573801</v>
       </c>
       <c r="K255">
         <v>0</v>
       </c>
       <c r="L255">
-        <v>0.16453086723922</v>
+        <v>0.1689092431601</v>
       </c>
       <c r="M255">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -21545,19 +21545,19 @@
         <v>8.1796666666666606</v>
       </c>
       <c r="C256">
-        <v>0.22080155644827601</v>
+        <v>0.218813490847831</v>
       </c>
       <c r="D256">
-        <v>339533.34319529199</v>
+        <v>357901.35670687997</v>
       </c>
       <c r="E256">
-        <v>253479.90845271599</v>
+        <v>267230.52034404798</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256">
-        <v>25762.391981052901</v>
+        <v>27602.041994322</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -21566,16 +21566,16 @@
         <v>0</v>
       </c>
       <c r="J256">
-        <v>60291.042761523197</v>
+        <v>63068.794368510498</v>
       </c>
       <c r="K256">
         <v>0</v>
       </c>
       <c r="L256">
-        <v>0.16450415133905699</v>
+        <v>0.16888344006929601</v>
       </c>
       <c r="M256">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -21586,19 +21586,19 @@
         <v>8.2311111111111099</v>
       </c>
       <c r="C257">
-        <v>0.22219024548254199</v>
+        <v>0.220189676324862</v>
       </c>
       <c r="D257">
-        <v>344853.35305152897</v>
+        <v>363554.95924453501</v>
       </c>
       <c r="E257">
-        <v>256478.26045723</v>
+        <v>270391.76196366298</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257">
-        <v>27323.287100252099</v>
+        <v>29298.5900329836</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -21607,16 +21607,16 @@
         <v>0</v>
       </c>
       <c r="J257">
-        <v>61051.805494046603</v>
+        <v>63864.607247888503</v>
       </c>
       <c r="K257">
         <v>0</v>
       </c>
       <c r="L257">
-        <v>0.164477636680989</v>
+        <v>0.168857831657094</v>
       </c>
       <c r="M257">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -21627,19 +21627,19 @@
         <v>8.2825555555555503</v>
       </c>
       <c r="C258">
-        <v>0.22357893451680799</v>
+        <v>0.221565861801892</v>
       </c>
       <c r="D258">
-        <v>350262.72374893998</v>
+        <v>369306.79413663701</v>
       </c>
       <c r="E258">
-        <v>259493.14430227701</v>
+        <v>273570.43612494302</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258">
-        <v>28952.241547788599</v>
+        <v>31070.948461985601</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -21648,16 +21648,16 @@
         <v>0</v>
       </c>
       <c r="J258">
-        <v>61817.337898874299</v>
+        <v>64665.409549707801</v>
       </c>
       <c r="K258">
         <v>0</v>
       </c>
       <c r="L258">
-        <v>0.16445132049077901</v>
+        <v>0.168832415237129</v>
       </c>
       <c r="M258">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -21668,19 +21668,19 @@
         <v>8.3339999999999996</v>
       </c>
       <c r="C259">
-        <v>0.224967623551074</v>
+        <v>0.222942047278923</v>
       </c>
       <c r="D259">
-        <v>355763.076579455</v>
+        <v>375158.31275986601</v>
       </c>
       <c r="E259">
-        <v>262524.54845181399</v>
+        <v>276766.53067540599</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
       <c r="G259">
-        <v>30650.888151635299</v>
+        <v>32920.5808104916</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -21689,16 +21689,16 @@
         <v>0</v>
       </c>
       <c r="J259">
-        <v>62587.6399760063</v>
+        <v>65471.201273968203</v>
       </c>
       <c r="K259">
         <v>0</v>
       </c>
       <c r="L259">
-        <v>0.16442520004948399</v>
+        <v>0.168807188176615</v>
       </c>
       <c r="M259">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -21709,19 +21709,19 @@
         <v>8.38544444444444</v>
       </c>
       <c r="C260">
-        <v>0.226356312585339</v>
+        <v>0.224318232755953</v>
       </c>
       <c r="D260">
-        <v>361356.32802705298</v>
+        <v>381111.15646030998</v>
       </c>
       <c r="E260">
-        <v>265572.46145311202</v>
+        <v>279980.03355032799</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260">
-        <v>32421.154848498201</v>
+        <v>34849.140489311903</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -21730,16 +21730,16 @@
         <v>0</v>
       </c>
       <c r="J260">
-        <v>63362.711725442401</v>
+        <v>66281.98242067</v>
       </c>
       <c r="K260">
         <v>0</v>
       </c>
       <c r="L260">
-        <v>0.16439927269202101</v>
+        <v>0.16878214789495899</v>
       </c>
       <c r="M260">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -21750,19 +21750,19 @@
         <v>8.4368888888888804</v>
       </c>
       <c r="C261">
-        <v>0.22774500161960501</v>
+        <v>0.225694418232983</v>
       </c>
       <c r="D261">
-        <v>367044.76696744002</v>
+        <v>387167.24499628402</v>
       </c>
       <c r="E261">
-        <v>268636.87193564698</v>
+        <v>283210.93277156301</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261">
-        <v>34265.341884610301</v>
+        <v>36858.559234908498</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -21771,16 +21771,16 @@
         <v>0</v>
       </c>
       <c r="J261">
-        <v>64142.5531471828</v>
+        <v>67097.7529898129</v>
       </c>
       <c r="K261">
         <v>0</v>
       </c>
       <c r="L261">
-        <v>0.16437353580577299</v>
+        <v>0.16875729186240401</v>
       </c>
       <c r="M261">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -21791,19 +21791,19 @@
         <v>8.4883333333333297</v>
       </c>
       <c r="C262">
-        <v>0.22913369065387101</v>
+        <v>0.227070603710014</v>
       </c>
       <c r="D262">
-        <v>372831.12703167199</v>
+        <v>393328.866050112</v>
       </c>
       <c r="E262">
-        <v>271717.76861000003</v>
+        <v>286459.21644639899</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
       <c r="G262">
-        <v>36186.194180444101</v>
+        <v>38951.136622316197</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -21812,16 +21812,16 @@
         <v>0</v>
       </c>
       <c r="J262">
-        <v>64927.164241227299</v>
+        <v>67918.5129813971</v>
       </c>
       <c r="K262">
         <v>0</v>
       </c>
       <c r="L262">
-        <v>0.16434798682924201</v>
+        <v>0.16873261759872701</v>
       </c>
       <c r="M262">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -21832,19 +21832,19 @@
         <v>8.5397777777777701</v>
       </c>
       <c r="C263">
-        <v>0.23052237968813699</v>
+        <v>0.228446789187044</v>
       </c>
       <c r="D263">
-        <v>378718.650830645</v>
+        <v>399598.76185043401</v>
       </c>
       <c r="E263">
-        <v>274815.14026679198</v>
+        <v>289724.872766427</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
       <c r="G263">
-        <v>38186.965556276802</v>
+        <v>41129.6266885851</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -21853,16 +21853,16 @@
         <v>0</v>
       </c>
       <c r="J263">
-        <v>65716.545007576104</v>
+        <v>68744.262395422498</v>
       </c>
       <c r="K263">
         <v>0</v>
       </c>
       <c r="L263">
-        <v>0.16432262325074801</v>
+        <v>0.16870812267197699</v>
       </c>
       <c r="M263">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -21873,19 +21873,19 @@
         <v>8.5912222222222194</v>
       </c>
       <c r="C264">
-        <v>0.231911068722403</v>
+        <v>0.229822974664074</v>
       </c>
       <c r="D264">
-        <v>384711.14311822201</v>
+        <v>405980.20903244201</v>
       </c>
       <c r="E264">
-        <v>277928.975775628</v>
+        <v>293007.89000643097</v>
       </c>
       <c r="F264">
         <v>0</v>
       </c>
       <c r="G264">
-        <v>40271.471896364499</v>
+        <v>43397.3177941221</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -21894,16 +21894,16 @@
         <v>0</v>
       </c>
       <c r="J264">
-        <v>66510.695446229205</v>
+        <v>69575.001231889197</v>
       </c>
       <c r="K264">
         <v>0</v>
       </c>
       <c r="L264">
-        <v>0.164297442607161</v>
+        <v>0.16868380469724301</v>
       </c>
       <c r="M264">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -21914,19 +21914,19 @@
         <v>8.6426666666666598</v>
       </c>
       <c r="C265">
-        <v>0.233299757756669</v>
+        <v>0.231199160141105</v>
       </c>
       <c r="D265">
-        <v>390813.010480739</v>
+        <v>412477.088167165</v>
       </c>
       <c r="E265">
-        <v>281059.264084069</v>
+        <v>296308.25652330503</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
       <c r="G265">
-        <v>42444.130839483201</v>
+        <v>45758.102153062602</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -21935,16 +21935,16 @@
         <v>0</v>
       </c>
       <c r="J265">
-        <v>67309.615557186393</v>
+        <v>70410.729490797094</v>
       </c>
       <c r="K265">
         <v>0</v>
       </c>
       <c r="L265">
-        <v>0.164272442482678</v>
+        <v>0.168659661335474</v>
       </c>
       <c r="M265">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -21955,19 +21955,19 @@
         <v>8.6941111111111091</v>
       </c>
       <c r="C266">
-        <v>0.23468844679093501</v>
+        <v>0.232575345618135</v>
       </c>
       <c r="D266">
-        <v>397029.28572630702</v>
+        <v>419093.93987195002</v>
       </c>
       <c r="E266">
-        <v>284205.99421661801</v>
+        <v>299625.96075498901</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266">
-        <v>44709.986169240903</v>
+        <v>48216.531944815302</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -21976,16 +21976,16 @@
         <v>0</v>
       </c>
       <c r="J266">
-        <v>68113.3053404479</v>
+        <v>71251.447172146203</v>
       </c>
       <c r="K266">
         <v>0</v>
       </c>
       <c r="L266">
-        <v>0.16424762050764</v>
+        <v>0.168635690292325</v>
       </c>
       <c r="M266">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -21996,19 +21996,19 @@
         <v>8.7455555555555495</v>
       </c>
       <c r="C267">
-        <v>0.23607713582520101</v>
+        <v>0.233951531095166</v>
       </c>
       <c r="D267">
-        <v>403365.63575446198</v>
+        <v>425836.00501846097</v>
       </c>
       <c r="E267">
-        <v>287369.15527373197</v>
+        <v>302960.99121941999</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267">
-        <v>47074.715684716299</v>
+        <v>50777.859523103703</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -22017,16 +22017,16 @@
         <v>0</v>
       </c>
       <c r="J267">
-        <v>68921.764796013595</v>
+        <v>72097.1542759367</v>
       </c>
       <c r="K267">
         <v>0</v>
       </c>
       <c r="L267">
-        <v>0.16422297435737901</v>
+        <v>0.16861188931704599</v>
       </c>
       <c r="M267">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -22037,19 +22037,19 @@
         <v>8.7970000000000006</v>
       </c>
       <c r="C268">
-        <v>0.23746582485946699</v>
+        <v>0.23532771657219601</v>
       </c>
       <c r="D268">
-        <v>409828.35226719402</v>
+        <v>432709.24722187099</v>
       </c>
       <c r="E268">
-        <v>290548.73643084097</v>
+        <v>306313.33651350997</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268">
-        <v>49544.621912469302</v>
+        <v>53448.059906192699</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -22058,16 +22058,16 @@
         <v>0</v>
       </c>
       <c r="J268">
-        <v>69734.993923883507</v>
+        <v>72947.850802168294</v>
       </c>
       <c r="K268">
         <v>0</v>
       </c>
       <c r="L268">
-        <v>0.16419850175110401</v>
+        <v>0.168588256201396</v>
       </c>
       <c r="M268">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -22078,19 +22078,19 @@
         <v>8.8484444444444392</v>
       </c>
       <c r="C269">
-        <v>0.238854513893732</v>
+        <v>0.23670390204922601</v>
       </c>
       <c r="D269">
-        <v>416424.32519905001</v>
+        <v>439720.356467337</v>
       </c>
       <c r="E269">
-        <v>293744.72693739901</v>
+        <v>309682.98531213601</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269">
-        <v>52126.605537593001</v>
+        <v>56233.834404360001</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -22099,16 +22099,16 @@
         <v>0</v>
       </c>
       <c r="J269">
-        <v>70552.992724057694</v>
+        <v>73803.536750841202</v>
       </c>
       <c r="K269">
         <v>0</v>
       </c>
       <c r="L269">
-        <v>0.16417420045082401</v>
+        <v>0.16856478877860301</v>
       </c>
       <c r="M269">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -22119,19 +22119,19 @@
         <v>8.8998888888888903</v>
       </c>
       <c r="C270">
-        <v>0.240243202927998</v>
+        <v>0.23808008752625701</v>
       </c>
       <c r="D270">
-        <v>423160.99917352299</v>
+        <v>446876.73335741</v>
       </c>
       <c r="E270">
-        <v>296957.11611594498</v>
+        <v>313069.92636715597</v>
       </c>
       <c r="F270">
         <v>0</v>
       </c>
       <c r="G270">
-        <v>54828.121861041902</v>
+        <v>59142.594868298802</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -22140,16 +22140,16 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <v>71375.761196535997</v>
+        <v>74664.212121955294</v>
       </c>
       <c r="K270">
         <v>0</v>
       </c>
       <c r="L270">
-        <v>0.16415006826029499</v>
+        <v>0.168541484922343</v>
       </c>
       <c r="M270">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
@@ -22160,19 +22160,19 @@
         <v>8.9513333333333307</v>
       </c>
       <c r="C271">
-        <v>0.24163189196226401</v>
+        <v>0.23945627300328701</v>
       </c>
       <c r="D271">
-        <v>430046.31362707203</v>
+        <v>454186.45401048299</v>
       </c>
       <c r="E271">
-        <v>300185.89336117997</v>
+        <v>316474.14850643702</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271">
-        <v>57657.120924574003</v>
+        <v>62182.4285885356</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -22181,16 +22181,16 @@
         <v>0</v>
       </c>
       <c r="J271">
-        <v>72203.299341318605</v>
+        <v>75529.876915510598</v>
       </c>
       <c r="K271">
         <v>0</v>
       </c>
       <c r="L271">
-        <v>0.16412610302401001</v>
+        <v>0.16851834254575701</v>
       </c>
       <c r="M271">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
@@ -22201,19 +22201,19 @@
         <v>9.0027777777777693</v>
       </c>
       <c r="C272">
-        <v>0.24302058099653001</v>
+        <v>0.24083245848031801</v>
       </c>
       <c r="D272">
-        <v>437088.62748589797</v>
+        <v>461658.21608478302</v>
       </c>
       <c r="E272">
-        <v>303431.04813906201</v>
+        <v>319895.64063290198</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
       <c r="G272">
-        <v>60621.972188430198</v>
+        <v>65362.044320374298</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -22222,16 +22222,16 @@
         <v>0</v>
       </c>
       <c r="J272">
-        <v>73035.607158405401</v>
+        <v>76400.531131507305</v>
       </c>
       <c r="K272">
         <v>0</v>
       </c>
       <c r="L272">
-        <v>0.16410230262620701</v>
+        <v>0.168495359600496</v>
       </c>
       <c r="M272">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -22242,19 +22242,19 @@
         <v>9.0542222222222204</v>
       </c>
       <c r="C273">
-        <v>0.24440927003079599</v>
+        <v>0.24220864395734801</v>
       </c>
       <c r="D273">
-        <v>444296.62945017201</v>
+        <v>469301.26674013701</v>
       </c>
       <c r="E273">
-        <v>306692.56998592301</v>
+        <v>323334.391723598</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
       <c r="G273">
-        <v>63731.374816452597</v>
+        <v>68690.700246594002</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -22263,16 +22263,16 @@
         <v>0</v>
       </c>
       <c r="J273">
-        <v>73872.684647796501</v>
+        <v>77276.174769945093</v>
       </c>
       <c r="K273">
         <v>0</v>
       </c>
       <c r="L273">
-        <v>0.16407866498991899</v>
+        <v>0.16847253407579199</v>
       </c>
       <c r="M273">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -22283,19 +22283,19 @@
         <v>9.1056666666666608</v>
       </c>
       <c r="C274">
-        <v>0.24579795906506199</v>
+        <v>0.24358482943437801</v>
       </c>
       <c r="D274">
-        <v>451679.23505912803</v>
+        <v>477125.31359013403</v>
       </c>
       <c r="E274">
-        <v>309970.44850759697</v>
+        <v>326790.39082877798</v>
       </c>
       <c r="F274">
         <v>0</v>
       </c>
       <c r="G274">
-        <v>66994.254742039295</v>
+        <v>72178.114930531199</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -22304,16 +22304,16 @@
         <v>0</v>
       </c>
       <c r="J274">
-        <v>74714.531809491702</v>
+        <v>78156.807830824197</v>
       </c>
       <c r="K274">
         <v>0</v>
       </c>
       <c r="L274">
-        <v>0.16405518807604</v>
+        <v>0.16844986399756201</v>
       </c>
       <c r="M274">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -22324,19 +22324,19 @@
         <v>9.1571111111111101</v>
       </c>
       <c r="C275">
-        <v>0.247186648099328</v>
+        <v>0.24496101491140901</v>
       </c>
       <c r="D275">
-        <v>459245.47180486302</v>
+        <v>485140.41986072302</v>
       </c>
       <c r="E275">
-        <v>313264.673378559</v>
+        <v>330263.62707099901</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>70419.649782812397</v>
+        <v>75834.362475579997</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -22345,16 +22345,16 @@
         <v>0</v>
       </c>
       <c r="J275">
-        <v>75561.148643491193</v>
+        <v>79042.4303141446</v>
       </c>
       <c r="K275">
         <v>0</v>
       </c>
       <c r="L275">
-        <v>0.16403186988242899</v>
+        <v>0.16842734742752999</v>
       </c>
       <c r="M275">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -22365,19 +22365,19 @@
         <v>9.2085555555555505</v>
       </c>
       <c r="C276">
-        <v>0.248575337133594</v>
+        <v>0.24633720038843901</v>
       </c>
       <c r="D276">
-        <v>467004.35365920101</v>
+        <v>493356.88508485397</v>
       </c>
       <c r="E276">
-        <v>316575.234341092</v>
+        <v>333754.08964423498</v>
       </c>
       <c r="F276">
         <v>0</v>
       </c>
       <c r="G276">
-        <v>74016.5841683131</v>
+        <v>79669.753220712693</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -22386,16 +22386,16 @@
         <v>0</v>
       </c>
       <c r="J276">
-        <v>76412.535149794901</v>
+        <v>79933.042219906099</v>
       </c>
       <c r="K276">
         <v>0</v>
       </c>
       <c r="L276">
-        <v>0.164008708443035</v>
+        <v>0.168404982462384</v>
       </c>
       <c r="M276">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -22406,19 +22406,19 @@
         <v>9.26</v>
       </c>
       <c r="C277">
-        <v>0.24996402616786001</v>
+        <v>0.24771338586547001</v>
       </c>
       <c r="D277">
-        <v>474964.74649875902</v>
+        <v>501785.11275620002</v>
       </c>
       <c r="E277">
-        <v>319902.121204458</v>
+        <v>337261.76781301299</v>
       </c>
       <c r="F277">
         <v>0</v>
       </c>
       <c r="G277">
-        <v>77793.933965898002</v>
+        <v>83694.7013950775</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -22427,16 +22427,16 @@
         <v>0</v>
       </c>
       <c r="J277">
-        <v>77268.691328402798</v>
+        <v>80828.643548109001</v>
       </c>
       <c r="K277">
         <v>0</v>
       </c>
       <c r="L277">
-        <v>0.163985701827045</v>
+        <v>0.16838276723295201</v>
       </c>
       <c r="M277">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -22447,19 +22447,19 @@
         <v>9.3114444444444402</v>
       </c>
       <c r="C278">
-        <v>0.25135271520212499</v>
+        <v>0.24908957134250001</v>
       </c>
       <c r="D278">
-        <v>483135.22607490502</v>
+        <v>510435.46646671701</v>
       </c>
       <c r="E278">
-        <v>323245.32384408597</v>
+        <v>340786.650911554</v>
       </c>
       <c r="F278">
         <v>0</v>
       </c>
       <c r="G278">
-        <v>81760.285051503495</v>
+        <v>87919.581256410107</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -22468,16 +22468,16 @@
         <v>0</v>
       </c>
       <c r="J278">
-        <v>78129.617179314897</v>
+        <v>81729.234298752999</v>
       </c>
       <c r="K278">
         <v>0</v>
       </c>
       <c r="L278">
-        <v>0.163962848138063</v>
+        <v>0.168360699903401</v>
       </c>
       <c r="M278">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -22488,19 +22488,19 @@
         <v>9.3628888888888895</v>
       </c>
       <c r="C279">
-        <v>0.25274140423639102</v>
+        <v>0.25046575681952998</v>
       </c>
       <c r="D279">
-        <v>491523.93038580101</v>
+        <v>519318.11618629302</v>
       </c>
       <c r="E279">
-        <v>326604.832200779</v>
+        <v>344328.72834293603</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279">
-        <v>85923.785482490901</v>
+        <v>92354.573371518607</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -22509,16 +22509,16 @@
         <v>0</v>
       </c>
       <c r="J279">
-        <v>78995.312702531301</v>
+        <v>82634.814471838297</v>
       </c>
       <c r="K279">
         <v>0</v>
       </c>
       <c r="L279">
-        <v>0.16394014551330799</v>
+        <v>0.16833877867046401</v>
       </c>
       <c r="M279">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -22529,19 +22529,19 @@
         <v>9.4143333333333299</v>
       </c>
       <c r="C280">
-        <v>0.254130093270657</v>
+        <v>0.25184194229656098</v>
       </c>
       <c r="D280">
-        <v>500138.40856708097</v>
+        <v>528442.87652450195</v>
       </c>
       <c r="E280">
-        <v>329980.63627992698</v>
+        <v>347887.98957827099</v>
       </c>
       <c r="F280">
         <v>0</v>
       </c>
       <c r="G280">
-        <v>90291.994389101907</v>
+        <v>97009.502878866697</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="J280">
-        <v>79865.777898051907</v>
+        <v>83545.384067364794</v>
       </c>
       <c r="K280">
         <v>0</v>
       </c>
       <c r="L280">
-        <v>0.16391759212283799</v>
+        <v>0.16831700176268399</v>
       </c>
       <c r="M280">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -22570,19 +22570,19 @@
         <v>9.4657777777777703</v>
       </c>
       <c r="C281">
-        <v>0.25551878230492298</v>
+        <v>0.25321812777359098</v>
       </c>
       <c r="D281">
-        <v>508985.46871694498</v>
+        <v>537819.039052265</v>
       </c>
       <c r="E281">
-        <v>333372.72615074401</v>
+        <v>351464.42415589298</v>
       </c>
       <c r="F281">
         <v>0</v>
       </c>
       <c r="G281">
-        <v>94871.729800323606</v>
+        <v>101893.671811038</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -22591,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="J281">
-        <v>80741.012765876701</v>
+        <v>84460.943085332605</v>
       </c>
       <c r="K281">
         <v>0</v>
       </c>
       <c r="L281">
-        <v>0.16389518616879101</v>
+        <v>0.16829536743968199</v>
       </c>
       <c r="M281">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -22611,19 +22611,19 @@
         <v>9.5172222222222196</v>
       </c>
       <c r="C282">
-        <v>0.25690747133918901</v>
+        <v>0.25459431325062098</v>
       </c>
       <c r="D282">
-        <v>518071.02739386202</v>
+        <v>547455.20105311903</v>
       </c>
       <c r="E282">
-        <v>336781.09194550797</v>
+        <v>355058.02168056602</v>
       </c>
       <c r="F282">
         <v>0</v>
       </c>
       <c r="G282">
-        <v>99668.918142348499</v>
+        <v>107015.68784681099</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -22632,16 +22632,16 @@
         <v>0</v>
       </c>
       <c r="J282">
-        <v>81621.017306005699</v>
+        <v>85381.4915257416</v>
       </c>
       <c r="K282">
         <v>0</v>
       </c>
       <c r="L282">
-        <v>0.16387292588465599</v>
+        <v>0.168273873991449</v>
       </c>
       <c r="M282">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -22652,19 +22652,19 @@
         <v>9.56866666666666</v>
       </c>
       <c r="C283">
-        <v>0.25829616037345499</v>
+        <v>0.25597049872765198</v>
       </c>
       <c r="D283">
-        <v>527399.96384720504</v>
+        <v>557359.093409086</v>
       </c>
       <c r="E283">
-        <v>340205.72385881701</v>
+        <v>358668.77182269498</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283">
-        <v>104688.44846994799</v>
+        <v>112383.292197798</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="J283">
-        <v>82505.791518439</v>
+        <v>86307.029388591895</v>
       </c>
       <c r="K283">
         <v>0</v>
       </c>
       <c r="L283">
-        <v>0.163850809534555</v>
+        <v>0.16825251973764699</v>
       </c>
       <c r="M283">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -22693,19 +22693,19 @@
         <v>9.6201111111111093</v>
       </c>
       <c r="C284">
-        <v>0.25968484940772102</v>
+        <v>0.25734668420468199</v>
       </c>
       <c r="D284">
-        <v>536975.98233474803</v>
+        <v>567537.41068519698</v>
       </c>
       <c r="E284">
-        <v>343646.61214686598</v>
+        <v>362296.66431756498</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284">
-        <v>109934.034784705</v>
+        <v>118003.18969374801</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -22714,16 +22714,16 @@
         <v>0</v>
       </c>
       <c r="J284">
-        <v>83395.335403176505</v>
+        <v>87237.556673883402</v>
       </c>
       <c r="K284">
         <v>0</v>
       </c>
       <c r="L284">
-        <v>0.163828835412551</v>
+        <v>0.168231303026946</v>
       </c>
       <c r="M284">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -22734,19 +22734,19 @@
         <v>9.6715555555555497</v>
       </c>
       <c r="C285">
-        <v>0.261073538441987</v>
+        <v>0.25872286968171299</v>
       </c>
       <c r="D285">
-        <v>546801.48611513595</v>
+        <v>577995.64683348802</v>
       </c>
       <c r="E285">
-        <v>347103.74712672201</v>
+        <v>365941.68896458001</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
       <c r="G285">
-        <v>115408.090028195</v>
+        <v>123880.884487292</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -22755,16 +22755,16 @@
         <v>0</v>
       </c>
       <c r="J285">
-        <v>84289.648960218197</v>
+        <v>88173.073381616094</v>
       </c>
       <c r="K285">
         <v>0</v>
       </c>
       <c r="L285">
-        <v>0.163807001841976</v>
+        <v>0.168210222236364</v>
       </c>
       <c r="M285">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -22775,19 +22775,19 @@
         <v>9.7230000000000008</v>
       </c>
       <c r="C286">
-        <v>0.26246222747625297</v>
+        <v>0.26009905515874299</v>
       </c>
       <c r="D286">
-        <v>556877.46684699296</v>
+        <v>588737.94026030204</v>
       </c>
       <c r="E286">
-        <v>350577.11917562399</v>
+        <v>369603.83562652202</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286">
-        <v>121111.615481805</v>
+        <v>130020.52512198901</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -22796,16 +22796,16 @@
         <v>0</v>
       </c>
       <c r="J286">
-        <v>85188.732189564107</v>
+        <v>89113.5795117901</v>
       </c>
       <c r="K286">
         <v>0</v>
       </c>
       <c r="L286">
-        <v>0.16378530717477199</v>
+        <v>0.168189275770634</v>
       </c>
       <c r="M286">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -22816,19 +22816,19 @@
         <v>9.7744444444444394</v>
       </c>
       <c r="C287">
-        <v>0.26385091651051801</v>
+        <v>0.26147524063577299</v>
       </c>
       <c r="D287">
-        <v>567203.41315042297</v>
+        <v>599766.93225628405</v>
       </c>
       <c r="E287">
-        <v>354066.718730286</v>
+        <v>373283.09422882303</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
       <c r="G287">
-        <v>127044.109328922</v>
+        <v>136424.76296305499</v>
       </c>
       <c r="H287">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="J287">
-        <v>86092.585091214205</v>
+        <v>90059.075064405304</v>
       </c>
       <c r="K287">
         <v>0</v>
       </c>
       <c r="L287">
-        <v>0.163763749790859</v>
+        <v>0.168168462061587</v>
       </c>
       <c r="M287">
-        <v>0.1727667174725</v>
+        <v>0.174210110228149</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -22931,7 +22931,7 @@
         <v>109</v>
       </c>
       <c r="B301">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -22944,7 +22944,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Inleveren herkansing/NIET INLEVEREN J 1.7 excel file.xlsx
+++ b/Inleveren herkansing/NIET INLEVEREN J 1.7 excel file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\Inleveren herkansing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject 1/IP-26/Inleveren herkansing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9871B5-E0E0-41EA-987F-3E7BA30C524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AB9871B5-E0E0-41EA-987F-3E7BA30C524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3E7DB80-A079-46B3-8449-6B253D7DEB0E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,17 +703,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M301"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -721,7 +721,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -729,7 +729,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -737,7 +737,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -745,7 +745,7 @@
         <v>156.83199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -753,7 +753,7 @@
         <v>161.88800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -761,7 +761,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -769,7 +769,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -777,12 +777,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -790,7 +790,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -798,7 +798,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -806,7 +806,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -814,12 +814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -827,7 +827,7 @@
         <v>15.837999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -835,7 +835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -849,12 +849,12 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -862,7 +862,7 @@
         <v>38768.654999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -870,7 +870,7 @@
         <v>74897.298999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -884,7 +884,7 @@
         <v>7.266</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -898,7 +898,7 @@
         <v>11.263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -906,7 +906,7 @@
         <v>0.53710000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -914,12 +914,12 @@
         <v>0.52029999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -927,7 +927,7 @@
         <v>4875.5879999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -941,7 +941,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -955,7 +955,7 @@
         <v>8380400</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -963,7 +963,7 @@
         <v>6512.9639999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -971,7 +971,7 @@
         <v>7.1470000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -979,12 +979,12 @@
         <v>392.17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -992,7 +992,7 @@
         <v>4753.5600000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>13.343999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>122.589</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>533.52599999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1058,12 +1058,12 @@
         <v>61826.546999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-10.010999999999999</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>7.1470000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-2.302</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>108.575</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5.407</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>193.30500000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>13.116</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>260.339</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20.824999999999999</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>311.51</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>28.533999999999999</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>348.70699999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>36.243000000000002</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>373.61099999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>43.951999999999998</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>387.678</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51.661000000000001</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>392.17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>59.37</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>388.17399999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>67.078999999999994</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>376.61700000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>74.787999999999997</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>357.928</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>82.497</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>329.928</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>90.206000000000003</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>289.06299999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>97.915000000000006</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>238.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>105.624</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>195.77099999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>113.333</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>161.21299999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>121.042</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>128.167</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>128.751</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>93.823999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>136.46</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>144.16900000000001</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>151.87799999999999</v>
       </c>
@@ -1255,12 +1255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-10.010999999999999</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>221.179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-1.915</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>348.32499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6.18</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>449.20800000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14.275</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>526.548</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>22.37</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>583.82299999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>30.466000000000001</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>623.89700000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>38.561</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>649.08900000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>46.655999999999999</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>661.31200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>54.750999999999998</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>662.16300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>62.847000000000001</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>652.995</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>70.941999999999993</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>634.93499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79.037000000000006</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>607.16499999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>87.132000000000005</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>564.56200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>95.227999999999994</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>502.54399999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>103.32299999999999</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>433.79500000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>111.41800000000001</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>370.60700000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>119.51300000000001</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>307.90300000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>127.608</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>242.173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>135.70400000000001</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>172.78</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>143.79900000000001</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>100.56100000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>151.89400000000001</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>34.771999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>159.989</v>
       </c>
@@ -1452,12 +1452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>122.589</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>283.36200000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>131.93899999999999</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>205.49600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>141.28899999999999</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>123.02500000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>150.63900000000001</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>43.680999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>159.989</v>
       </c>
@@ -1513,12 +1513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-10.010999999999999</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>-1.915</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>6.18</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14.275</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>22.37</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>30.466000000000001</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>38.561</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>46.655999999999999</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>54.750999999999998</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>62.847000000000001</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>70.941999999999993</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>79.037000000000006</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>87.132000000000005</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>95.227999999999994</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>103.32299999999999</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>111.41800000000001</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119.51300000000001</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>127.608</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>135.70400000000001</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>143.79900000000001</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>151.89400000000001</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>159.989</v>
       </c>
@@ -2339,12 +2339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>78416.114000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>86</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -2512,32 +2512,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>19</v>
       </c>
@@ -2619,12 +2619,12 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6.0999999999999899</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>6.2</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>6.2999999999999901</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>6.4</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>6.5</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>6.5999999999999899</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>6.7</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>6.7999999999999901</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>6.9</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>7</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>7.0999999999999899</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>7.2</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>7.2999999999999901</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>7.4</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>7.5</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>7.5999999999999899</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>7.7</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>7.7999999999999901</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>7.9</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>8.0999999999999908</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>8.1999999999999904</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>8.3000000000000007</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8.4</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8.5</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8.5999999999999908</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8.6999999999999904</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8.8000000000000007</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8.9</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>9</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>9.0999999999999908</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>9.1999999999999904</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>9.3000000000000007</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>9.4</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>9.5</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>9.5999999999999908</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>9.6999999999999904</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>9.8000000000000007</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>9.9</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>10</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>10.1</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>10.1999999999999</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>10.3</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>10.4</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>10.5</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>10.6</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>10.6999999999999</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>10.8</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>10.9</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>11</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>11.1</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>11.1999999999999</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>11.3</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>11.4</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>11.5</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>11.6</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>11.6999999999999</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>11.8</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>11.9</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>12</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>12.1</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>12.1999999999999</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>12.3</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>12.4</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>12.5</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>12.6</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>12.6999999999999</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>12.8</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>13</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>13.1</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>13.1999999999999</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>13.3</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>13.4</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>13.5</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>13.6</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>13.6999999999999</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>13.8</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>13.9</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>14</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>14.1</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>14.2</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>14.3</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>14.4</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>14.5</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>14.6</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>14.7</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>14.8</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>14.9</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>15</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>15.1</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>15.2</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>15.3</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>15.4</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>15.5</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>15.6</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>15.7</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>15.8</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>15.9</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>16</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>16.100000000000001</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>16.2</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>16.3</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>16.399999999999899</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>16.5</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>16.600000000000001</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>16.7</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>16.8</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>16.899999999999899</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>17</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>17.100000000000001</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>17.2</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>17.3</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>17.399999999999899</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>17.5</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>17.600000000000001</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>17.7</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>17.8</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>17.899999999999899</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>18</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>18.100000000000001</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>18.2</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>18.3</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>18.399999999999899</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>18.5</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>18.600000000000001</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>18.7</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>18.8</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>18.899999999999899</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>19</v>
       </c>
@@ -8044,17 +8044,17 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>105</v>
       </c>
@@ -8062,22 +8062,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>106</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>107</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>108</v>
       </c>
@@ -8101,17 +8101,17 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>109</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>110</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -8141,13 +8141,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9252D66-2B01-42E1-BA19-773D2D73A304}">
   <dimension ref="A2:M302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>156.83199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>125.795</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -8211,12 +8211,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -8248,12 +8248,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>20.161000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -8283,12 +8283,12 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>6626.7960000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>74897.298999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>2.323</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>11.263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>0.34910000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -8348,12 +8348,12 @@
         <v>0.43519999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>2694.74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>2387300</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>2934.16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -8413,22 +8413,22 @@
         <v>95.698999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>122.589</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -8444,27 +8444,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>11.702999999999999</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>17.693999999999999</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>22.600999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>23.684000000000001</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>44.741</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>29.673999999999999</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>63.167999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>35.664000000000001</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>77.343999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>41.655000000000001</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>87.302000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47.645000000000003</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>53.634999999999998</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>95.698999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>59.625</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>94.93</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>65.616</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>91.498000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>71.605999999999995</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>86.012</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>77.596000000000004</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>78.632000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>83.585999999999999</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>68.947999999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>89.576999999999998</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>56.726999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>95.566999999999993</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>43.14</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>101.557</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>31.887</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>107.547</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>113.538</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>18.876000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>119.52800000000001</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>13.686</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>125.518</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>131.50800000000001</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>137.499</v>
       </c>
@@ -8656,12 +8656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-10.010999999999999</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>221.179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-1.915</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>348.32499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6.18</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>449.20800000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14.275</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>526.548</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>22.37</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>583.82299999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>30.466000000000001</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>623.89700000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>38.561</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>649.08900000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>46.655999999999999</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>661.31200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>54.750999999999998</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>662.16300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>62.847000000000001</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>652.995</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>70.941999999999993</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>634.93499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79.037000000000006</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>607.16499999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>87.132000000000005</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>564.56200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>95.227999999999994</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>502.54399999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>103.32299999999999</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>433.79500000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>111.41800000000001</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>370.60700000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>119.51300000000001</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>307.90300000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>127.608</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>242.173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>135.70400000000001</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>172.78</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>143.79900000000001</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>100.56100000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>151.89400000000001</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>34.771999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>159.989</v>
       </c>
@@ -8853,12 +8853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -8874,17 +8874,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-10.010999999999999</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>-1.915</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>6.18</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14.275</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>22.37</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>30.466000000000001</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>38.561</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>46.655999999999999</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>54.750999999999998</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>62.847000000000001</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>70.941999999999993</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>79.037000000000006</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>87.132000000000005</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>95.227999999999994</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>103.32299999999999</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>111.41800000000001</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119.51300000000001</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>127.608</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>135.70400000000001</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>143.79900000000001</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>151.89400000000001</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>159.989</v>
       </c>
@@ -9705,12 +9705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>78416.114000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>86</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -9878,32 +9878,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>19</v>
       </c>
@@ -9985,12 +9985,12 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6.0999999999999899</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>6.2</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>6.2999999999999901</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>6.4</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>6.5</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>6.5999999999999899</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>6.7</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>6.7999999999999901</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>6.9</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>7</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>7.0999999999999899</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>7.2</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>7.2999999999999901</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>7.4</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>7.5</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>7.5999999999999899</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>7.7</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>7.7999999999999901</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>7.9</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>8.0999999999999908</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>8.1999999999999904</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>8.3000000000000007</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8.4</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8.5</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8.5999999999999908</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8.6999999999999904</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8.8000000000000007</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8.9</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>9</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>9.0999999999999908</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>9.1999999999999904</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>9.3000000000000007</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>9.4</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>9.5</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>9.5999999999999908</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>9.6999999999999904</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>9.8000000000000007</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>9.9</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>10</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>10.1</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>10.1999999999999</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>10.3</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>10.4</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>10.5</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>10.6</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>10.6999999999999</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>10.8</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>10.9</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>11</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>11.1</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>11.1999999999999</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>11.3</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>11.4</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>11.5</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>11.6</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>11.6999999999999</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>11.8</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>11.9</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>12</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>12.1</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>12.1999999999999</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>12.3</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>12.4</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>12.5</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>12.6</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>12.6999999999999</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>12.8</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>13</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>13.1</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>13.1999999999999</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>13.3</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>13.4</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>13.5</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>13.6</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>13.6999999999999</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>13.8</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>13.9</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>14</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>14.1</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>14.2</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>14.3</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>14.4</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>14.5</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>14.6</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>14.7</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>14.8</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>14.9</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>15</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>15.1</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>15.2</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>15.3</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>15.4</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>15.5</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>15.6</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>15.7</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>15.8</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>15.9</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>16</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>16.100000000000001</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>16.2</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>16.3</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>16.399999999999899</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>16.5</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>16.600000000000001</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>16.7</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>16.8</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>16.899999999999899</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>17</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>17.100000000000001</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>17.2</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>17.3</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>17.399999999999899</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>17.5</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>17.600000000000001</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>17.7</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>17.8</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>17.899999999999899</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>18</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>18.100000000000001</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>18.2</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>18.3</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>18.399999999999899</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>18.5</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>18.600000000000001</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>18.7</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>18.8</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>18.899999999999899</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>19</v>
       </c>
@@ -15410,22 +15410,22 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>105</v>
       </c>
@@ -15433,22 +15433,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>106</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>107</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>108</v>
       </c>
@@ -15472,17 +15472,17 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>109</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>110</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>113</v>
       </c>
@@ -15512,13 +15512,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F90BD7-A296-44A2-B418-4DCBCAB339C9}">
   <dimension ref="A2:M303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A303"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -15526,7 +15530,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -15534,7 +15538,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -15542,7 +15546,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -15550,7 +15554,7 @@
         <v>156.83199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -15558,7 +15562,7 @@
         <v>142.447</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -15566,7 +15570,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -15574,7 +15578,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -15582,12 +15586,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -15595,7 +15599,7 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -15603,7 +15607,7 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -15611,7 +15615,7 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -15619,12 +15623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -15632,7 +15636,7 @@
         <v>14.635</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -15640,7 +15644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -15654,12 +15658,12 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -15667,7 +15671,7 @@
         <v>15132.787</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -15675,7 +15679,7 @@
         <v>74897.298999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -15689,7 +15693,7 @@
         <v>3.9470000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -15703,7 +15707,7 @@
         <v>11.263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -15711,7 +15715,7 @@
         <v>0.41589999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -15719,12 +15723,12 @@
         <v>0.45789999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -15732,7 +15736,7 @@
         <v>3571.4609999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -15746,7 +15750,7 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -15760,7 +15764,7 @@
         <v>4287100</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -15768,7 +15772,7 @@
         <v>4157.585</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -15776,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -15784,12 +15788,12 @@
         <v>186.68799999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -15797,7 +15801,7 @@
         <v>877.80700000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -15811,7 +15815,7 @@
         <v>6.9660000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -15819,7 +15823,7 @@
         <v>122.589</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -15827,7 +15831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -15835,7 +15839,7 @@
         <v>251.976</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -15849,7 +15853,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -15863,12 +15867,12 @@
         <v>13913.039000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -15876,7 +15880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -15884,7 +15888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.2210000000000001</v>
       </c>
@@ -15892,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8.0039999999999996</v>
       </c>
@@ -15900,7 +15904,7 @@
         <v>42.834000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>14.788</v>
       </c>
@@ -15908,7 +15912,7 @@
         <v>84.816999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>21.571000000000002</v>
       </c>
@@ -15916,7 +15920,7 @@
         <v>119.616</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>28.353999999999999</v>
       </c>
@@ -15924,7 +15928,7 @@
         <v>146.66800000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>35.137</v>
       </c>
@@ -15932,7 +15936,7 @@
         <v>166.29400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>41.92</v>
       </c>
@@ -15940,7 +15944,7 @@
         <v>179.06899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48.704000000000001</v>
       </c>
@@ -15948,7 +15952,7 @@
         <v>185.64500000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>55.487000000000002</v>
       </c>
@@ -15956,7 +15960,7 @@
         <v>186.68799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>62.27</v>
       </c>
@@ -15964,7 +15968,7 @@
         <v>182.874</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>69.052999999999997</v>
       </c>
@@ -15972,7 +15976,7 @@
         <v>174.905</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>75.835999999999999</v>
       </c>
@@ -15980,7 +15984,7 @@
         <v>163.14099999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>82.62</v>
       </c>
@@ -15988,7 +15992,7 @@
         <v>146.49299999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>89.403000000000006</v>
       </c>
@@ -15996,7 +16000,7 @@
         <v>123.502</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>96.186000000000007</v>
       </c>
@@ -16004,7 +16008,7 @@
         <v>95.659000000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>102.96899999999999</v>
       </c>
@@ -16012,7 +16016,7 @@
         <v>71.838999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>109.752</v>
       </c>
@@ -16020,7 +16024,7 @@
         <v>55.859000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>116.536</v>
       </c>
@@ -16028,7 +16032,7 @@
         <v>43.27</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>123.319</v>
       </c>
@@ -16036,7 +16040,7 @@
         <v>31.388000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>130.102</v>
       </c>
@@ -16044,7 +16048,7 @@
         <v>19.395</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>136.88499999999999</v>
       </c>
@@ -16052,7 +16056,7 @@
         <v>7.891</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>143.66800000000001</v>
       </c>
@@ -16060,12 +16064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -16073,7 +16077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -16081,7 +16085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-10.010999999999999</v>
       </c>
@@ -16089,7 +16093,7 @@
         <v>221.179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-1.915</v>
       </c>
@@ -16097,7 +16101,7 @@
         <v>348.32499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6.18</v>
       </c>
@@ -16105,7 +16109,7 @@
         <v>449.20800000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14.275</v>
       </c>
@@ -16113,7 +16117,7 @@
         <v>526.548</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>22.37</v>
       </c>
@@ -16121,7 +16125,7 @@
         <v>583.82299999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>30.466000000000001</v>
       </c>
@@ -16129,7 +16133,7 @@
         <v>623.89700000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>38.561</v>
       </c>
@@ -16137,7 +16141,7 @@
         <v>649.08900000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>46.655999999999999</v>
       </c>
@@ -16145,7 +16149,7 @@
         <v>661.31200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>54.750999999999998</v>
       </c>
@@ -16153,7 +16157,7 @@
         <v>662.16300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>62.847000000000001</v>
       </c>
@@ -16161,7 +16165,7 @@
         <v>652.995</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>70.941999999999993</v>
       </c>
@@ -16169,7 +16173,7 @@
         <v>634.93499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79.037000000000006</v>
       </c>
@@ -16177,7 +16181,7 @@
         <v>607.16499999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>87.132000000000005</v>
       </c>
@@ -16185,7 +16189,7 @@
         <v>564.56200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>95.227999999999994</v>
       </c>
@@ -16193,7 +16197,7 @@
         <v>502.54399999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>103.32299999999999</v>
       </c>
@@ -16201,7 +16205,7 @@
         <v>433.79500000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>111.41800000000001</v>
       </c>
@@ -16209,7 +16213,7 @@
         <v>370.60700000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>119.51300000000001</v>
       </c>
@@ -16217,7 +16221,7 @@
         <v>307.90300000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>127.608</v>
       </c>
@@ -16225,7 +16229,7 @@
         <v>242.173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>135.70400000000001</v>
       </c>
@@ -16233,7 +16237,7 @@
         <v>172.78</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>143.79900000000001</v>
       </c>
@@ -16241,7 +16245,7 @@
         <v>100.56100000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>151.89400000000001</v>
       </c>
@@ -16249,7 +16253,7 @@
         <v>34.771999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>159.989</v>
       </c>
@@ -16257,12 +16261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -16270,7 +16274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -16278,7 +16282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>122.589</v>
       </c>
@@ -16286,7 +16290,7 @@
         <v>73.831999999999994</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>129.072</v>
       </c>
@@ -16294,7 +16298,7 @@
         <v>53.691000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>135.554</v>
       </c>
@@ -16302,7 +16306,7 @@
         <v>33.085000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>142.036</v>
       </c>
@@ -16310,7 +16314,7 @@
         <v>13.071</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>148.518</v>
       </c>
@@ -16318,12 +16322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -16331,7 +16335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -16339,7 +16343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -16374,7 +16378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-10.010999999999999</v>
       </c>
@@ -16409,7 +16413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>-1.915</v>
       </c>
@@ -16444,7 +16448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>6.18</v>
       </c>
@@ -16479,7 +16483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>14.275</v>
       </c>
@@ -16514,7 +16518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>22.37</v>
       </c>
@@ -16549,7 +16553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>30.466000000000001</v>
       </c>
@@ -16584,7 +16588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>38.561</v>
       </c>
@@ -16619,7 +16623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>46.655999999999999</v>
       </c>
@@ -16654,7 +16658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>54.750999999999998</v>
       </c>
@@ -16689,7 +16693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>62.847000000000001</v>
       </c>
@@ -16724,7 +16728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>70.941999999999993</v>
       </c>
@@ -16759,7 +16763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>79.037000000000006</v>
       </c>
@@ -16794,7 +16798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>87.132000000000005</v>
       </c>
@@ -16829,7 +16833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>95.227999999999994</v>
       </c>
@@ -16864,7 +16868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>103.32299999999999</v>
       </c>
@@ -16899,7 +16903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>111.41800000000001</v>
       </c>
@@ -16934,7 +16938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119.51300000000001</v>
       </c>
@@ -16969,7 +16973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>127.608</v>
       </c>
@@ -17004,7 +17008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>135.70400000000001</v>
       </c>
@@ -17039,7 +17043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>143.79900000000001</v>
       </c>
@@ -17074,7 +17078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>151.89400000000001</v>
       </c>
@@ -17109,7 +17113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>159.989</v>
       </c>
@@ -17144,12 +17148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -17157,7 +17161,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -17165,7 +17169,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -17173,7 +17177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -17181,7 +17185,7 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -17189,7 +17193,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -17197,7 +17201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -17205,7 +17209,7 @@
         <v>78416.114000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -17213,7 +17217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -17221,7 +17225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -17229,7 +17233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -17237,7 +17241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -17245,7 +17249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -17253,7 +17257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -17261,7 +17265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -17269,7 +17273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>86</v>
       </c>
@@ -17277,7 +17281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -17285,7 +17289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -17293,7 +17297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -17301,7 +17305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -17309,7 +17313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -17317,32 +17321,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -17383,7 +17387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>19</v>
       </c>
@@ -17424,12 +17428,12 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -17437,7 +17441,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -17478,7 +17482,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6</v>
       </c>
@@ -17519,7 +17523,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6.0999999999999899</v>
       </c>
@@ -17560,7 +17564,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>6.2</v>
       </c>
@@ -17601,7 +17605,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>6.2999999999999901</v>
       </c>
@@ -17642,7 +17646,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>6.4</v>
       </c>
@@ -17683,7 +17687,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>6.5</v>
       </c>
@@ -17724,7 +17728,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>6.5999999999999899</v>
       </c>
@@ -17765,7 +17769,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>6.7</v>
       </c>
@@ -17806,7 +17810,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>6.7999999999999901</v>
       </c>
@@ -17847,7 +17851,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>6.9</v>
       </c>
@@ -17888,7 +17892,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>7</v>
       </c>
@@ -17929,7 +17933,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>7.0999999999999899</v>
       </c>
@@ -17970,7 +17974,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>7.2</v>
       </c>
@@ -18011,7 +18015,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>7.2999999999999901</v>
       </c>
@@ -18052,7 +18056,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>7.4</v>
       </c>
@@ -18093,7 +18097,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>7.5</v>
       </c>
@@ -18134,7 +18138,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>7.5999999999999899</v>
       </c>
@@ -18175,7 +18179,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>7.7</v>
       </c>
@@ -18216,7 +18220,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>7.7999999999999901</v>
       </c>
@@ -18257,7 +18261,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>7.9</v>
       </c>
@@ -18298,7 +18302,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>8</v>
       </c>
@@ -18339,7 +18343,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>8.0999999999999908</v>
       </c>
@@ -18380,7 +18384,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>8.1999999999999904</v>
       </c>
@@ -18421,7 +18425,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>8.3000000000000007</v>
       </c>
@@ -18462,7 +18466,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8.4</v>
       </c>
@@ -18503,7 +18507,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>8.5</v>
       </c>
@@ -18544,7 +18548,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>8.5999999999999908</v>
       </c>
@@ -18585,7 +18589,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>8.6999999999999904</v>
       </c>
@@ -18626,7 +18630,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>8.8000000000000007</v>
       </c>
@@ -18667,7 +18671,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>8.9</v>
       </c>
@@ -18708,7 +18712,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>9</v>
       </c>
@@ -18749,7 +18753,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>9.0999999999999908</v>
       </c>
@@ -18790,7 +18794,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>9.1999999999999904</v>
       </c>
@@ -18831,7 +18835,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>9.3000000000000007</v>
       </c>
@@ -18872,7 +18876,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>9.4</v>
       </c>
@@ -18913,7 +18917,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>9.5</v>
       </c>
@@ -18954,7 +18958,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>9.5999999999999908</v>
       </c>
@@ -18995,7 +18999,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>9.6999999999999904</v>
       </c>
@@ -19036,7 +19040,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>9.8000000000000007</v>
       </c>
@@ -19077,7 +19081,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>9.9</v>
       </c>
@@ -19118,7 +19122,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>10</v>
       </c>
@@ -19159,7 +19163,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>10.1</v>
       </c>
@@ -19200,7 +19204,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>10.1999999999999</v>
       </c>
@@ -19241,7 +19245,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>10.3</v>
       </c>
@@ -19282,7 +19286,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>10.4</v>
       </c>
@@ -19323,7 +19327,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>10.5</v>
       </c>
@@ -19364,7 +19368,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>10.6</v>
       </c>
@@ -19405,7 +19409,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>10.6999999999999</v>
       </c>
@@ -19446,7 +19450,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>10.8</v>
       </c>
@@ -19487,7 +19491,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>10.9</v>
       </c>
@@ -19528,7 +19532,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>11</v>
       </c>
@@ -19569,7 +19573,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>11.1</v>
       </c>
@@ -19610,7 +19614,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>11.1999999999999</v>
       </c>
@@ -19651,7 +19655,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>11.3</v>
       </c>
@@ -19692,7 +19696,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>11.4</v>
       </c>
@@ -19733,7 +19737,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>11.5</v>
       </c>
@@ -19774,7 +19778,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>11.6</v>
       </c>
@@ -19815,7 +19819,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>11.6999999999999</v>
       </c>
@@ -19856,7 +19860,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>11.8</v>
       </c>
@@ -19897,7 +19901,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>11.9</v>
       </c>
@@ -19938,7 +19942,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>12</v>
       </c>
@@ -19979,7 +19983,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>12.1</v>
       </c>
@@ -20020,7 +20024,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>12.1999999999999</v>
       </c>
@@ -20061,7 +20065,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>12.3</v>
       </c>
@@ -20102,7 +20106,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>12.4</v>
       </c>
@@ -20143,7 +20147,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>12.5</v>
       </c>
@@ -20184,7 +20188,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>12.6</v>
       </c>
@@ -20225,7 +20229,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>12.6999999999999</v>
       </c>
@@ -20266,7 +20270,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>12.8</v>
       </c>
@@ -20307,7 +20311,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -20348,7 +20352,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>13</v>
       </c>
@@ -20389,7 +20393,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>13.1</v>
       </c>
@@ -20430,7 +20434,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>13.1999999999999</v>
       </c>
@@ -20471,7 +20475,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>13.3</v>
       </c>
@@ -20512,7 +20516,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>13.4</v>
       </c>
@@ -20553,7 +20557,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>13.5</v>
       </c>
@@ -20594,7 +20598,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>13.6</v>
       </c>
@@ -20635,7 +20639,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>13.6999999999999</v>
       </c>
@@ -20676,7 +20680,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>13.8</v>
       </c>
@@ -20717,7 +20721,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>13.9</v>
       </c>
@@ -20758,7 +20762,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>14</v>
       </c>
@@ -20799,7 +20803,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>14.1</v>
       </c>
@@ -20840,7 +20844,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>14.2</v>
       </c>
@@ -20881,7 +20885,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>14.3</v>
       </c>
@@ -20922,7 +20926,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>14.4</v>
       </c>
@@ -20963,7 +20967,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>14.5</v>
       </c>
@@ -21004,7 +21008,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>14.6</v>
       </c>
@@ -21045,7 +21049,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>14.7</v>
       </c>
@@ -21086,7 +21090,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>14.8</v>
       </c>
@@ -21127,7 +21131,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>14.9</v>
       </c>
@@ -21168,7 +21172,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>15</v>
       </c>
@@ -21209,7 +21213,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>15.1</v>
       </c>
@@ -21250,7 +21254,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>15.2</v>
       </c>
@@ -21291,7 +21295,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>15.3</v>
       </c>
@@ -21332,7 +21336,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>15.4</v>
       </c>
@@ -21373,7 +21377,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>15.5</v>
       </c>
@@ -21414,7 +21418,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>15.6</v>
       </c>
@@ -21455,7 +21459,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>15.7</v>
       </c>
@@ -21496,7 +21500,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>15.8</v>
       </c>
@@ -21537,7 +21541,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>15.9</v>
       </c>
@@ -21578,7 +21582,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>16</v>
       </c>
@@ -21619,7 +21623,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>16.100000000000001</v>
       </c>
@@ -21660,7 +21664,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>16.2</v>
       </c>
@@ -21701,7 +21705,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>16.3</v>
       </c>
@@ -21742,7 +21746,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>16.399999999999899</v>
       </c>
@@ -21783,7 +21787,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>16.5</v>
       </c>
@@ -21824,7 +21828,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>16.600000000000001</v>
       </c>
@@ -21865,7 +21869,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>16.7</v>
       </c>
@@ -21906,7 +21910,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>16.8</v>
       </c>
@@ -21947,7 +21951,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>16.899999999999899</v>
       </c>
@@ -21988,7 +21992,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>17</v>
       </c>
@@ -22029,7 +22033,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>17.100000000000001</v>
       </c>
@@ -22070,7 +22074,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>17.2</v>
       </c>
@@ -22111,7 +22115,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>17.3</v>
       </c>
@@ -22152,7 +22156,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>17.399999999999899</v>
       </c>
@@ -22193,7 +22197,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>17.5</v>
       </c>
@@ -22234,7 +22238,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>17.600000000000001</v>
       </c>
@@ -22275,7 +22279,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>17.7</v>
       </c>
@@ -22316,7 +22320,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>17.8</v>
       </c>
@@ -22357,7 +22361,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>17.899999999999899</v>
       </c>
@@ -22398,7 +22402,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>18</v>
       </c>
@@ -22439,7 +22443,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>18.100000000000001</v>
       </c>
@@ -22480,7 +22484,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>18.2</v>
       </c>
@@ -22521,7 +22525,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>18.3</v>
       </c>
@@ -22562,7 +22566,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>18.399999999999899</v>
       </c>
@@ -22603,7 +22607,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>18.5</v>
       </c>
@@ -22644,7 +22648,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>18.600000000000001</v>
       </c>
@@ -22685,7 +22689,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>18.7</v>
       </c>
@@ -22726,7 +22730,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>18.8</v>
       </c>
@@ -22767,7 +22771,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>18.899999999999899</v>
       </c>
@@ -22808,7 +22812,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>19</v>
       </c>
@@ -22849,27 +22853,27 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>105</v>
       </c>
@@ -22877,22 +22881,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>106</v>
       </c>
@@ -22900,7 +22904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>107</v>
       </c>
@@ -22908,7 +22912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>108</v>
       </c>
@@ -22916,17 +22920,17 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>109</v>
       </c>
@@ -22934,7 +22938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>110</v>
       </c>
@@ -22942,7 +22946,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>114</v>
       </c>

--- a/Inleveren herkansing/NIET INLEVEREN J 1.7 excel file.xlsx
+++ b/Inleveren herkansing/NIET INLEVEREN J 1.7 excel file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject 1/IP-26/Inleveren herkansing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\Inleveren herkansing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AB9871B5-E0E0-41EA-987F-3E7BA30C524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3E7DB80-A079-46B3-8449-6B253D7DEB0E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3B7E7D-48B2-4ECD-9451-1CC01F9CF29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -707,13 +707,13 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -721,7 +721,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -729,7 +729,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -737,7 +737,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -745,7 +745,7 @@
         <v>156.83199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -753,7 +753,7 @@
         <v>161.88800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -761,7 +761,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -769,7 +769,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -777,12 +777,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -790,7 +790,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -798,7 +798,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -806,7 +806,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -814,12 +814,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -827,7 +827,7 @@
         <v>15.837999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -835,7 +835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -849,12 +849,12 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -862,7 +862,7 @@
         <v>38768.654999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -870,7 +870,7 @@
         <v>74897.298999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -884,7 +884,7 @@
         <v>7.266</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -898,7 +898,7 @@
         <v>11.263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -906,7 +906,7 @@
         <v>0.53710000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -914,12 +914,12 @@
         <v>0.52029999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -927,7 +927,7 @@
         <v>4875.5879999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -941,7 +941,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -955,7 +955,7 @@
         <v>8380400</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -963,7 +963,7 @@
         <v>6512.9639999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -971,7 +971,7 @@
         <v>7.1470000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -979,12 +979,12 @@
         <v>392.17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -992,7 +992,7 @@
         <v>4753.5600000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>13.343999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>122.589</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>533.52599999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -1058,12 +1058,12 @@
         <v>61826.546999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-10.010999999999999</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>7.1470000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-2.302</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>108.575</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.407</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>193.30500000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13.116</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>260.339</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20.824999999999999</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>311.51</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>28.533999999999999</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>348.70699999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>36.243000000000002</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>373.61099999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43.951999999999998</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>387.678</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51.661000000000001</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>392.17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>59.37</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>388.17399999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>67.078999999999994</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>376.61700000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>74.787999999999997</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>357.928</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>82.497</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>329.928</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>90.206000000000003</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>289.06299999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>97.915000000000006</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>238.86</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>105.624</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>195.77099999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>113.333</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>161.21299999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>121.042</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>128.167</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>128.751</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>93.823999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>136.46</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>58.07</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>144.16900000000001</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>151.87799999999999</v>
       </c>
@@ -1255,12 +1255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-10.010999999999999</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>221.179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.915</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>348.32499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.18</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>449.20800000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14.275</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>526.548</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>22.37</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>583.82299999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>30.466000000000001</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>623.89700000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>38.561</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>649.08900000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>46.655999999999999</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>661.31200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>54.750999999999998</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>662.16300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>62.847000000000001</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>652.995</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>70.941999999999993</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>634.93499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79.037000000000006</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>607.16499999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>87.132000000000005</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>564.56200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95.227999999999994</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>502.54399999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>103.32299999999999</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>433.79500000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>111.41800000000001</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>370.60700000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>119.51300000000001</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>307.90300000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>127.608</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>242.173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>135.70400000000001</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>172.78</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>143.79900000000001</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>100.56100000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>151.89400000000001</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>34.771999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>159.989</v>
       </c>
@@ -1452,12 +1452,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>122.589</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>283.36200000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>131.93899999999999</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>205.49600000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>141.28899999999999</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>123.02500000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>150.63900000000001</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>43.680999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>159.989</v>
       </c>
@@ -1513,12 +1513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-10.010999999999999</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-1.915</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6.18</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14.275</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22.37</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>30.466000000000001</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>38.561</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>46.655999999999999</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>54.750999999999998</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>62.847000000000001</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>70.941999999999993</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>79.037000000000006</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87.132000000000005</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>95.227999999999994</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>103.32299999999999</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>111.41800000000001</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119.51300000000001</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>127.608</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>135.70400000000001</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>143.79900000000001</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>151.89400000000001</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>159.989</v>
       </c>
@@ -2339,12 +2339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>11.999000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>78416.114000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>86</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -2512,32 +2512,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>19</v>
       </c>
@@ -2619,12 +2619,12 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6.0999999999999899</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6.2</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6.2999999999999901</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6.4</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6.5</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6.5999999999999899</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6.7</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6.7999999999999901</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6.9</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7.0999999999999899</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7.2</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.2999999999999901</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7.4</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7.5</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7.5999999999999899</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7.7</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7.7999999999999901</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7.9</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8.0999999999999908</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8.1999999999999904</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8.3000000000000007</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8.4</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8.5</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8.5999999999999908</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8.6999999999999904</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8.8000000000000007</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8.9</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9.0999999999999908</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9.1999999999999904</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9.3000000000000007</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9.4</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9.5</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9.5999999999999908</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9.6999999999999904</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9.8000000000000007</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9.9</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10.1</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10.1999999999999</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10.3</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10.4</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10.5</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10.6</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10.6999999999999</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>10.8</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10.9</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>11</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11.1</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11.1999999999999</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11.3</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11.4</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11.5</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11.6</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11.6999999999999</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11.8</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>11.9</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>12</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>12.1</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>12.1999999999999</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12.3</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>12.4</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>12.5</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12.6</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>12.6999999999999</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>12.8</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13.1</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13.1999999999999</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13.3</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13.4</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13.5</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>13.6</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>13.6999999999999</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>13.8</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>13.9</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>14</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>14.1</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14.2</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>14.3</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14.4</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>14.5</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14.6</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14.7</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14.8</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>14.9</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>15</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>15.1</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>15.2</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>15.3</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>15.4</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>15.5</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>15.6</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>15.7</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>15.8</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>15.9</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>16</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>16.100000000000001</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>16.2</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>16.3</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16.399999999999899</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>16.5</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>16.600000000000001</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>16.7</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>16.8</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>16.899999999999899</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>17</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>17.100000000000001</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>17.2</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>17.3</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>17.399999999999899</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>17.5</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>17.600000000000001</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>17.7</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>17.8</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>17.899999999999899</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>18</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>18.100000000000001</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>18.2</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>18.3</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>18.399999999999899</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>18.5</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>18.600000000000001</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>18.7</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>18.8</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>18.899999999999899</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>19</v>
       </c>
@@ -8044,17 +8044,17 @@
         <v>0.18758071513407701</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>105</v>
       </c>
@@ -8062,22 +8062,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>106</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>107</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>108</v>
       </c>
@@ -8101,17 +8101,17 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>109</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>110</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -8141,13 +8141,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9252D66-2B01-42E1-BA19-773D2D73A304}">
   <dimension ref="A2:M302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>156.83199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>125.795</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -8211,12 +8211,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -8248,12 +8248,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>20.161000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -8283,12 +8283,12 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>6626.7960000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>74897.298999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>2.323</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>11.263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>0.34910000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -8348,12 +8348,12 @@
         <v>0.43519999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>2694.74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>2387300</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>2934.16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -8413,22 +8413,22 @@
         <v>95.698999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>122.589</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -8444,27 +8444,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11.702999999999999</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17.693999999999999</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>22.600999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>23.684000000000001</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>44.741</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>29.673999999999999</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>63.167999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>35.664000000000001</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>77.343999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>41.655000000000001</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>87.302000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47.645000000000003</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>93.3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>53.634999999999998</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>95.698999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>59.625</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>94.93</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>65.616</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>91.498000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>71.605999999999995</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>86.012</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>77.596000000000004</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>78.632000000000005</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>83.585999999999999</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>68.947999999999993</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>89.576999999999998</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>56.726999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>95.566999999999993</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>43.14</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>101.557</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>31.887</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>107.547</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>113.538</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>18.876000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>119.52800000000001</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>13.686</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>125.518</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>8.36</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>131.50800000000001</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>3.2829999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>137.499</v>
       </c>
@@ -8656,12 +8656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-10.010999999999999</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>221.179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.915</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>348.32499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.18</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>449.20800000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14.275</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>526.548</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>22.37</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>583.82299999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>30.466000000000001</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>623.89700000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>38.561</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>649.08900000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>46.655999999999999</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>661.31200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>54.750999999999998</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>662.16300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>62.847000000000001</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>652.995</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>70.941999999999993</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>634.93499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79.037000000000006</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>607.16499999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>87.132000000000005</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>564.56200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95.227999999999994</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>502.54399999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>103.32299999999999</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>433.79500000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>111.41800000000001</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>370.60700000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>119.51300000000001</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>307.90300000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>127.608</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>242.173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>135.70400000000001</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>172.78</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>143.79900000000001</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>100.56100000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>151.89400000000001</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>34.771999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>159.989</v>
       </c>
@@ -8853,12 +8853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -8874,17 +8874,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-10.010999999999999</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-1.915</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6.18</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14.275</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22.37</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>30.466000000000001</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>38.561</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>46.655999999999999</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>54.750999999999998</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>62.847000000000001</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>70.941999999999993</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>79.037000000000006</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87.132000000000005</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>95.227999999999994</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>103.32299999999999</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>111.41800000000001</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119.51300000000001</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>127.608</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>135.70400000000001</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>143.79900000000001</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>151.89400000000001</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>159.989</v>
       </c>
@@ -9705,12 +9705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>78416.114000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>86</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -9878,32 +9878,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>19</v>
       </c>
@@ -9985,12 +9985,12 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6.0999999999999899</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6.2</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6.2999999999999901</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6.4</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6.5</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6.5999999999999899</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6.7</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6.7999999999999901</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6.9</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7.0999999999999899</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7.2</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.2999999999999901</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7.4</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7.5</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7.5999999999999899</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7.7</v>
       </c>
@@ -10777,7 +10777,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7.7999999999999901</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7.9</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8.0999999999999908</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8.1999999999999904</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8.3000000000000007</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8.4</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8.5</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8.5999999999999908</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8.6999999999999904</v>
       </c>
@@ -11187,7 +11187,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8.8000000000000007</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8.9</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9.0999999999999908</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9.1999999999999904</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9.3000000000000007</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9.4</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9.5</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9.5999999999999908</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9.6999999999999904</v>
       </c>
@@ -11597,7 +11597,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9.8000000000000007</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9.9</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10.1</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10.1999999999999</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10.3</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10.4</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10.5</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10.6</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10.6999999999999</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>10.8</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10.9</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>11</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11.1</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11.1999999999999</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11.3</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11.4</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11.5</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11.6</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11.6999999999999</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11.8</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>11.9</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>12</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>12.1</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>12.1999999999999</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12.3</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>12.4</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>12.5</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12.6</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>12.6999999999999</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>12.8</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13.1</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13.1999999999999</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13.3</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13.4</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13.5</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>13.6</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>13.6999999999999</v>
       </c>
@@ -13237,7 +13237,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>13.8</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>13.9</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>14</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>14.1</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14.2</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>14.3</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14.4</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>14.5</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14.6</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14.7</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14.8</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>14.9</v>
       </c>
@@ -13729,7 +13729,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>15</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>15.1</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>15.2</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>15.3</v>
       </c>
@@ -13893,7 +13893,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>15.4</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>15.5</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>15.6</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>15.7</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>15.8</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>15.9</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>16</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>16.100000000000001</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>16.2</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>16.3</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16.399999999999899</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>16.5</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>16.600000000000001</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>16.7</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>16.8</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>16.899999999999899</v>
       </c>
@@ -14549,7 +14549,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>17</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>17.100000000000001</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>17.2</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>17.3</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>17.399999999999899</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>17.5</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>17.600000000000001</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>17.7</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>17.8</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>17.899999999999899</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>18</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>18.100000000000001</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>18.2</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>18.3</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>18.399999999999899</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>18.5</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>18.600000000000001</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>18.7</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>18.8</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>18.899999999999899</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>19</v>
       </c>
@@ -15410,22 +15410,22 @@
         <v>0.16516413759793699</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>105</v>
       </c>
@@ -15433,22 +15433,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>106</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>107</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>108</v>
       </c>
@@ -15472,17 +15472,17 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>109</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>110</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>113</v>
       </c>
@@ -15512,17 +15512,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F90BD7-A296-44A2-B418-4DCBCAB339C9}">
   <dimension ref="A2:M303"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>39.398000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>18.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>156.83199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>142.447</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>7.8419999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>86.257999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -15586,12 +15586,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -15623,12 +15623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>14.635</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -15658,12 +15658,12 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>15132.787</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>74897.298999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>3.9470000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -15707,7 +15707,7 @@
         <v>11.263</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>0.41589999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -15723,12 +15723,12 @@
         <v>0.45789999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>3571.4609999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>4287100</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>4157.585</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -15788,34 +15788,34 @@
         <v>186.68799999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
       <c r="B34">
-        <v>877.80700000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>475.09399999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
       <c r="B35">
-        <v>130.56299999999999</v>
+        <v>129.65</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>6.9660000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.5720000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -15823,56 +15823,56 @@
         <v>122.589</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
       <c r="B37">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
       <c r="B38">
-        <v>251.976</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>171.92099999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
       <c r="B39">
-        <v>132.08000000000001</v>
+        <v>131.131</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
       <c r="B40">
-        <v>3232.8249999999998</v>
+        <v>1263.662</v>
       </c>
       <c r="C40">
-        <v>10680.213</v>
+        <v>5813.59</v>
       </c>
       <c r="D40">
-        <v>13913.039000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7077.2520000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.2210000000000001</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8.0039999999999996</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>42.834000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>14.788</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>84.816999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>21.571000000000002</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>119.616</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>28.353999999999999</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>146.66800000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>35.137</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>166.29400000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>41.92</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>179.06899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48.704000000000001</v>
       </c>
@@ -15952,7 +15952,7 @@
         <v>185.64500000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>55.487000000000002</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>186.68799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>62.27</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>182.874</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>69.052999999999997</v>
       </c>
@@ -15976,7 +15976,7 @@
         <v>174.905</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>75.835999999999999</v>
       </c>
@@ -15984,7 +15984,7 @@
         <v>163.14099999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>82.62</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>146.49299999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>89.403000000000006</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>123.502</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>96.186000000000007</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>95.659000000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>102.96899999999999</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>71.838999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>109.752</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>55.859000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>116.536</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>43.27</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>123.319</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>31.388000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>130.102</v>
       </c>
@@ -16048,7 +16048,7 @@
         <v>19.395</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>136.88499999999999</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>7.891</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>143.66800000000001</v>
       </c>
@@ -16064,12 +16064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>58</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>59</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-10.010999999999999</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>221.179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.915</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>348.32499999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.18</v>
       </c>
@@ -16109,7 +16109,7 @@
         <v>449.20800000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14.275</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>526.548</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>22.37</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>583.82299999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>30.466000000000001</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>623.89700000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>38.561</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>649.08900000000006</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>46.655999999999999</v>
       </c>
@@ -16149,7 +16149,7 @@
         <v>661.31200000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>54.750999999999998</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>662.16300000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>62.847000000000001</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>652.995</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>70.941999999999993</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>634.93499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79.037000000000006</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>607.16499999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>87.132000000000005</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>564.56200000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95.227999999999994</v>
       </c>
@@ -16197,7 +16197,7 @@
         <v>502.54399999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>103.32299999999999</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>433.79500000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>111.41800000000001</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>370.60700000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>119.51300000000001</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>307.90300000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>127.608</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>242.173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>135.70400000000001</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>172.78</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>143.79900000000001</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>100.56100000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>151.89400000000001</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>34.771999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>159.989</v>
       </c>
@@ -16261,12 +16261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>58</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>59</v>
       </c>
@@ -16282,52 +16282,52 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>122.589</v>
       </c>
       <c r="B94">
-        <v>73.831999999999994</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45.384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>129.072</v>
+        <v>128.34200000000001</v>
       </c>
       <c r="B95">
-        <v>53.691000000000003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32.743000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>135.554</v>
+        <v>134.095</v>
       </c>
       <c r="B96">
-        <v>33.085000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>20.035</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>142.036</v>
+        <v>139.84700000000001</v>
       </c>
       <c r="B97">
-        <v>13.071</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.9580000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>148.518</v>
+        <v>145.6</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>-10.010999999999999</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>-1.915</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6.18</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>14.275</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22.37</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>30.466000000000001</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>38.561</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>46.655999999999999</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>54.750999999999998</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>62.847000000000001</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>70.941999999999993</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>79.037000000000006</v>
       </c>
@@ -16798,7 +16798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>87.132000000000005</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>95.227999999999994</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>103.32299999999999</v>
       </c>
@@ -16903,7 +16903,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>111.41800000000001</v>
       </c>
@@ -16938,7 +16938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119.51300000000001</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>127.608</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>135.70400000000001</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>143.79900000000001</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>151.89400000000001</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>159.989</v>
       </c>
@@ -17148,12 +17148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>73</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>74</v>
       </c>
@@ -17169,7 +17169,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>6.4989999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>78416.114000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>81</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>35</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>84</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>85</v>
       </c>
@@ -17273,7 +17273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>86</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>88</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>89</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>91</v>
       </c>
@@ -17321,32 +17321,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>19</v>
       </c>
@@ -17428,12 +17428,12 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
@@ -17523,7 +17523,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6.0999999999999899</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6.2</v>
       </c>
@@ -17605,7 +17605,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6.2999999999999901</v>
       </c>
@@ -17646,7 +17646,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6.4</v>
       </c>
@@ -17687,7 +17687,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6.5</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6.5999999999999899</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6.7</v>
       </c>
@@ -17810,7 +17810,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6.7999999999999901</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6.9</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7.0999999999999899</v>
       </c>
@@ -17974,7 +17974,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7.2</v>
       </c>
@@ -18015,7 +18015,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.2999999999999901</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7.4</v>
       </c>
@@ -18097,7 +18097,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7.5</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7.5999999999999899</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7.7</v>
       </c>
@@ -18220,7 +18220,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7.7999999999999901</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7.9</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -18343,7 +18343,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8.0999999999999908</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8.1999999999999904</v>
       </c>
@@ -18425,7 +18425,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8.3000000000000007</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8.4</v>
       </c>
@@ -18507,7 +18507,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8.5</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8.5999999999999908</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8.6999999999999904</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8.8000000000000007</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8.9</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -18753,7 +18753,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>9.0999999999999908</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>9.1999999999999904</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9.3000000000000007</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9.4</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>9.5</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9.5999999999999908</v>
       </c>
@@ -18999,7 +18999,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>9.6999999999999904</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>9.8000000000000007</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9.9</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10</v>
       </c>
@@ -19163,7 +19163,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10.1</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10.1999999999999</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>10.3</v>
       </c>
@@ -19286,7 +19286,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10.4</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10.5</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>10.6</v>
       </c>
@@ -19409,7 +19409,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>10.6999999999999</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>10.8</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>10.9</v>
       </c>
@@ -19532,7 +19532,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>11</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11.1</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11.1999999999999</v>
       </c>
@@ -19655,7 +19655,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11.3</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11.4</v>
       </c>
@@ -19737,7 +19737,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11.5</v>
       </c>
@@ -19778,7 +19778,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11.6</v>
       </c>
@@ -19819,7 +19819,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11.6999999999999</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11.8</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>11.9</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>12</v>
       </c>
@@ -19983,7 +19983,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>12.1</v>
       </c>
@@ -20024,7 +20024,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>12.1999999999999</v>
       </c>
@@ -20065,7 +20065,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>12.3</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>12.4</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>12.5</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12.6</v>
       </c>
@@ -20229,7 +20229,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>12.6999999999999</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>12.8</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>12.9</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>13</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>13.1</v>
       </c>
@@ -20434,7 +20434,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>13.1999999999999</v>
       </c>
@@ -20475,7 +20475,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>13.3</v>
       </c>
@@ -20516,7 +20516,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>13.4</v>
       </c>
@@ -20557,7 +20557,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13.5</v>
       </c>
@@ -20598,7 +20598,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>13.6</v>
       </c>
@@ -20639,7 +20639,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>13.6999999999999</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>13.8</v>
       </c>
@@ -20721,7 +20721,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>13.9</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>14</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>14.1</v>
       </c>
@@ -20844,7 +20844,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14.2</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>14.3</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14.4</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>14.5</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14.6</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14.7</v>
       </c>
@@ -21090,7 +21090,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14.8</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>14.9</v>
       </c>
@@ -21172,7 +21172,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>15</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>15.1</v>
       </c>
@@ -21254,7 +21254,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>15.2</v>
       </c>
@@ -21295,7 +21295,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>15.3</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>15.4</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>15.5</v>
       </c>
@@ -21418,7 +21418,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>15.6</v>
       </c>
@@ -21459,7 +21459,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>15.7</v>
       </c>
@@ -21500,7 +21500,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>15.8</v>
       </c>
@@ -21541,7 +21541,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>15.9</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>16</v>
       </c>
@@ -21623,7 +21623,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>16.100000000000001</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>16.2</v>
       </c>
@@ -21705,7 +21705,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>16.3</v>
       </c>
@@ -21746,7 +21746,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16.399999999999899</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>16.5</v>
       </c>
@@ -21828,7 +21828,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>16.600000000000001</v>
       </c>
@@ -21869,7 +21869,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>16.7</v>
       </c>
@@ -21910,7 +21910,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>16.8</v>
       </c>
@@ -21951,7 +21951,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>16.899999999999899</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>17</v>
       </c>
@@ -22033,7 +22033,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>17.100000000000001</v>
       </c>
@@ -22074,7 +22074,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>17.2</v>
       </c>
@@ -22115,7 +22115,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>17.3</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>17.399999999999899</v>
       </c>
@@ -22197,7 +22197,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>17.5</v>
       </c>
@@ -22238,7 +22238,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>17.600000000000001</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>17.7</v>
       </c>
@@ -22320,7 +22320,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>17.8</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>17.899999999999899</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>18</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>18.100000000000001</v>
       </c>
@@ -22484,7 +22484,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>18.2</v>
       </c>
@@ -22525,7 +22525,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>18.3</v>
       </c>
@@ -22566,7 +22566,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>18.399999999999899</v>
       </c>
@@ -22607,7 +22607,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>18.5</v>
       </c>
@@ -22648,7 +22648,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>18.600000000000001</v>
       </c>
@@ -22689,7 +22689,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>18.7</v>
       </c>
@@ -22730,7 +22730,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>18.8</v>
       </c>
@@ -22771,7 +22771,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>18.899999999999899</v>
       </c>
@@ -22812,7 +22812,7 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>19</v>
       </c>
@@ -22853,27 +22853,27 @@
         <v>0.174210110228149</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>105</v>
       </c>
@@ -22881,22 +22881,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>106</v>
       </c>
@@ -22904,7 +22904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>107</v>
       </c>
@@ -22912,7 +22912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>108</v>
       </c>
@@ -22920,17 +22920,17 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>109</v>
       </c>
@@ -22938,7 +22938,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>110</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>114</v>
       </c>
